--- a/kyton_out.xlsx
+++ b/kyton_out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="234">
   <si>
     <t>Serial Number</t>
   </si>
@@ -31,34 +31,774 @@
     <t>Power (dBm)</t>
   </si>
   <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>db</t>
+    <t>Fiber 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499986738.5064952</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.44
+</t>
+  </si>
+  <si>
+    <t>Fiber 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.38
+</t>
+  </si>
+  <si>
+    <t>Fiber 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.35
+</t>
+  </si>
+  <si>
+    <t>Fiber 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.5988</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992153.1634235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.7429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.462
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.3051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.362
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.632
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59862</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.52
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992321.1828449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9195</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.7432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.456
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.346
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.622
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.53
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992385.1710615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.374
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8353</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.684
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.486
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992403.1610868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.43
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.348
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.648
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.5977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.524
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992420.6811113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.915</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.454
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.366
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.654
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992438.6711366</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9155</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.412
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30474</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.324
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.678
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59758</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.522
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992456.1711612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.448
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.382
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.642
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.5973</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.452
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992473.6811855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.46
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.314
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.686
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.496
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992491.18121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.91750000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.3046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.835</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.658
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.526
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992508.6712346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.47
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30484</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.332
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.624
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59816</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.518
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992526.171259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.922</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.486
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.37
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.664
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.584
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992543.6712835</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.338
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.704
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.468
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992561.191308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.444
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83494</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.614
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.516
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992811.1827204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.96050000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.45
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30546</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.328
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.662
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59896</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.514
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992824.1927388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9635</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.466
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83572</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.626
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.474
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992837.6827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.436
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.668
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.568
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992850.6827757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.452
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.356
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.8359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59892</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.46
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992863.692794</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74426</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.464
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83634</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59918</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.506
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992876.1828117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.7445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.458
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.334
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83662</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.666
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.558
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992888.6828291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74438</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.384
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59976</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.546
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992901.1828468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.674
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59874</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992913.692864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.3063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.698
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -19.544
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992926.1928816</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.96949999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.51
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.358
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.68
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.59982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499992938.692899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.972</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1553.74416</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10.422
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.354
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1551.83602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -15.636
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.5986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499993001.2029865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248.9785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1556.30542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1550.5982</t>
   </si>
 </sst>
 </file>
@@ -390,13 +1130,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -429,20 +1172,2016 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" t="s">
+        <v>171</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" t="s">
+        <v>186</v>
+      </c>
+      <c r="E118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" t="s">
+        <v>199</v>
+      </c>
+      <c r="D131" t="s">
+        <v>203</v>
+      </c>
+      <c r="E131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" t="s">
+        <v>206</v>
+      </c>
+      <c r="E134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" t="s">
+        <v>205</v>
+      </c>
+      <c r="D135" t="s">
+        <v>207</v>
+      </c>
+      <c r="E135" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E136" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" t="s">
+        <v>205</v>
+      </c>
+      <c r="D137" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E140" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" t="s">
+        <v>223</v>
+      </c>
+      <c r="E146" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+      <c r="D147" t="s">
+        <v>225</v>
+      </c>
+      <c r="E147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" t="s">
+        <v>227</v>
+      </c>
+      <c r="E148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>221</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>229</v>
+      </c>
+      <c r="E149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>230</v>
+      </c>
+      <c r="C152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>230</v>
+      </c>
+      <c r="C153" t="s">
+        <v>231</v>
+      </c>
+      <c r="D153" t="s">
+        <v>232</v>
+      </c>
+      <c r="E153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" t="s">
+        <v>231</v>
+      </c>
+      <c r="D154" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155" t="s">
+        <v>233</v>
+      </c>
+      <c r="E155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/kyton_out.xlsx
+++ b/kyton_out.xlsx
@@ -957,79 +957,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-0.01500000007581548</c:v>
+                  <c:v>-2.273736754432321e-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1549999997223495</c:v>
+                  <c:v>-0.1399999998739077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.6399999999757711</c:v>
+                  <c:v>-0.6250000001273293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.529999999798747</c:v>
+                  <c:v>-0.5149999999503052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4300000000512227</c:v>
+                  <c:v>-0.4150000002027809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5349999996724364</c:v>
+                  <c:v>-0.5199999998239946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.7849999997233681</c:v>
+                  <c:v>-0.7699999998749263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.7000000000516593</c:v>
+                  <c:v>-0.6850000002032175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.4149999999754073</c:v>
+                  <c:v>-0.4000000001269655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1449999999749707</c:v>
+                  <c:v>-0.1300000001265289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2399999998488056</c:v>
+                  <c:v>-0.2250000000003638</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.244999999722495</c:v>
+                  <c:v>-0.2299999998740532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3999999998995918</c:v>
+                  <c:v>-0.38500000005115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7100000000264117</c:v>
+                  <c:v>0.7249999998748535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4250000001775334</c:v>
+                  <c:v>0.4400000000259752</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4250000001775334</c:v>
+                  <c:v>0.4400000000259752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7800000003044261</c:v>
+                  <c:v>0.7950000001528679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9050000001025182</c:v>
+                  <c:v>0.91999999995096</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.150000000052387</c:v>
+                  <c:v>1.164999999900829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.23000000007778</c:v>
+                  <c:v>1.244999999926222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8550000002287561</c:v>
+                  <c:v>0.8700000000771979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.085000000330183</c:v>
+                  <c:v>1.100000000178625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8550000002287561</c:v>
+                  <c:v>0.8700000000771979</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6800000001021544</c:v>
+                  <c:v>0.6949999999505962</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4149999999754073</c:v>
+                  <c:v>0.4299999998238491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,7 +1087,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Δ average (pm)</a:t>
+                  <a:t>Δλ average (pm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1532,22 +1532,22 @@
         <v>522.0899999999999</v>
       </c>
       <c r="L2">
-        <v>0.6224500000000717</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.184650000000147</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.285329999999931</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-2.521829999999909</v>
+        <v>0</v>
       </c>
       <c r="P2" s="11">
         <v>0.01499999999987267</v>
       </c>
       <c r="Q2">
-        <v>-0.01500000007581548</v>
+        <v>-2.273736754432321e-10</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1585,22 +1585,22 @@
         <v>522.0694999999999</v>
       </c>
       <c r="L3">
-        <v>0.6227499999999964</v>
+        <v>0.0002999999999246938</v>
       </c>
       <c r="M3">
-        <v>3.18387000000007</v>
+        <v>-0.0007800000000770524</v>
       </c>
       <c r="N3">
-        <v>-1.284849999999778</v>
+        <v>0.0004800000001523586</v>
       </c>
       <c r="O3">
-        <v>-2.522389999999859</v>
+        <v>-0.000559999999950378</v>
       </c>
       <c r="P3" s="11">
         <v>-0.005500000000097316</v>
       </c>
       <c r="Q3">
-        <v>-0.1549999997223495</v>
+        <v>-0.1399999998739077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1638,22 +1638,22 @@
         <v>522.067</v>
       </c>
       <c r="L4">
-        <v>0.6223100000001978</v>
+        <v>-0.0001399999998739077</v>
       </c>
       <c r="M4">
-        <v>3.183590000000095</v>
+        <v>-0.001060000000052241</v>
       </c>
       <c r="N4">
-        <v>-1.285149999999931</v>
+        <v>0.000180000000000291</v>
       </c>
       <c r="O4">
-        <v>-2.52330999999981</v>
+        <v>-0.001479999999901338</v>
       </c>
       <c r="P4" s="11">
         <v>-0.008000000000038199</v>
       </c>
       <c r="Q4">
-        <v>-0.6399999999757711</v>
+        <v>-0.6250000001273293</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1691,22 +1691,22 @@
         <v>522.066</v>
       </c>
       <c r="L5">
-        <v>0.6224100000001727</v>
+        <v>-3.999999989900971e-05</v>
       </c>
       <c r="M5">
-        <v>3.183590000000095</v>
+        <v>-0.001060000000052241</v>
       </c>
       <c r="N5">
-        <v>-1.28536999999983</v>
+        <v>-3.999999989900971e-05</v>
       </c>
       <c r="O5">
-        <v>-2.52274999999986</v>
+        <v>-0.00091999999995096</v>
       </c>
       <c r="P5" s="11">
         <v>-0.009000000000014552</v>
       </c>
       <c r="Q5">
-        <v>-0.529999999798747</v>
+        <v>-0.5149999999503052</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1744,22 +1744,22 @@
         <v>522.0649999999999</v>
       </c>
       <c r="L6">
-        <v>0.6224100000001727</v>
+        <v>-3.999999989900971e-05</v>
       </c>
       <c r="M6">
-        <v>3.184110000000146</v>
+        <v>-0.0005400000000008731</v>
       </c>
       <c r="N6">
-        <v>-1.285649999999805</v>
+        <v>-0.0003199999998741987</v>
       </c>
       <c r="O6">
-        <v>-2.522589999999809</v>
+        <v>-0.0007599999999001739</v>
       </c>
       <c r="P6" s="11">
         <v>-0.01000000000010459</v>
       </c>
       <c r="Q6">
-        <v>-0.4300000000512227</v>
+        <v>-0.4150000002027809</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1797,22 +1797,22 @@
         <v>522.0654999999999</v>
       </c>
       <c r="L7">
-        <v>0.6221700000000965</v>
+        <v>-0.000279999999975189</v>
       </c>
       <c r="M7">
-        <v>3.184290000000146</v>
+        <v>-0.0003600000000005821</v>
       </c>
       <c r="N7">
-        <v>-1.28572999999983</v>
+        <v>-0.0003999999998995918</v>
       </c>
       <c r="O7">
-        <v>-2.522869999999784</v>
+        <v>-0.001039999999875363</v>
       </c>
       <c r="P7" s="11">
         <v>-0.009500000000116415</v>
       </c>
       <c r="Q7">
-        <v>-0.5349999996724364</v>
+        <v>-0.5199999998239946</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1850,22 +1850,22 @@
         <v>522.064</v>
       </c>
       <c r="L8">
-        <v>0.6219300000000203</v>
+        <v>-0.0005200000000513683</v>
       </c>
       <c r="M8">
-        <v>3.183430000000044</v>
+        <v>-0.001220000000103028</v>
       </c>
       <c r="N8">
-        <v>-1.28534999999988</v>
+        <v>-1.999999994950485e-05</v>
       </c>
       <c r="O8">
-        <v>-2.523149999999987</v>
+        <v>-0.001320000000077926</v>
       </c>
       <c r="P8" s="11">
         <v>-0.01100000000008095</v>
       </c>
       <c r="Q8">
-        <v>-0.7849999997233681</v>
+        <v>-0.7699999998749263</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1903,22 +1903,22 @@
         <v>522.064</v>
       </c>
       <c r="L9">
-        <v>0.6220900000000711</v>
+        <v>-0.0003600000000005821</v>
       </c>
       <c r="M9">
-        <v>3.184470000000147</v>
+        <v>-0.000180000000000291</v>
       </c>
       <c r="N9">
-        <v>-1.286169999999856</v>
+        <v>-0.000839999999925567</v>
       </c>
       <c r="O9">
-        <v>-2.523189999999886</v>
+        <v>-0.001359999999976935</v>
       </c>
       <c r="P9" s="11">
         <v>-0.01100000000008095</v>
       </c>
       <c r="Q9">
-        <v>-0.7000000000516593</v>
+        <v>-0.6850000002032175</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1956,22 +1956,22 @@
         <v>522.0675</v>
       </c>
       <c r="L10">
-        <v>0.6223899999999958</v>
+        <v>-6.000000007588824e-05</v>
       </c>
       <c r="M10">
-        <v>3.184150000000045</v>
+        <v>-0.0005000000001018634</v>
       </c>
       <c r="N10">
-        <v>-1.285449999999855</v>
+        <v>-0.0001199999999244028</v>
       </c>
       <c r="O10">
-        <v>-2.52274999999986</v>
+        <v>-0.00091999999995096</v>
       </c>
       <c r="P10" s="11">
         <v>-0.007500000000050022</v>
       </c>
       <c r="Q10">
-        <v>-0.4149999999754073</v>
+        <v>-0.4000000001269655</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2009,22 +2009,22 @@
         <v>522.0685</v>
       </c>
       <c r="L11">
-        <v>0.6227700000001732</v>
+        <v>0.0003200000001015724</v>
       </c>
       <c r="M11">
-        <v>3.184390000000121</v>
+        <v>-0.0002600000000256841</v>
       </c>
       <c r="N11">
-        <v>-1.285449999999855</v>
+        <v>-0.0001199999999244028</v>
       </c>
       <c r="O11">
-        <v>-2.522289999999884</v>
+        <v>-0.00045999999997548</v>
       </c>
       <c r="P11" s="11">
         <v>-0.006500000000073669</v>
       </c>
       <c r="Q11">
-        <v>-0.1449999999749707</v>
+        <v>-0.1300000001265289</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2062,22 +2062,22 @@
         <v>522.072</v>
       </c>
       <c r="L12">
-        <v>0.6227900000001227</v>
+        <v>0.0003400000000510772</v>
       </c>
       <c r="M12">
-        <v>3.184150000000045</v>
+        <v>-0.0005000000001018634</v>
       </c>
       <c r="N12">
-        <v>-1.285449999999855</v>
+        <v>-0.0001199999999244028</v>
       </c>
       <c r="O12">
-        <v>-2.522449999999935</v>
+        <v>-0.0006200000000262662</v>
       </c>
       <c r="P12" s="11">
         <v>-0.003000000000042746</v>
       </c>
       <c r="Q12">
-        <v>-0.2399999998488056</v>
+        <v>-0.2250000000003638</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2115,22 +2115,22 @@
         <v>522.0735</v>
       </c>
       <c r="L13">
-        <v>0.6223700000000463</v>
+        <v>-8.000000002539309e-05</v>
       </c>
       <c r="M13">
-        <v>3.184370000000172</v>
+        <v>-0.000279999999975189</v>
       </c>
       <c r="N13">
-        <v>-1.285389999999779</v>
+        <v>-5.999999984851456e-05</v>
       </c>
       <c r="O13">
-        <v>-2.522329999999783</v>
+        <v>-0.0004999999998744897</v>
       </c>
       <c r="P13" s="11">
         <v>-0.001500000000078217</v>
       </c>
       <c r="Q13">
-        <v>-0.244999999722495</v>
+        <v>-0.2299999998740532</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2168,22 +2168,22 @@
         <v>522.075</v>
       </c>
       <c r="L14">
-        <v>0.622630000000072</v>
+        <v>0.000180000000000291</v>
       </c>
       <c r="M14">
-        <v>3.184570000000122</v>
+        <v>-8.000000002539309e-05</v>
       </c>
       <c r="N14">
-        <v>-1.285509999999931</v>
+        <v>-0.000180000000000291</v>
       </c>
       <c r="O14">
-        <v>-2.523289999999861</v>
+        <v>-0.001459999999951833</v>
       </c>
       <c r="P14" s="11">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>-0.3999999998995918</v>
+        <v>-0.38500000005115</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2221,22 +2221,22 @@
         <v>522.1105</v>
       </c>
       <c r="L15">
-        <v>0.6232700000000477</v>
+        <v>0.0008199999999760621</v>
       </c>
       <c r="M15">
-        <v>3.185010000000148</v>
+        <v>0.0003600000000005821</v>
       </c>
       <c r="N15">
-        <v>-1.283950000000004</v>
+        <v>0.00137999999992644</v>
       </c>
       <c r="O15">
-        <v>-2.521489999999858</v>
+        <v>0.0003400000000510772</v>
       </c>
       <c r="P15" s="11">
         <v>0.03549999999995634</v>
       </c>
       <c r="Q15">
-        <v>0.7100000000264117</v>
+        <v>0.7249999998748535</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2274,22 +2274,22 @@
         <v>522.1134999999999</v>
       </c>
       <c r="L16">
-        <v>0.6238299999999981</v>
+        <v>0.00137999999992644</v>
       </c>
       <c r="M16">
-        <v>3.184810000000198</v>
+        <v>0.0001600000000507862</v>
       </c>
       <c r="N16">
-        <v>-1.284729999999854</v>
+        <v>0.0006000000000767614</v>
       </c>
       <c r="O16">
-        <v>-2.522209999999859</v>
+        <v>-0.0003799999999500869</v>
       </c>
       <c r="P16" s="11">
         <v>0.0384999999998854</v>
       </c>
       <c r="Q16">
-        <v>0.4250000001775334</v>
+        <v>0.4400000000259752</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2327,22 +2327,22 @@
         <v>522.1134999999999</v>
       </c>
       <c r="L17">
-        <v>0.6234900000001744</v>
+        <v>0.001040000000102737</v>
       </c>
       <c r="M17">
-        <v>3.184709999999995</v>
+        <v>5.999999984851456e-05</v>
       </c>
       <c r="N17">
-        <v>-1.284049999999979</v>
+        <v>0.001279999999951542</v>
       </c>
       <c r="O17">
-        <v>-2.522449999999935</v>
+        <v>-0.0006200000000262662</v>
       </c>
       <c r="P17" s="11">
         <v>0.0384999999998854</v>
       </c>
       <c r="Q17">
-        <v>0.4250000001775334</v>
+        <v>0.4400000000259752</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2380,22 +2380,22 @@
         <v>522.1129999999999</v>
       </c>
       <c r="L18">
-        <v>0.6236700000001747</v>
+        <v>0.001220000000103028</v>
       </c>
       <c r="M18">
-        <v>3.185530000000199</v>
+        <v>0.0008800000000519503</v>
       </c>
       <c r="N18">
-        <v>-1.284549999999854</v>
+        <v>0.0007800000000770524</v>
       </c>
       <c r="O18">
-        <v>-2.521529999999984</v>
+        <v>0.0002999999999246938</v>
       </c>
       <c r="P18" s="11">
         <v>0.03799999999989723</v>
       </c>
       <c r="Q18">
-        <v>0.7800000003044261</v>
+        <v>0.7950000001528679</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2433,22 +2433,22 @@
         <v>522.1129999999999</v>
       </c>
       <c r="L19">
-        <v>0.6238100000000486</v>
+        <v>0.001359999999976935</v>
       </c>
       <c r="M19">
-        <v>3.185190000000148</v>
+        <v>0.0005400000000008731</v>
       </c>
       <c r="N19">
-        <v>-1.284109999999828</v>
+        <v>0.001220000000103028</v>
       </c>
       <c r="O19">
-        <v>-2.521269999999959</v>
+        <v>0.000559999999950378</v>
       </c>
       <c r="P19" s="11">
         <v>0.03799999999989723</v>
       </c>
       <c r="Q19">
-        <v>0.9050000001025182</v>
+        <v>0.91999999995096</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2486,22 +2486,22 @@
         <v>522.114</v>
       </c>
       <c r="L20">
-        <v>0.6240500000001248</v>
+        <v>0.001600000000053114</v>
       </c>
       <c r="M20">
-        <v>3.185170000000198</v>
+        <v>0.0005200000000513683</v>
       </c>
       <c r="N20">
-        <v>-1.283829999999853</v>
+        <v>0.001500000000078217</v>
       </c>
       <c r="O20">
-        <v>-2.520789999999806</v>
+        <v>0.001040000000102737</v>
       </c>
       <c r="P20" s="11">
         <v>0.03899999999998727</v>
       </c>
       <c r="Q20">
-        <v>1.150000000052387</v>
+        <v>1.164999999900829</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2539,22 +2539,22 @@
         <v>522.1165</v>
       </c>
       <c r="L21">
-        <v>0.6239300000002004</v>
+        <v>0.001480000000128712</v>
       </c>
       <c r="M21">
-        <v>3.185969999999998</v>
+        <v>0.001319999999850552</v>
       </c>
       <c r="N21">
-        <v>-1.284289999999828</v>
+        <v>0.001040000000102737</v>
       </c>
       <c r="O21">
-        <v>-2.520689999999831</v>
+        <v>0.001140000000077634</v>
       </c>
       <c r="P21" s="11">
         <v>0.04149999999992815</v>
       </c>
       <c r="Q21">
-        <v>1.23000000007778</v>
+        <v>1.244999999926222</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2592,22 +2592,22 @@
         <v>522.1185</v>
       </c>
       <c r="L22">
-        <v>0.6239300000002004</v>
+        <v>0.001480000000128712</v>
       </c>
       <c r="M22">
-        <v>3.185570000000098</v>
+        <v>0.00091999999995096</v>
       </c>
       <c r="N22">
-        <v>-1.284369999999853</v>
+        <v>0.0009600000000773434</v>
       </c>
       <c r="O22">
-        <v>-2.521709999999985</v>
+        <v>0.0001199999999244028</v>
       </c>
       <c r="P22" s="11">
         <v>0.04349999999999454</v>
       </c>
       <c r="Q22">
-        <v>0.8550000002287561</v>
+        <v>0.8700000000771979</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2645,22 +2645,22 @@
         <v>522.1189999999999</v>
       </c>
       <c r="L23">
-        <v>0.6244100000001254</v>
+        <v>0.001960000000053697</v>
       </c>
       <c r="M23">
-        <v>3.185850000000073</v>
+        <v>0.001199999999926149</v>
       </c>
       <c r="N23">
-        <v>-1.284029999999802</v>
+        <v>0.001300000000128421</v>
       </c>
       <c r="O23">
-        <v>-2.521889999999985</v>
+        <v>-6.000000007588824e-05</v>
       </c>
       <c r="P23" s="11">
         <v>0.04399999999986903</v>
       </c>
       <c r="Q23">
-        <v>1.085000000330183</v>
+        <v>1.100000000178625</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2698,22 +2698,22 @@
         <v>522.1195</v>
       </c>
       <c r="L24">
-        <v>0.6231700000000728</v>
+        <v>0.0007200000000011642</v>
       </c>
       <c r="M24">
-        <v>3.185210000000097</v>
+        <v>0.000559999999950378</v>
       </c>
       <c r="N24">
-        <v>-1.284329999999954</v>
+        <v>0.0009999999999763531</v>
       </c>
       <c r="O24">
-        <v>-2.520629999999983</v>
+        <v>0.001199999999926149</v>
       </c>
       <c r="P24" s="11">
         <v>0.0444999999999709</v>
       </c>
       <c r="Q24">
-        <v>0.8550000002287561</v>
+        <v>0.8700000000771979</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2751,22 +2751,22 @@
         <v>522.122</v>
       </c>
       <c r="L25">
-        <v>0.6237100000000737</v>
+        <v>0.001260000000002037</v>
       </c>
       <c r="M25">
-        <v>3.185290000000123</v>
+        <v>0.0006399999999757711</v>
       </c>
       <c r="N25">
-        <v>-1.284429999999929</v>
+        <v>0.0009000000000014552</v>
       </c>
       <c r="O25">
-        <v>-2.521849999999858</v>
+        <v>-1.999999994950485e-05</v>
       </c>
       <c r="P25" s="11">
         <v>0.04699999999991178</v>
       </c>
       <c r="Q25">
-        <v>0.6800000001021544</v>
+        <v>0.6949999999505962</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2804,22 +2804,22 @@
         <v>522.1285</v>
       </c>
       <c r="L26">
-        <v>0.6236700000001747</v>
+        <v>0.001220000000103028</v>
       </c>
       <c r="M26">
-        <v>3.184970000000021</v>
+        <v>0.0003199999998741987</v>
       </c>
       <c r="N26">
-        <v>-1.284729999999854</v>
+        <v>0.0006000000000767614</v>
       </c>
       <c r="O26">
-        <v>-2.522249999999985</v>
+        <v>-0.0004200000000764703</v>
       </c>
       <c r="P26" s="11">
         <v>0.05349999999998545</v>
       </c>
       <c r="Q26">
-        <v>0.4149999999754073</v>
+        <v>0.4299999998238491</v>
       </c>
     </row>
   </sheetData>

--- a/kyton_out.xlsx
+++ b/kyton_out.xlsx
@@ -40,12 +40,10 @@
     <t>Fiber 3 Power (dBm.)</t>
   </si>
   <si>
-    <t>Fiber 4
- Wavelength (nm.)</t>
-  </si>
-  <si>
-    <t>Fiber 4
- Power (dBm.)</t>
+    <t>Fiber 4 Wavelength (nm.)</t>
+  </si>
+  <si>
+    <t>Fiber 4 Power (dBm.)</t>
   </si>
   <si>
     <t>Mean Temp (K)</t>
@@ -60,8 +58,7 @@
     <t>Fiber 3 Δλ, from start (nm.)</t>
   </si>
   <si>
-    <t>Fiber 4
- Δλ, from start (nm.)</t>
+    <t>Fiber 4 Δλ, from start (nm.)</t>
   </si>
   <si>
     <t>ΔT, from start (K)</t>
@@ -8898,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="7">
-        <f>VALUE(-10.45)</f>
+        <f>VALUE(-20.0)</f>
         <v>0</v>
       </c>
       <c r="E107" s="8">

--- a/kyton_out.xlsx
+++ b/kyton_out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date Time</t>
   </si>
@@ -67,322 +67,274 @@
     <t>Mean raw Δλ, from start (pm.)</t>
   </si>
   <si>
-    <t>Wed, 26 Jul 2017 18:54:39</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:54:57</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:55:15</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:55:33</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:55:50</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:56:08</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:56:25</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:56:43</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:57:00</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:57:18</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:57:36</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:57:53</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:58:11</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:58:28</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:58:46</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:59:04</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:59:22</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:59:39</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 18:59:57</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:00:15</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:00:32</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:01:35</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:02:38</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:03:41</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:04:43</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:05:47</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:06:50</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:07:53</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:08:55</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:09:58</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:11:01</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:12:04</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:13:07</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:14:10</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:15:13</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:16:15</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:17:18</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:18:21</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:19:23</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:20:27</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:21:29</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:22:32</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:23:35</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:24:38</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:25:41</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:26:44</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:27:47</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:28:50</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:29:53</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:30:55</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:31:58</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:33:01</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:34:04</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:35:07</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:36:10</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:37:12</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:38:15</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:39:17</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:40:20</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:41:23</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:42:25</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:43:28</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:44:30</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:45:33</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:46:35</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:47:38</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:48:40</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:49:43</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:50:45</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:51:48</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:52:51</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:53:53</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:54:56</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:55:59</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:57:02</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:58:05</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 19:59:08</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:00:11</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:01:14</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:02:17</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:03:19</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:04:22</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:05:25</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:06:28</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:07:30</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:08:33</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:09:35</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:10:38</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:11:41</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:12:43</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:13:46</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:14:48</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:15:52</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:16:55</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:17:58</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:19:00</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:20:03</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:21:06</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:22:08</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:23:12</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:24:14</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:25:17</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:26:19</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:27:22</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:28:25</t>
-  </si>
-  <si>
-    <t>Wed, 26 Jul 2017 20:29:28</t>
+    <t>Wed, 09 Aug 2017 19:06:12</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:06:31</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:06:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:07:06</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:07:24</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:07:43</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:08:01</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:08:19</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:08:37</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:08:54</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:09:12</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:09:31</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:09:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:10:07</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:10:25</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:10:42</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:11:01</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:11:19</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:11:37</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:11:55</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:12:13</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:13:16</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:14:17</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:14:35</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:14:53</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:15:11</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:15:30</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:15:48</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:16:06</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:16:24</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:16:42</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:17:01</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:17:19</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:17:37</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:17:55</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:18:12</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:18:31</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:18:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:19:07</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:19:24</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:19:42</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:20:00</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:20:17</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:21:30</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:22:33</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:23:36</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:24:39</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:27:54</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:28:12</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:28:31</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:28:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:29:07</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:29:25</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:29:43</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:30:01</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:30:18</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:30:36</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:30:54</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:31:11</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:31:29</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:31:46</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:32:04</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:32:22</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:32:39</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:32:57</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:33:14</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:33:32</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:33:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:34:52</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:35:54</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:36:57</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:38:00</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:39:02</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:40:05</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:41:08</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:42:11</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:43:14</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:44:17</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:45:21</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:46:23</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:47:26</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:48:28</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:49:31</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:50:34</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:51:37</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:52:41</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:53:44</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:54:46</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:55:49</t>
+  </si>
+  <si>
+    <t>Wed, 09 Aug 2017 19:56:52</t>
   </si>
 </sst>
 </file>
@@ -522,10 +474,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$425</c:f>
+              <c:f>Sheet1!$B$2:$B$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="424"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -794,54 +746,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -849,10 +753,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$425</c:f>
+              <c:f>Sheet1!$Q$2:$Q$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="424"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1121,54 +1025,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1575,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,43 +1498,43 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <f>VALUE(-0.0)</f>
+        <f>VALUE(0.0)</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <f>VALUE(1553.7432)</f>
+        <f>VALUE(1553.74426)</f>
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <f>VALUE(-10.498)</f>
+        <f>VALUE(-10.502)</f>
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f>VALUE(1556.30502)</f>
+        <f>VALUE(1556.30594)</f>
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>VALUE(-9.38)</f>
+        <f>VALUE(-9.384)</f>
         <v>0</v>
       </c>
       <c r="G2" s="9">
-        <f>VALUE(1551.8414400000001)</f>
+        <f>VALUE(1551.25928)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <f>VALUE(-15.244000000000002)</f>
+        <f>VALUE(-15.405999999999999)</f>
         <v>0</v>
       </c>
       <c r="I2" s="10">
-        <f>VALUE(1550.59868)</f>
+        <f>VALUE(1550.6018)</f>
         <v>0</v>
       </c>
       <c r="J2" s="10">
-        <f>VALUE(-19.227999999999998)</f>
+        <f>VALUE(-19.474)</f>
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <f>VALUE(248.843)</f>
+        <f>VALUE(248.774)</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -1698,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="11">
-        <f>VALUE(0.0)</f>
+        <f>VALUE(-273.15)</f>
         <v>0</v>
       </c>
       <c r="Q2">
@@ -1711,67 +1567,67 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <f>VALUE(0.00486)</f>
+        <f>VALUE(0.00528)</f>
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <f>VALUE(1553.7432800000001)</f>
+        <f>VALUE(1553.74438)</f>
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <f>VALUE(-10.495999999999999)</f>
+        <f>VALUE(-10.5)</f>
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <f>VALUE(1556.30518)</f>
+        <f>VALUE(1556.30606)</f>
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <f>VALUE(-9.432)</f>
+        <f>VALUE(-9.406)</f>
         <v>0</v>
       </c>
       <c r="G3" s="9">
-        <f>VALUE(1551.84164)</f>
+        <f>VALUE(1551.25834)</f>
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>VALUE(-15.245999999999999)</f>
+        <f>VALUE(-15.34)</f>
         <v>0</v>
       </c>
       <c r="I3" s="10">
-        <f>VALUE(1550.59858)</f>
+        <f>VALUE(1550.6022)</f>
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <f>VALUE(-19.156)</f>
+        <f>VALUE(-19.428)</f>
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>VALUE(248.84099999999998)</f>
+        <f>VALUE(248.7735)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>VALUE(8.000000002539309e-05)</f>
+        <f>VALUE(0.00012000000015177648)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>VALUE(0.00016000000005078618)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>VALUE(0.00020000000017716957)</f>
+        <f>VALUE(-0.0009399999999004649)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="P3" s="11">
-        <f>VALUE(-0.0020000000000095497)</f>
+        <f>VALUE(-273.15049999999997)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>VALUE(0.08500000006961272)</f>
+        <f>VALUE(-0.07499999992433004)</f>
         <v>0</v>
       </c>
     </row>
@@ -1780,67 +1636,67 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <f>VALUE(0.00986)</f>
+        <f>VALUE(0.01028)</f>
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f>VALUE(1553.74326)</f>
+        <f>VALUE(1553.74462)</f>
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>VALUE(-10.492)</f>
+        <f>VALUE(-10.504000000000001)</f>
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f>VALUE(1556.30404)</f>
+        <f>VALUE(1556.30586)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>VALUE(-9.39)</f>
+        <f>VALUE(-9.408)</f>
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>VALUE(1551.84134)</f>
+        <f>VALUE(1551.2596199999998)</f>
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f>VALUE(-15.248)</f>
+        <f>VALUE(-15.376)</f>
         <v>0</v>
       </c>
       <c r="I4" s="10">
-        <f>VALUE(1550.5983800000001)</f>
+        <f>VALUE(1550.6028199999998)</f>
         <v>0</v>
       </c>
       <c r="J4" s="10">
-        <f>VALUE(-19.254)</f>
+        <f>VALUE(-19.472)</f>
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>VALUE(248.8385)</f>
+        <f>VALUE(248.773)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>VALUE(6.000000007588824e-05)</f>
+        <f>VALUE(0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>VALUE(-0.0009800000000268483)</f>
+        <f>VALUE(-8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>VALUE(-0.0003000000001520675)</f>
+        <f>VALUE(0.0010200000001532317)</f>
         <v>0</v>
       </c>
       <c r="P4" s="11">
-        <f>VALUE(-0.004499999999978854)</f>
+        <f>VALUE(-273.15099999999995)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>VALUE(-0.3300000000194814)</f>
+        <f>VALUE(0.41000000004487447)</f>
         <v>0</v>
       </c>
     </row>
@@ -1849,15 +1705,15 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <f>VALUE(0.01486)</f>
+        <f>VALUE(0.01514)</f>
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <f>VALUE(1553.7428)</f>
+        <f>VALUE(1553.74486)</f>
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>VALUE(-10.495999999999999)</f>
+        <f>VALUE(-10.548)</f>
         <v>0</v>
       </c>
       <c r="E5" s="8">
@@ -1865,51 +1721,51 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>VALUE(-9.416)</f>
+        <f>VALUE(-9.432)</f>
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <f>VALUE(1551.84156)</f>
+        <f>VALUE(1551.2594800000002)</f>
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <f>VALUE(-15.254000000000001)</f>
+        <f>VALUE(-15.366)</f>
         <v>0</v>
       </c>
       <c r="I5" s="10">
-        <f>VALUE(1550.5982)</f>
+        <f>VALUE(1550.6028)</f>
         <v>0</v>
       </c>
       <c r="J5" s="10">
-        <f>VALUE(-19.18)</f>
+        <f>VALUE(-19.452)</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>VALUE(248.83700000000002)</f>
+        <f>VALUE(248.774)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>VALUE(-0.0003999999998995918)</f>
+        <f>VALUE(0.0006000000000767614)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>VALUE(0.0004200000000764703)</f>
+        <f>VALUE(-0.0004999999998744897)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>VALUE(0.00012000000015177648)</f>
+        <f>VALUE(0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>VALUE(-0.00048000000015235855)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="P5" s="11">
-        <f>VALUE(-0.005999999999971806)</f>
+        <f>VALUE(-273.15)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>VALUE(-0.08499999995592589)</f>
+        <f>VALUE(0.32500000003210516)</f>
         <v>0</v>
       </c>
     </row>
@@ -1918,67 +1774,67 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <f>VALUE(0.01972)</f>
+        <f>VALUE(0.02014)</f>
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <f>VALUE(1553.74224)</f>
+        <f>VALUE(1553.74474)</f>
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>VALUE(-10.485999999999999)</f>
+        <f>VALUE(-10.538)</f>
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f>VALUE(1556.30468)</f>
+        <f>VALUE(1556.3054)</f>
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f>VALUE(-9.36)</f>
+        <f>VALUE(-9.454)</f>
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>VALUE(1551.84124)</f>
+        <f>VALUE(1551.2593)</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>VALUE(-15.258)</f>
+        <f>VALUE(-15.284)</f>
         <v>0</v>
       </c>
       <c r="I6" s="10">
-        <f>VALUE(1550.59736)</f>
+        <f>VALUE(1550.60248)</f>
         <v>0</v>
       </c>
       <c r="J6" s="10">
-        <f>VALUE(-19.172)</f>
+        <f>VALUE(-19.46)</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>VALUE(248.8365)</f>
+        <f>VALUE(248.774)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>VALUE(-0.0009599999998499698)</f>
+        <f>VALUE(0.00048000000015235855)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>VALUE(-0.0003400000000510772)</f>
+        <f>VALUE(-0.0005400000000008731)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>VALUE(-0.0013200000000779255)</f>
+        <f>VALUE(0.0006800000001021544)</f>
         <v>0</v>
       </c>
       <c r="P6" s="11">
-        <f>VALUE(-0.006499999999988404)</f>
+        <f>VALUE(-273.15)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>VALUE(-0.7049999999821921)</f>
+        <f>VALUE(0.16000000005078618)</f>
         <v>0</v>
       </c>
     </row>
@@ -1987,47 +1843,47 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f>VALUE(0.02458)</f>
+        <f>VALUE(0.02542)</f>
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f>VALUE(1553.74258)</f>
+        <f>VALUE(1553.7445400000001)</f>
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>VALUE(-10.52)</f>
+        <f>VALUE(-10.495999999999999)</f>
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <f>VALUE(1556.30404)</f>
+        <f>VALUE(1556.30496)</f>
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f>VALUE(-9.408)</f>
+        <f>VALUE(-9.4)</f>
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>VALUE(1551.8414)</f>
+        <f>VALUE(1551.2589)</f>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>VALUE(-15.216)</f>
+        <f>VALUE(-15.32)</f>
         <v>0</v>
       </c>
       <c r="I7" s="10">
-        <f>VALUE(1550.5982199999999)</f>
+        <f>VALUE(1550.6016)</f>
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <f>VALUE(-19.222)</f>
+        <f>VALUE(-19.448)</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>VALUE(248.835)</f>
+        <f>VALUE(248.774)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>VALUE(-0.0006199999997988925)</f>
+        <f>VALUE(0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -2035,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(-0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="P7" s="11">
-        <f>VALUE(-0.007999999999981355)</f>
+        <f>VALUE(-273.15)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>VALUE(-0.5249999999250576)</f>
+        <f>VALUE(-0.31999999998788553)</f>
         <v>0</v>
       </c>
     </row>
@@ -2056,67 +1912,67 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <f>VALUE(0.02945)</f>
+        <f>VALUE(0.03043)</f>
         <v>0</v>
       </c>
       <c r="C8" s="7">
-        <f>VALUE(1553.74282)</f>
+        <f>VALUE(1553.7441800000001)</f>
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>VALUE(-10.498)</f>
+        <f>VALUE(-10.524000000000001)</f>
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>VALUE(1556.3047199999999)</f>
+        <f>VALUE(1556.3056800000002)</f>
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <f>VALUE(-9.424)</f>
+        <f>VALUE(-9.398)</f>
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f>VALUE(1551.8418)</f>
+        <f>VALUE(1551.2594)</f>
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>VALUE(-15.18)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10">
-        <f>VALUE(1550.59746)</f>
+        <f>VALUE(1550.6022)</f>
         <v>0</v>
       </c>
       <c r="J8" s="10">
-        <f>VALUE(-19.192)</f>
+        <f>VALUE(-19.484)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>VALUE(248.8335)</f>
+        <f>VALUE(248.773)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(-8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>VALUE(-0.00029999999992469384)</f>
+        <f>VALUE(-0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>VALUE(-0.0012200000001030276)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="P8" s="11">
-        <f>VALUE(-0.009500000000002728)</f>
+        <f>VALUE(-273.15099999999995)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>VALUE(-0.38499999999430656)</f>
+        <f>VALUE(0.04500000000007276)</f>
         <v>0</v>
       </c>
     </row>
@@ -2125,67 +1981,67 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <f>VALUE(0.03431)</f>
+        <f>VALUE(0.03542)</f>
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f>VALUE(1553.7431800000002)</f>
+        <f>VALUE(1553.74458)</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f>VALUE(-10.498)</f>
+        <f>VALUE(-10.494000000000002)</f>
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <f>VALUE(1556.3048199999998)</f>
+        <f>VALUE(1556.30566)</f>
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <f>VALUE(-9.386000000000001)</f>
+        <f>VALUE(-9.437999999999999)</f>
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f>VALUE(1551.84196)</f>
+        <f>VALUE(1551.2605)</f>
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <f>VALUE(-15.224)</f>
+        <f>VALUE(-15.304)</f>
         <v>0</v>
       </c>
       <c r="I9" s="10">
-        <f>VALUE(1550.5981199999999)</f>
+        <f>VALUE(1550.60248)</f>
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <f>VALUE(-19.188)</f>
+        <f>VALUE(-19.464000000000002)</f>
         <v>0</v>
       </c>
       <c r="K9" s="11">
-        <f>VALUE(248.833)</f>
+        <f>VALUE(248.7715)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>VALUE(-1.9999999949504854e-05)</f>
+        <f>VALUE(0.00032000000010157237)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(-0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>VALUE(0.0005200000000513683)</f>
+        <f>VALUE(0.0012200000001030276)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>VALUE(-0.000559999999950378)</f>
+        <f>VALUE(0.0006800000001021544)</f>
         <v>0</v>
       </c>
       <c r="P9" s="11">
-        <f>VALUE(-0.009999999999990905)</f>
+        <f>VALUE(-273.1525)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>VALUE(-0.06499999994957761)</f>
+        <f>VALUE(0.48500000008289135)</f>
         <v>0</v>
       </c>
     </row>
@@ -2194,67 +2050,67 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <f>VALUE(0.03917)</f>
+        <f>VALUE(0.04028)</f>
         <v>0</v>
       </c>
       <c r="C10" s="7">
-        <f>VALUE(1553.74314)</f>
+        <f>VALUE(1553.7446400000001)</f>
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>VALUE(-10.508)</f>
+        <f>VALUE(-10.53)</f>
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <f>VALUE(1556.3047800000002)</f>
+        <f>VALUE(1556.30604)</f>
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <f>VALUE(-9.392000000000001)</f>
+        <f>VALUE(-9.404)</f>
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f>VALUE(1551.8415400000001)</f>
+        <f>VALUE(1551.25974)</f>
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f>VALUE(-15.204)</f>
+        <f>VALUE(-15.322000000000001)</f>
         <v>0</v>
       </c>
       <c r="I10" s="10">
-        <f>VALUE(1550.59856)</f>
+        <f>VALUE(1550.602)</f>
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <f>VALUE(-19.252)</f>
+        <f>VALUE(-19.444000000000003)</f>
         <v>0</v>
       </c>
       <c r="K10" s="11">
-        <f>VALUE(248.833)</f>
+        <f>VALUE(248.7715)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>VALUE(-5.999999984851456e-05)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>VALUE(-0.00012000000015177648)</f>
+        <f>VALUE(0.00020000000017716957)</f>
         <v>0</v>
       </c>
       <c r="P10" s="11">
-        <f>VALUE(-0.009999999999990905)</f>
+        <f>VALUE(-273.1525)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>VALUE(-0.08000000002539309)</f>
+        <f>VALUE(0.2850000000194086)</f>
         <v>0</v>
       </c>
     </row>
@@ -2263,67 +2119,67 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <f>VALUE(0.04403)</f>
+        <f>VALUE(0.04514)</f>
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <f>VALUE(1553.7433800000001)</f>
+        <f>VALUE(1553.7445400000001)</f>
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f>VALUE(-10.442)</f>
+        <f>VALUE(-10.48)</f>
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <f>VALUE(1556.3048800000001)</f>
+        <f>VALUE(1556.30536)</f>
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <f>VALUE(-9.384)</f>
+        <f>VALUE(-9.406)</f>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f>VALUE(1551.84176)</f>
+        <f>VALUE(1551.25938)</f>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>VALUE(-15.235999999999999)</f>
+        <f>VALUE(-15.394)</f>
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f>VALUE(1550.59834)</f>
+        <f>VALUE(1550.60148)</f>
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>VALUE(-19.21)</f>
+        <f>VALUE(-19.392)</f>
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>VALUE(248.8305)</f>
+        <f>VALUE(248.7695)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>VALUE(0.00018000000000029104)</f>
+        <f>VALUE(0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>VALUE(-0.00014000000010128133)</f>
+        <f>VALUE(-0.0005799999998998828)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>VALUE(0.00032000000010157237)</f>
+        <f>VALUE(9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>VALUE(-0.0003400000000510772)</f>
+        <f>VALUE(-0.0003199999998741987)</f>
         <v>0</v>
       </c>
       <c r="P11" s="11">
-        <f>VALUE(-0.012499999999988631)</f>
+        <f>VALUE(-273.1545)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>VALUE(0.0049999999873762135)</f>
+        <f>VALUE(-0.12999999995599865)</f>
         <v>0</v>
       </c>
     </row>
@@ -2332,67 +2188,67 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <f>VALUE(0.04903)</f>
+        <f>VALUE(0.05014)</f>
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <f>VALUE(1553.74282)</f>
+        <f>VALUE(1553.74486)</f>
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <f>VALUE(-10.548)</f>
+        <f>VALUE(-10.532)</f>
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <f>VALUE(1556.3047800000002)</f>
+        <f>VALUE(1556.3056800000002)</f>
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <f>VALUE(-9.374)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <f>VALUE(1551.84138)</f>
+        <f>VALUE(1551.25992)</f>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f>VALUE(-15.216)</f>
+        <f>VALUE(-15.388)</f>
         <v>0</v>
       </c>
       <c r="I12" s="10">
-        <f>VALUE(1550.59792)</f>
+        <f>VALUE(1550.60262)</f>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>VALUE(-19.202)</f>
+        <f>VALUE(-19.462)</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>VALUE(248.8335)</f>
+        <f>VALUE(248.767)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(0.0006000000000767614)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(-0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>VALUE(-5.999999984851456e-05)</f>
+        <f>VALUE(0.0006399999999757711)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>VALUE(-0.0007600000001275475)</f>
+        <f>VALUE(0.0008199999999760621)</f>
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <f>VALUE(-0.009500000000002728)</f>
+        <f>VALUE(-273.157)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>VALUE(-0.3600000000005821)</f>
+        <f>VALUE(0.4500000000007276)</f>
         <v>0</v>
       </c>
     </row>
@@ -2401,67 +2257,67 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <f>VALUE(0.05389)</f>
+        <f>VALUE(0.05528)</f>
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <f>VALUE(1553.74348)</f>
+        <f>VALUE(1553.7448)</f>
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <f>VALUE(-10.548)</f>
+        <f>VALUE(-10.492)</f>
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>VALUE(1556.3046)</f>
+        <f>VALUE(1556.3062400000001)</f>
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f>VALUE(-9.424)</f>
+        <f>VALUE(-9.41)</f>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f>VALUE(1551.8419)</f>
+        <f>VALUE(1551.25912)</f>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>VALUE(-15.202)</f>
+        <f>VALUE(-15.318)</f>
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <f>VALUE(1550.59816)</f>
+        <f>VALUE(1550.60322)</f>
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <f>VALUE(-19.18)</f>
+        <f>VALUE(-19.492)</f>
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>VALUE(248.8335)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>VALUE(0.00028000000020256266)</f>
+        <f>VALUE(0.0005400000000008731)</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>VALUE(-0.0004200000000764703)</f>
+        <f>VALUE(0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>VALUE(0.00045999999997548)</f>
+        <f>VALUE(-0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>VALUE(-0.0005200000000513683)</f>
+        <f>VALUE(0.0014200000000528235)</f>
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <f>VALUE(-0.009500000000002728)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>VALUE(-0.04999999998744897)</f>
+        <f>VALUE(0.524999999981901)</f>
         <v>0</v>
       </c>
     </row>
@@ -2470,67 +2326,67 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <f>VALUE(0.05875)</f>
+        <f>VALUE(0.06028)</f>
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <f>VALUE(1553.74288)</f>
+        <f>VALUE(1553.74484)</f>
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <f>VALUE(-10.546)</f>
+        <f>VALUE(-10.515999999999998)</f>
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <f>VALUE(1556.3046)</f>
+        <f>VALUE(1556.30612)</f>
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>VALUE(-9.398)</f>
+        <f>VALUE(-9.384)</f>
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <f>VALUE(1551.84166)</f>
+        <f>VALUE(1551.2595199999998)</f>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f>VALUE(-15.265999999999998)</f>
+        <f>VALUE(-15.36)</f>
         <v>0</v>
       </c>
       <c r="I14" s="10">
-        <f>VALUE(1550.59848)</f>
+        <f>VALUE(1550.60222)</f>
         <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f>VALUE(-19.198)</f>
+        <f>VALUE(-19.438)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>VALUE(248.8345)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>VALUE(-0.0003199999998741987)</f>
+        <f>VALUE(0.0005800000001272565)</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>VALUE(-0.0004200000000764703)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>VALUE(0.00022000000012667442)</f>
+        <f>VALUE(0.00024000000007617928)</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(0.0004200000000764703)</f>
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <f>VALUE(-0.008499999999997954)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>VALUE(-0.17999999994344762)</f>
+        <f>VALUE(0.3550000000700493)</f>
         <v>0</v>
       </c>
     </row>
@@ -2539,67 +2395,67 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <f>VALUE(0.06362)</f>
+        <f>VALUE(0.06528)</f>
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <f>VALUE(1553.74356)</f>
+        <f>VALUE(1553.74452)</f>
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f>VALUE(-10.515999999999998)</f>
+        <f>VALUE(-10.488)</f>
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f>VALUE(1556.30468)</f>
+        <f>VALUE(1556.3062400000001)</f>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>VALUE(-9.408)</f>
+        <f>VALUE(-9.374)</f>
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <f>VALUE(1551.8420199999998)</f>
+        <f>VALUE(1551.2604800000001)</f>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f>VALUE(-15.214)</f>
+        <f>VALUE(-15.362)</f>
         <v>0</v>
       </c>
       <c r="I15" s="10">
-        <f>VALUE(1550.5990800000002)</f>
+        <f>VALUE(1550.6021)</f>
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <f>VALUE(-19.262)</f>
+        <f>VALUE(-19.386)</f>
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>VALUE(248.8345)</f>
+        <f>VALUE(248.764)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>VALUE(-0.0003400000000510772)</f>
+        <f>VALUE(0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>VALUE(0.0005800000001272565)</f>
+        <f>VALUE(0.001199999999926149)</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>VALUE(0.0003999999998995918)</f>
+        <f>VALUE(0.0003000000001520675)</f>
         <v>0</v>
       </c>
       <c r="P15" s="11">
-        <f>VALUE(-0.008499999999997954)</f>
+        <f>VALUE(-273.15999999999997)</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>VALUE(0.24999999999408828)</f>
+        <f>VALUE(0.5150000000071486)</f>
         <v>0</v>
       </c>
     </row>
@@ -2608,67 +2464,67 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <f>VALUE(0.06848)</f>
+        <f>VALUE(0.07029)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>VALUE(1553.74306)</f>
+        <f>VALUE(1553.74536)</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>VALUE(-10.498)</f>
+        <f>VALUE(-10.466)</f>
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f>VALUE(1556.30458)</f>
+        <f>VALUE(1556.3056)</f>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>VALUE(-9.414)</f>
+        <f>VALUE(-9.412)</f>
         <v>0</v>
       </c>
       <c r="G16" s="9">
-        <f>VALUE(1551.84104)</f>
+        <f>VALUE(1551.25928)</f>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f>VALUE(-15.252)</f>
+        <f>VALUE(-15.357999999999999)</f>
         <v>0</v>
       </c>
       <c r="I16" s="10">
-        <f>VALUE(1550.59816)</f>
+        <f>VALUE(1550.6029800000001)</f>
         <v>0</v>
       </c>
       <c r="J16" s="10">
-        <f>VALUE(-19.252)</f>
+        <f>VALUE(-19.422)</f>
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f>VALUE(248.835)</f>
+        <f>VALUE(248.764)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>VALUE(-0.00013999999987390765)</f>
+        <f>VALUE(0.001099999999951251)</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>VALUE(-0.00044000000002597517)</f>
+        <f>VALUE(-0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>VALUE(-0.0003999999998995918)</f>
+        <f>VALUE(0.0)</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>VALUE(-0.0005200000000513683)</f>
+        <f>VALUE(0.0011799999999766442)</f>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f>VALUE(-0.007999999999981355)</f>
+        <f>VALUE(-273.15999999999997)</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>VALUE(-0.3749999999627107)</f>
+        <f>VALUE(0.4849999999692045)</f>
         <v>0</v>
       </c>
     </row>
@@ -2677,67 +2533,67 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <f>VALUE(0.07361)</f>
+        <f>VALUE(0.07514)</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>VALUE(1553.7431800000002)</f>
+        <f>VALUE(1553.74476)</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>VALUE(-10.51)</f>
+        <f>VALUE(-10.517999999999999)</f>
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f>VALUE(1556.3042599999999)</f>
+        <f>VALUE(1556.306)</f>
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>VALUE(-9.402000000000001)</f>
+        <f>VALUE(-9.44)</f>
         <v>0</v>
       </c>
       <c r="G17" s="9">
-        <f>VALUE(1551.8414599999999)</f>
+        <f>VALUE(1551.25934)</f>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f>VALUE(-15.235999999999999)</f>
+        <f>VALUE(-15.342)</f>
         <v>0</v>
       </c>
       <c r="I17" s="10">
-        <f>VALUE(1550.59834)</f>
+        <f>VALUE(1550.6015)</f>
         <v>0</v>
       </c>
       <c r="J17" s="10">
-        <f>VALUE(-19.238)</f>
+        <f>VALUE(-19.414)</f>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>VALUE(248.834)</f>
+        <f>VALUE(248.7645)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>VALUE(-1.9999999949504854e-05)</f>
+        <f>VALUE(0.0005000000001018634)</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>VALUE(-0.0007599999999001739)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>VALUE(2.000000017687853e-05)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>VALUE(-0.0003400000000510772)</f>
+        <f>VALUE(-0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="P17" s="11">
-        <f>VALUE(-0.00899999999998613)</f>
+        <f>VALUE(-273.1595)</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>VALUE(-0.27499999993096935)</f>
+        <f>VALUE(0.08000000008223651)</f>
         <v>0</v>
       </c>
     </row>
@@ -2746,67 +2602,67 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <f>VALUE(0.07847)</f>
+        <f>VALUE(0.08028)</f>
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f>VALUE(1553.7427400000001)</f>
+        <f>VALUE(1553.74426)</f>
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>VALUE(-10.508)</f>
+        <f>VALUE(-10.536)</f>
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f>VALUE(1556.3046)</f>
+        <f>VALUE(1556.3063)</f>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>VALUE(-9.468)</f>
+        <f>VALUE(-9.37)</f>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f>VALUE(1551.84148)</f>
+        <f>VALUE(1551.25954)</f>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>VALUE(-15.282)</f>
+        <f>VALUE(-15.345999999999998)</f>
         <v>0</v>
       </c>
       <c r="I18" s="10">
-        <f>VALUE(1550.5981)</f>
+        <f>VALUE(1550.6026)</f>
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <f>VALUE(-19.222)</f>
+        <f>VALUE(-19.42)</f>
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f>VALUE(248.83700000000002)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(0.0)</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>VALUE(-0.0004200000000764703)</f>
+        <f>VALUE(0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>VALUE(4.0000000126383384e-05)</f>
+        <f>VALUE(0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>VALUE(-0.0005800000001272565)</f>
+        <f>VALUE(0.0008000000000265572)</f>
         <v>0</v>
       </c>
       <c r="P18" s="11">
-        <f>VALUE(-0.005999999999971806)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>VALUE(-0.35500000001320586)</f>
+        <f>VALUE(0.35500000001320586)</f>
         <v>0</v>
       </c>
     </row>
@@ -2815,67 +2671,67 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <f>VALUE(0.08333)</f>
+        <f>VALUE(0.08528)</f>
         <v>0</v>
       </c>
       <c r="C19" s="7">
-        <f>VALUE(1553.74316)</f>
+        <f>VALUE(1553.74524)</f>
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>VALUE(-10.515999999999998)</f>
+        <f>VALUE(-10.47)</f>
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f>VALUE(1556.3038199999999)</f>
+        <f>VALUE(1556.306)</f>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>VALUE(-9.426)</f>
+        <f>VALUE(-9.408)</f>
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <f>VALUE(1551.8418800000002)</f>
+        <f>VALUE(1551.25978)</f>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f>VALUE(-15.274000000000001)</f>
+        <f>VALUE(-15.342)</f>
         <v>0</v>
       </c>
       <c r="I19" s="10">
-        <f>VALUE(1550.59872)</f>
+        <f>VALUE(1550.60232)</f>
         <v>0</v>
       </c>
       <c r="J19" s="10">
-        <f>VALUE(-19.204)</f>
+        <f>VALUE(-19.408)</f>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>VALUE(248.8395)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>VALUE(-0.001199999999926149)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>VALUE(0.00044000000002597517)</f>
+        <f>VALUE(0.0005000000001018634)</f>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>VALUE(3.999999989900971e-05)</f>
+        <f>VALUE(0.0005200000000513683)</f>
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <f>VALUE(-0.003500000000002501)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>VALUE(-0.18999999997504347)</f>
+        <f>VALUE(0.515000000063992)</f>
         <v>0</v>
       </c>
     </row>
@@ -2884,67 +2740,67 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <f>VALUE(0.08834)</f>
+        <f>VALUE(0.09028)</f>
         <v>0</v>
       </c>
       <c r="C20" s="7">
-        <f>VALUE(1553.74316)</f>
+        <f>VALUE(1553.745)</f>
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <f>VALUE(-10.515999999999998)</f>
+        <f>VALUE(-10.468)</f>
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f>VALUE(1556.3048199999998)</f>
+        <f>VALUE(1556.30592)</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>VALUE(-9.336)</f>
+        <f>VALUE(-9.404)</f>
         <v>0</v>
       </c>
       <c r="G20" s="9">
-        <f>VALUE(1551.84128)</f>
+        <f>VALUE(1551.25998)</f>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f>VALUE(-15.224)</f>
+        <f>VALUE(-15.378)</f>
         <v>0</v>
       </c>
       <c r="I20" s="10">
-        <f>VALUE(1550.59788)</f>
+        <f>VALUE(1550.60256)</f>
         <v>0</v>
       </c>
       <c r="J20" s="10">
-        <f>VALUE(-19.215999999999998)</f>
+        <f>VALUE(-19.392)</f>
         <v>0</v>
       </c>
       <c r="K20" s="11">
-        <f>VALUE(248.8435)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(0.000739999999950669)</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(-1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>VALUE(-0.0001599999998234125)</f>
+        <f>VALUE(0.0007000000000516593)</f>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>VALUE(-0.0008000000000265572)</f>
+        <f>VALUE(0.0007600000001275475)</f>
         <v>0</v>
       </c>
       <c r="P20" s="11">
-        <f>VALUE(0.0005000000000165983)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>VALUE(-0.29999999992469384)</f>
+        <f>VALUE(0.5450000000450927)</f>
         <v>0</v>
       </c>
     </row>
@@ -2953,67 +2809,67 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <f>VALUE(0.09319)</f>
+        <f>VALUE(0.09528)</f>
         <v>0</v>
       </c>
       <c r="C21" s="7">
-        <f>VALUE(1553.74368)</f>
+        <f>VALUE(1553.7446400000001)</f>
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <f>VALUE(-10.51)</f>
+        <f>VALUE(-10.512)</f>
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>VALUE(1556.3047800000002)</f>
+        <f>VALUE(1556.3058199999998)</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>VALUE(-9.412)</f>
+        <f>VALUE(-9.406)</f>
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <f>VALUE(1551.8419199999998)</f>
+        <f>VALUE(1551.25916)</f>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f>VALUE(-15.296)</f>
+        <f>VALUE(-15.376)</f>
         <v>0</v>
       </c>
       <c r="I21" s="10">
-        <f>VALUE(1550.59846)</f>
+        <f>VALUE(1550.60202)</f>
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <f>VALUE(-19.224)</f>
+        <f>VALUE(-19.428)</f>
         <v>0</v>
       </c>
       <c r="K21" s="11">
-        <f>VALUE(248.8465)</f>
+        <f>VALUE(248.7675)</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>VALUE(0.00048000000015235855)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(-0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>VALUE(0.00048000000015235855)</f>
+        <f>VALUE(-0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="O21">
-        <f>VALUE(-0.00022000000012667442)</f>
+        <f>VALUE(0.00022000000012667442)</f>
         <v>0</v>
       </c>
       <c r="P21" s="11">
-        <f>VALUE(0.003500000000002501)</f>
+        <f>VALUE(-273.15649999999994)</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>VALUE(0.12500000002546585)</f>
+        <f>VALUE(0.09000000005698894)</f>
         <v>0</v>
       </c>
     </row>
@@ -3022,67 +2878,67 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <f>VALUE(0.09806)</f>
+        <f>VALUE(0.10042)</f>
         <v>0</v>
       </c>
       <c r="C22" s="7">
-        <f>VALUE(1553.74382)</f>
+        <f>VALUE(1553.7445599999999)</f>
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <f>VALUE(-10.558)</f>
+        <f>VALUE(-10.532)</f>
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>VALUE(1556.30518)</f>
+        <f>VALUE(1556.3053400000001)</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>VALUE(-9.324)</f>
+        <f>VALUE(-9.476)</f>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f>VALUE(1551.842)</f>
+        <f>VALUE(1551.25912)</f>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f>VALUE(-15.262)</f>
+        <f>VALUE(-15.392000000000001)</f>
         <v>0</v>
       </c>
       <c r="I22" s="10">
-        <f>VALUE(1550.5976)</f>
+        <f>VALUE(1550.60194)</f>
         <v>0</v>
       </c>
       <c r="J22" s="10">
-        <f>VALUE(-19.162)</f>
+        <f>VALUE(-19.392)</f>
         <v>0</v>
       </c>
       <c r="K22" s="11">
-        <f>VALUE(248.84750000000003)</f>
+        <f>VALUE(248.7705)</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>VALUE(0.0006200000000262662)</f>
+        <f>VALUE(0.0003000000001520675)</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>VALUE(0.00016000000005078618)</f>
+        <f>VALUE(-0.0006000000000767614)</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>VALUE(0.0005600000001777516)</f>
+        <f>VALUE(-0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>VALUE(-0.0010800000000017462)</f>
+        <f>VALUE(0.00014000000010128133)</f>
         <v>0</v>
       </c>
       <c r="P22" s="11">
-        <f>VALUE(0.004500000000035698)</f>
+        <f>VALUE(-273.1535)</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>VALUE(0.06500000006326445)</f>
+        <f>VALUE(-0.07999999996854967)</f>
         <v>0</v>
       </c>
     </row>
@@ -3091,67 +2947,67 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <f>VALUE(0.11556)</f>
+        <f>VALUE(0.11793)</f>
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <f>VALUE(1553.7431199999999)</f>
+        <f>VALUE(1553.74466)</f>
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <f>VALUE(-10.485999999999999)</f>
+        <f>VALUE(-10.492)</f>
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>VALUE(1556.30466)</f>
+        <f>VALUE(1556.30596)</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>VALUE(-9.436)</f>
+        <f>VALUE(-9.43)</f>
         <v>0</v>
       </c>
       <c r="G23" s="9">
-        <f>VALUE(1551.84096)</f>
+        <f>VALUE(1551.25884)</f>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f>VALUE(-15.3)</f>
+        <f>VALUE(-15.39)</f>
         <v>0</v>
       </c>
       <c r="I23" s="10">
-        <f>VALUE(1550.59734)</f>
+        <f>VALUE(1550.6028)</f>
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <f>VALUE(-19.198)</f>
+        <f>VALUE(-19.386)</f>
         <v>0</v>
       </c>
       <c r="K23" s="11">
-        <f>VALUE(248.854)</f>
+        <f>VALUE(248.775)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>VALUE(-7.999999979801942e-05)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>VALUE(-0.0004799999999249849)</f>
+        <f>VALUE(-0.00044000000002597517)</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>VALUE(-0.0013400000000274304)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="P23" s="11">
-        <f>VALUE(0.011000000000024102)</f>
+        <f>VALUE(-273.149)</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>VALUE(-0.5649999999377542)</f>
+        <f>VALUE(0.24500000000671207)</f>
         <v>0</v>
       </c>
     </row>
@@ -3160,67 +3016,67 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <f>VALUE(0.13292)</f>
+        <f>VALUE(0.13486)</f>
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <f>VALUE(1553.74394)</f>
+        <f>VALUE(1553.7447)</f>
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <f>VALUE(-10.552)</f>
+        <f>VALUE(-10.484000000000002)</f>
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>VALUE(1556.30532)</f>
+        <f>VALUE(1556.30574)</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>VALUE(-9.41)</f>
+        <f>VALUE(-9.406)</f>
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <f>VALUE(1551.8419800000001)</f>
+        <f>VALUE(1551.2581)</f>
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f>VALUE(-15.245999999999999)</f>
+        <f>VALUE(-15.374)</f>
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <f>VALUE(1550.5983199999998)</f>
+        <f>VALUE(1550.6027)</f>
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <f>VALUE(-19.21)</f>
+        <f>VALUE(-19.474)</f>
         <v>0</v>
       </c>
       <c r="K24" s="11">
-        <f>VALUE(248.8615)</f>
+        <f>VALUE(248.7735)</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>VALUE(0.0007400000001780427)</f>
+        <f>VALUE(0.00044000000002597517)</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>VALUE(0.00029999999992469384)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>VALUE(0.0005400000000008731)</f>
+        <f>VALUE(-0.0011799999999766442)</f>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.0009000000000014552)</f>
         <v>0</v>
       </c>
       <c r="P24" s="11">
-        <f>VALUE(0.01850000000001728)</f>
+        <f>VALUE(-273.15049999999997)</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>VALUE(0.3050000000257569)</f>
+        <f>VALUE(-0.009999999974752427)</f>
         <v>0</v>
       </c>
     </row>
@@ -3229,67 +3085,67 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <f>VALUE(0.15042)</f>
+        <f>VALUE(0.13972)</f>
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <f>VALUE(1553.74294)</f>
+        <f>VALUE(1553.74398)</f>
         <v>0</v>
       </c>
       <c r="D25" s="7">
-        <f>VALUE(-10.502)</f>
+        <f>VALUE(-10.504000000000001)</f>
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>VALUE(1556.3053400000001)</f>
+        <f>VALUE(1556.3064)</f>
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <f>VALUE(-9.396)</f>
+        <f>VALUE(-9.414)</f>
         <v>0</v>
       </c>
       <c r="G25" s="9">
-        <f>VALUE(1551.8411)</f>
+        <f>VALUE(1551.2594800000002)</f>
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <f>VALUE(-15.182)</f>
+        <f>VALUE(-15.372)</f>
         <v>0</v>
       </c>
       <c r="I25" s="10">
-        <f>VALUE(1550.59894)</f>
+        <f>VALUE(1550.60302)</f>
         <v>0</v>
       </c>
       <c r="J25" s="10">
-        <f>VALUE(-19.3)</f>
+        <f>VALUE(-19.438)</f>
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <f>VALUE(248.865)</f>
+        <f>VALUE(248.773)</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>VALUE(-0.00025999999979831045)</f>
+        <f>VALUE(-0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>VALUE(0.0003199999998741987)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>VALUE(-0.00033999999982370355)</f>
+        <f>VALUE(0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>VALUE(0.00026000000002568413)</f>
+        <f>VALUE(0.0012200000001030276)</f>
         <v>0</v>
       </c>
       <c r="P25" s="11">
-        <f>VALUE(0.02200000000001978)</f>
+        <f>VALUE(-273.15099999999995)</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>VALUE(-0.004999999930532795)</f>
+        <f>VALUE(0.4000000000132786)</f>
         <v>0</v>
       </c>
     </row>
@@ -3298,67 +3154,67 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <f>VALUE(0.16778)</f>
+        <f>VALUE(0.14486)</f>
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <f>VALUE(1553.7438)</f>
+        <f>VALUE(1553.7446)</f>
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <f>VALUE(-10.502)</f>
+        <f>VALUE(-10.51)</f>
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>VALUE(1556.30552)</f>
+        <f>VALUE(1556.30656)</f>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>VALUE(-9.386000000000001)</f>
+        <f>VALUE(-9.404)</f>
         <v>0</v>
       </c>
       <c r="G26" s="9">
-        <f>VALUE(1551.84138)</f>
+        <f>VALUE(1551.2596800000001)</f>
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <f>VALUE(-15.24)</f>
+        <f>VALUE(-15.378)</f>
         <v>0</v>
       </c>
       <c r="I26" s="10">
-        <f>VALUE(1550.59916)</f>
+        <f>VALUE(1550.60318)</f>
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <f>VALUE(-19.324)</f>
+        <f>VALUE(-19.412)</f>
         <v>0</v>
       </c>
       <c r="K26" s="11">
-        <f>VALUE(248.8665)</f>
+        <f>VALUE(248.7725)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>VALUE(0.0006000000000767614)</f>
+        <f>VALUE(0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>VALUE(0.0004999999998744897)</f>
+        <f>VALUE(0.0006200000000262662)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>VALUE(-5.999999984851456e-05)</f>
+        <f>VALUE(0.0003999999998995918)</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>VALUE(0.0004799999999249849)</f>
+        <f>VALUE(0.0013800000001538137)</f>
         <v>0</v>
       </c>
       <c r="P26" s="11">
-        <f>VALUE(0.023500000000012733)</f>
+        <f>VALUE(-273.15149999999994)</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>VALUE(0.38000000000693035)</f>
+        <f>VALUE(0.6850000000326872)</f>
         <v>0</v>
       </c>
     </row>
@@ -3367,67 +3223,67 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <f>VALUE(0.18542)</f>
+        <f>VALUE(0.14986)</f>
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <f>VALUE(1553.74348)</f>
+        <f>VALUE(1553.7446400000001)</f>
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <f>VALUE(-10.46)</f>
+        <f>VALUE(-10.508)</f>
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>VALUE(1556.30458)</f>
+        <f>VALUE(1556.30602)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>VALUE(-9.412)</f>
+        <f>VALUE(-9.392000000000001)</f>
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <f>VALUE(1551.84158)</f>
+        <f>VALUE(1551.2590400000001)</f>
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f>VALUE(-15.27)</f>
+        <f>VALUE(-15.368)</f>
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f>VALUE(1550.59926)</f>
+        <f>VALUE(1550.6028)</f>
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <f>VALUE(-19.274)</f>
+        <f>VALUE(-19.438)</f>
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <f>VALUE(248.8695)</f>
+        <f>VALUE(248.773)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>VALUE(0.00028000000020256266)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>VALUE(-0.00044000000002597517)</f>
+        <f>VALUE(8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>VALUE(0.00014000000010128133)</f>
+        <f>VALUE(-0.00024000000007617928)</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>VALUE(0.0005799999998998828)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="P27" s="11">
-        <f>VALUE(0.026499999999998636)</f>
+        <f>VALUE(-273.15099999999995)</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>VALUE(0.1400000000444379)</f>
+        <f>VALUE(0.30499999996891347)</f>
         <v>0</v>
       </c>
     </row>
@@ -3436,67 +3292,67 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <f>VALUE(0.20293)</f>
+        <f>VALUE(0.155)</f>
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <f>VALUE(1553.74386)</f>
+        <f>VALUE(1553.74472)</f>
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <f>VALUE(-10.524000000000001)</f>
+        <f>VALUE(-10.488)</f>
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>VALUE(1556.30556)</f>
+        <f>VALUE(1556.30592)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>VALUE(-9.408)</f>
+        <f>VALUE(-9.396)</f>
         <v>0</v>
       </c>
       <c r="G28" s="9">
-        <f>VALUE(1551.8415)</f>
+        <f>VALUE(1551.2594)</f>
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <f>VALUE(-15.242)</f>
+        <f>VALUE(-15.392000000000001)</f>
         <v>0</v>
       </c>
       <c r="I28" s="10">
-        <f>VALUE(1550.59834)</f>
+        <f>VALUE(1550.6028)</f>
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <f>VALUE(-19.276)</f>
+        <f>VALUE(-19.454)</f>
         <v>0</v>
       </c>
       <c r="K28" s="11">
-        <f>VALUE(248.8665)</f>
+        <f>VALUE(248.771)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>VALUE(0.0006600000001526496)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>VALUE(0.0005400000000008731)</f>
+        <f>VALUE(-1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>VALUE(6.000000007588824e-05)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>VALUE(-0.0003400000000510772)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="P28" s="11">
-        <f>VALUE(0.023500000000012733)</f>
+        <f>VALUE(-273.153)</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>VALUE(0.23000000004458343)</f>
+        <f>VALUE(0.3899999999816828)</f>
         <v>0</v>
       </c>
     </row>
@@ -3505,67 +3361,67 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <f>VALUE(0.22042)</f>
+        <f>VALUE(0.16014)</f>
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <f>VALUE(1553.74368)</f>
+        <f>VALUE(1553.74482)</f>
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <f>VALUE(-10.51)</f>
+        <f>VALUE(-10.484000000000002)</f>
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f>VALUE(1556.30514)</f>
+        <f>VALUE(1556.30618)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>VALUE(-9.416)</f>
+        <f>VALUE(-9.448)</f>
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <f>VALUE(1551.8411800000001)</f>
+        <f>VALUE(1551.26044)</f>
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <f>VALUE(-15.282)</f>
+        <f>VALUE(-15.362)</f>
         <v>0</v>
       </c>
       <c r="I29" s="10">
-        <f>VALUE(1550.59936)</f>
+        <f>VALUE(1550.60246)</f>
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <f>VALUE(-19.285999999999998)</f>
+        <f>VALUE(-19.42)</f>
         <v>0</v>
       </c>
       <c r="K29" s="11">
-        <f>VALUE(248.8675)</f>
+        <f>VALUE(248.768)</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>VALUE(0.00048000000015235855)</f>
+        <f>VALUE(0.000559999999950378)</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>VALUE(0.0001199999999244028)</f>
+        <f>VALUE(0.00024000000007617928)</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(0.0011600000000271393)</f>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>VALUE(0.0006799999998747808)</f>
+        <f>VALUE(0.0006600000001526496)</f>
         <v>0</v>
       </c>
       <c r="P29" s="11">
-        <f>VALUE(0.024500000000017508)</f>
+        <f>VALUE(-273.15599999999995)</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>VALUE(0.2549999999814645)</f>
+        <f>VALUE(0.6550000000515865)</f>
         <v>0</v>
       </c>
     </row>
@@ -3574,67 +3430,67 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <f>VALUE(0.23778)</f>
+        <f>VALUE(0.16514)</f>
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <f>VALUE(1553.7433)</f>
+        <f>VALUE(1553.7445)</f>
         <v>0</v>
       </c>
       <c r="D30" s="7">
-        <f>VALUE(-10.512)</f>
+        <f>VALUE(-10.492)</f>
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <f>VALUE(1556.3051)</f>
+        <f>VALUE(1556.30544)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>VALUE(-9.363999999999999)</f>
+        <f>VALUE(-9.466000000000001)</f>
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <f>VALUE(1551.8414599999999)</f>
+        <f>VALUE(1551.26022)</f>
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <f>VALUE(-15.33)</f>
+        <f>VALUE(-15.34)</f>
         <v>0</v>
       </c>
       <c r="I30" s="10">
-        <f>VALUE(1550.59892)</f>
+        <f>VALUE(1550.6025)</f>
         <v>0</v>
       </c>
       <c r="J30" s="10">
-        <f>VALUE(-19.305999999999997)</f>
+        <f>VALUE(-19.45)</f>
         <v>0</v>
       </c>
       <c r="K30" s="11">
-        <f>VALUE(248.865)</f>
+        <f>VALUE(248.7675)</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>VALUE(0.00010000000020227162)</f>
+        <f>VALUE(0.00024000000007617928)</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>VALUE(8.000000002539309e-05)</f>
+        <f>VALUE(-0.0004999999998744897)</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>VALUE(2.000000017687853e-05)</f>
+        <f>VALUE(0.0009399999999004649)</f>
         <v>0</v>
       </c>
       <c r="O30">
-        <f>VALUE(0.0002399999998488056)</f>
+        <f>VALUE(0.0007000000000516593)</f>
         <v>0</v>
       </c>
       <c r="P30" s="11">
-        <f>VALUE(0.02200000000001978)</f>
+        <f>VALUE(-273.15649999999994)</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>VALUE(0.11000000006333721)</f>
+        <f>VALUE(0.34500000003845344)</f>
         <v>0</v>
       </c>
     </row>
@@ -3643,67 +3499,67 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <f>VALUE(0.25529)</f>
+        <f>VALUE(0.17014)</f>
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <f>VALUE(1553.74346)</f>
+        <f>VALUE(1553.74426)</f>
         <v>0</v>
       </c>
       <c r="D31" s="7">
-        <f>VALUE(-10.475999999999999)</f>
+        <f>VALUE(-10.462)</f>
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <f>VALUE(1556.3058199999998)</f>
+        <f>VALUE(1556.3061)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>VALUE(-9.394)</f>
+        <f>VALUE(-9.374)</f>
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <f>VALUE(1551.84116)</f>
+        <f>VALUE(1551.2604800000001)</f>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f>VALUE(-15.218)</f>
+        <f>VALUE(-15.324000000000002)</f>
         <v>0</v>
       </c>
       <c r="I31" s="10">
-        <f>VALUE(1550.59882)</f>
+        <f>VALUE(1550.6022)</f>
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <f>VALUE(-19.288)</f>
+        <f>VALUE(-19.416)</f>
         <v>0</v>
       </c>
       <c r="K31" s="11">
-        <f>VALUE(248.85950000000003)</f>
+        <f>VALUE(248.766)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>VALUE(0.00026000000002568413)</f>
+        <f>VALUE(0.0)</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>VALUE(0.0008000000000265572)</f>
+        <f>VALUE(0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>VALUE(-0.000279999999975189)</f>
+        <f>VALUE(0.001199999999926149)</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>VALUE(0.00013999999987390765)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="P31" s="11">
-        <f>VALUE(0.016500000000036152)</f>
+        <f>VALUE(-273.158)</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>VALUE(0.22999999998774)</f>
+        <f>VALUE(0.44000000002597517)</f>
         <v>0</v>
       </c>
     </row>
@@ -3712,67 +3568,67 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <f>VALUE(0.27265)</f>
+        <f>VALUE(0.17514)</f>
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <f>VALUE(1553.74298)</f>
+        <f>VALUE(1553.74392)</f>
         <v>0</v>
       </c>
       <c r="D32" s="7">
-        <f>VALUE(-10.472000000000001)</f>
+        <f>VALUE(-10.517999999999999)</f>
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <f>VALUE(1556.305)</f>
+        <f>VALUE(1556.3057800000001)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>VALUE(-9.314)</f>
+        <f>VALUE(-9.392000000000001)</f>
         <v>0</v>
       </c>
       <c r="G32" s="9">
-        <f>VALUE(1551.8415400000001)</f>
+        <f>VALUE(1551.2613)</f>
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <f>VALUE(-15.2)</f>
+        <f>VALUE(-15.357999999999999)</f>
         <v>0</v>
       </c>
       <c r="I32" s="10">
-        <f>VALUE(1550.59926)</f>
+        <f>VALUE(1550.6022)</f>
         <v>0</v>
       </c>
       <c r="J32" s="10">
-        <f>VALUE(-19.284000000000002)</f>
+        <f>VALUE(-19.42)</f>
         <v>0</v>
       </c>
       <c r="K32" s="11">
-        <f>VALUE(248.8545)</f>
+        <f>VALUE(248.7655)</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>VALUE(-0.00021999999989930075)</f>
+        <f>VALUE(-0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>VALUE(-1.9999999949504854e-05)</f>
+        <f>VALUE(-0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(0.002019999999902211)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>VALUE(0.0005799999998998828)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="P32" s="11">
-        <f>VALUE(0.011500000000012278)</f>
+        <f>VALUE(-273.1585)</f>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>VALUE(0.11000000000649379)</f>
+        <f>VALUE(0.4799999999818283)</f>
         <v>0</v>
       </c>
     </row>
@@ -3781,67 +3637,67 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <f>VALUE(0.29028)</f>
+        <f>VALUE(0.18028)</f>
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <f>VALUE(1553.74298)</f>
+        <f>VALUE(1553.7443)</f>
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <f>VALUE(-10.52)</f>
+        <f>VALUE(-10.502)</f>
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <f>VALUE(1556.3052599999999)</f>
+        <f>VALUE(1556.30654)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>VALUE(-9.388)</f>
+        <f>VALUE(-9.396)</f>
         <v>0</v>
       </c>
       <c r="G33" s="9">
-        <f>VALUE(1551.84136)</f>
+        <f>VALUE(1551.26046)</f>
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <f>VALUE(-15.332)</f>
+        <f>VALUE(-15.342)</f>
         <v>0</v>
       </c>
       <c r="I33" s="10">
-        <f>VALUE(1550.5985)</f>
+        <f>VALUE(1550.60276)</f>
         <v>0</v>
       </c>
       <c r="J33" s="10">
-        <f>VALUE(-19.262)</f>
+        <f>VALUE(-19.386)</f>
         <v>0</v>
       </c>
       <c r="K33" s="11">
-        <f>VALUE(248.85299999999998)</f>
+        <f>VALUE(248.7645)</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>VALUE(-0.00021999999989930075)</f>
+        <f>VALUE(4.0000000126383384e-05)</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>VALUE(0.00024000000007617928)</f>
+        <f>VALUE(0.0006000000000767614)</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>VALUE(-8.000000002539309e-05)</f>
+        <f>VALUE(0.0011799999999766442)</f>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>VALUE(-0.00018000000000029104)</f>
+        <f>VALUE(0.0009600000000773434)</f>
         <v>0</v>
       </c>
       <c r="P33" s="11">
-        <f>VALUE(0.009999999999990905)</f>
+        <f>VALUE(-273.1595)</f>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>VALUE(-0.0599999999622014)</f>
+        <f>VALUE(0.6950000000642831)</f>
         <v>0</v>
       </c>
     </row>
@@ -3850,67 +3706,67 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <f>VALUE(0.30779)</f>
+        <f>VALUE(0.18528)</f>
         <v>0</v>
       </c>
       <c r="C34" s="7">
-        <f>VALUE(1553.7431800000002)</f>
+        <f>VALUE(1553.74446)</f>
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <f>VALUE(-10.504000000000001)</f>
+        <f>VALUE(-10.485999999999999)</f>
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <f>VALUE(1556.30428)</f>
+        <f>VALUE(1556.30574)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>VALUE(-9.38)</f>
+        <f>VALUE(-9.454)</f>
         <v>0</v>
       </c>
       <c r="G34" s="9">
-        <f>VALUE(1551.8415)</f>
+        <f>VALUE(1551.2604800000001)</f>
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <f>VALUE(-15.284)</f>
+        <f>VALUE(-15.324000000000002)</f>
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <f>VALUE(1550.59858)</f>
+        <f>VALUE(1550.60306)</f>
         <v>0</v>
       </c>
       <c r="J34" s="10">
-        <f>VALUE(-19.256)</f>
+        <f>VALUE(-19.422)</f>
         <v>0</v>
       </c>
       <c r="K34" s="11">
-        <f>VALUE(248.8495)</f>
+        <f>VALUE(248.762)</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>VALUE(-1.9999999949504854e-05)</f>
+        <f>VALUE(0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>VALUE(-0.000739999999950669)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>VALUE(6.000000007588824e-05)</f>
+        <f>VALUE(0.001199999999926149)</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(0.0012600000000020373)</f>
         <v>0</v>
       </c>
       <c r="P34" s="11">
-        <f>VALUE(0.006500000000016826)</f>
+        <f>VALUE(-273.162)</f>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>VALUE(-0.1999999999497959)</f>
+        <f>VALUE(0.6149999999820466)</f>
         <v>0</v>
       </c>
     </row>
@@ -3919,67 +3775,67 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <f>VALUE(0.32515)</f>
+        <f>VALUE(0.19028)</f>
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <f>VALUE(1553.74336)</f>
+        <f>VALUE(1553.7451199999998)</f>
         <v>0</v>
       </c>
       <c r="D35" s="7">
-        <f>VALUE(-10.51)</f>
+        <f>VALUE(-10.478)</f>
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <f>VALUE(1556.3043)</f>
+        <f>VALUE(1556.30532)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>VALUE(-9.412)</f>
+        <f>VALUE(-9.437999999999999)</f>
         <v>0</v>
       </c>
       <c r="G35" s="9">
-        <f>VALUE(1551.8411800000001)</f>
+        <f>VALUE(1551.25986)</f>
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <f>VALUE(-15.357999999999999)</f>
+        <f>VALUE(-15.338)</f>
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f>VALUE(1550.59888)</f>
+        <f>VALUE(1550.60238)</f>
         <v>0</v>
       </c>
       <c r="J35" s="10">
-        <f>VALUE(-19.342)</f>
+        <f>VALUE(-19.374000000000002)</f>
         <v>0</v>
       </c>
       <c r="K35" s="11">
-        <f>VALUE(248.85)</f>
+        <f>VALUE(248.761)</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>VALUE(0.00016000000005078618)</f>
+        <f>VALUE(0.0008600000001024455)</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>VALUE(-0.0007200000000011642)</f>
+        <f>VALUE(-0.0006200000000262662)</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(0.0005799999998998828)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>VALUE(0.0001999999999497959)</f>
+        <f>VALUE(0.0005800000001272565)</f>
         <v>0</v>
       </c>
       <c r="P35" s="11">
-        <f>VALUE(0.007000000000005002)</f>
+        <f>VALUE(-273.163)</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>VALUE(-0.15500000000656655)</f>
+        <f>VALUE(0.35000000002582965)</f>
         <v>0</v>
       </c>
     </row>
@@ -3988,67 +3844,67 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <f>VALUE(0.34265)</f>
+        <f>VALUE(0.19528)</f>
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <f>VALUE(1553.74356)</f>
+        <f>VALUE(1553.74458)</f>
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <f>VALUE(-10.522)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <f>VALUE(1556.30546)</f>
+        <f>VALUE(1556.30474)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>VALUE(-9.37)</f>
+        <f>VALUE(-9.416)</f>
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <f>VALUE(1551.84168)</f>
+        <f>VALUE(1551.2594)</f>
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <f>VALUE(-15.332)</f>
+        <f>VALUE(-15.357999999999999)</f>
         <v>0</v>
       </c>
       <c r="I36" s="10">
-        <f>VALUE(1550.59926)</f>
+        <f>VALUE(1550.60162)</f>
         <v>0</v>
       </c>
       <c r="J36" s="10">
-        <f>VALUE(-19.294)</f>
+        <f>VALUE(-19.378)</f>
         <v>0</v>
       </c>
       <c r="K36" s="11">
-        <f>VALUE(248.8525)</f>
+        <f>VALUE(248.7595)</f>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(0.00032000000010157237)</f>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>VALUE(0.00044000000002597517)</f>
+        <f>VALUE(-0.001199999999926149)</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>VALUE(0.00024000000007617928)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>VALUE(0.0005799999998998828)</f>
+        <f>VALUE(-0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="P36" s="11">
-        <f>VALUE(0.009500000000002728)</f>
+        <f>VALUE(-273.1645)</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>VALUE(0.40500000000065484)</f>
+        <f>VALUE(-0.23499999997511622)</f>
         <v>0</v>
       </c>
     </row>
@@ -4057,67 +3913,67 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <f>VALUE(0.35994)</f>
+        <f>VALUE(0.20014)</f>
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <f>VALUE(1553.74316)</f>
+        <f>VALUE(1553.7436599999999)</f>
         <v>0</v>
       </c>
       <c r="D37" s="7">
-        <f>VALUE(-10.466)</f>
+        <f>VALUE(-10.536)</f>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f>VALUE(1556.30506)</f>
+        <f>VALUE(1556.3046199999999)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>VALUE(-9.4)</f>
+        <f>VALUE(-9.392000000000001)</f>
         <v>0</v>
       </c>
       <c r="G37" s="9">
-        <f>VALUE(1551.8412)</f>
+        <f>VALUE(1551.25886)</f>
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <f>VALUE(-15.314)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I37" s="10">
-        <f>VALUE(1550.59752)</f>
+        <f>VALUE(1550.60134)</f>
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <f>VALUE(-19.266)</f>
+        <f>VALUE(-19.39)</f>
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f>VALUE(248.8545)</f>
+        <f>VALUE(248.7585)</f>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(-0.0005999999998493877)</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>VALUE(3.999999989900971e-05)</f>
+        <f>VALUE(-0.0013199999998505518)</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>VALUE(-0.0002399999998488056)</f>
+        <f>VALUE(-0.0004200000000764703)</f>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>VALUE(-0.0011600000000271393)</f>
+        <f>VALUE(-0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="P37" s="11">
-        <f>VALUE(0.011500000000012278)</f>
+        <f>VALUE(-273.16549999999995)</f>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>VALUE(-0.34999999996898623)</f>
+        <f>VALUE(-0.6999999999379725)</f>
         <v>0</v>
       </c>
     </row>
@@ -4126,67 +3982,67 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <f>VALUE(0.37737)</f>
+        <f>VALUE(0.20528)</f>
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <f>VALUE(1553.74384)</f>
+        <f>VALUE(1553.7441199999998)</f>
         <v>0</v>
       </c>
       <c r="D38" s="7">
-        <f>VALUE(-10.505999999999998)</f>
+        <f>VALUE(-10.484000000000002)</f>
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <f>VALUE(1556.3058)</f>
+        <f>VALUE(1556.30584)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>VALUE(-9.376)</f>
+        <f>VALUE(-9.436)</f>
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <f>VALUE(1551.84218)</f>
+        <f>VALUE(1551.25902)</f>
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <f>VALUE(-15.308)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I38" s="10">
-        <f>VALUE(1550.5987599999999)</f>
+        <f>VALUE(1550.60166)</f>
         <v>0</v>
       </c>
       <c r="J38" s="10">
-        <f>VALUE(-19.302)</f>
+        <f>VALUE(-19.368)</f>
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f>VALUE(248.855)</f>
+        <f>VALUE(248.757)</f>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>VALUE(0.0006400000002031447)</f>
+        <f>VALUE(-0.00013999999987390765)</f>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>VALUE(0.0007800000000770524)</f>
+        <f>VALUE(-9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>VALUE(0.0007400000001780427)</f>
+        <f>VALUE(-0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>VALUE(8.000000002539309e-05)</f>
+        <f>VALUE(-0.00013999999987390765)</f>
         <v>0</v>
       </c>
       <c r="P38" s="11">
-        <f>VALUE(0.012000000000000455)</f>
+        <f>VALUE(-273.167)</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>VALUE(0.5600000001209082)</f>
+        <f>VALUE(-0.15999999993709935)</f>
         <v>0</v>
       </c>
     </row>
@@ -4195,67 +4051,67 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <f>VALUE(0.39487)</f>
+        <f>VALUE(0.21028)</f>
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <f>VALUE(1553.74342)</f>
+        <f>VALUE(1553.74362)</f>
         <v>0</v>
       </c>
       <c r="D39" s="7">
-        <f>VALUE(-10.494000000000002)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f>VALUE(1556.3046)</f>
+        <f>VALUE(1556.305)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>VALUE(-9.406)</f>
+        <f>VALUE(-9.437999999999999)</f>
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <f>VALUE(1551.84122)</f>
+        <f>VALUE(1551.25964)</f>
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <f>VALUE(-15.258)</f>
+        <f>VALUE(-15.374)</f>
         <v>0</v>
       </c>
       <c r="I39" s="10">
-        <f>VALUE(1550.59904)</f>
+        <f>VALUE(1550.60186)</f>
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <f>VALUE(-19.31)</f>
+        <f>VALUE(-19.402)</f>
         <v>0</v>
       </c>
       <c r="K39" s="11">
-        <f>VALUE(248.857)</f>
+        <f>VALUE(248.7575)</f>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>VALUE(0.00022000000012667442)</f>
+        <f>VALUE(-0.0006399999999757711)</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>VALUE(-0.0004200000000764703)</f>
+        <f>VALUE(-0.0009399999999004649)</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>VALUE(-0.00021999999989930075)</f>
+        <f>VALUE(0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f>VALUE(0.014000000000010004)</f>
+        <f>VALUE(-273.1665)</f>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f>VALUE(-0.01499999996212864)</f>
+        <f>VALUE(-0.2899999999499414)</f>
         <v>0</v>
       </c>
     </row>
@@ -4264,67 +4120,67 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <f>VALUE(0.41223)</f>
+        <f>VALUE(0.21528)</f>
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <f>VALUE(1553.74354)</f>
+        <f>VALUE(1553.7443)</f>
         <v>0</v>
       </c>
       <c r="D40" s="7">
-        <f>VALUE(-10.474)</f>
+        <f>VALUE(-10.536)</f>
         <v>0</v>
       </c>
       <c r="E40" s="8">
-        <f>VALUE(1556.3052)</f>
+        <f>VALUE(1556.30514)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>VALUE(-9.4)</f>
+        <f>VALUE(-9.384)</f>
         <v>0</v>
       </c>
       <c r="G40" s="9">
-        <f>VALUE(1551.8413)</f>
+        <f>VALUE(1551.25986)</f>
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <f>VALUE(-15.282)</f>
+        <f>VALUE(-15.352)</f>
         <v>0</v>
       </c>
       <c r="I40" s="10">
-        <f>VALUE(1550.59798)</f>
+        <f>VALUE(1550.6018800000002)</f>
         <v>0</v>
       </c>
       <c r="J40" s="10">
-        <f>VALUE(-19.308)</f>
+        <f>VALUE(-19.372)</f>
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f>VALUE(248.857)</f>
+        <f>VALUE(248.7575)</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>VALUE(0.0003400000000510772)</f>
+        <f>VALUE(4.0000000126383384e-05)</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>VALUE(0.00018000000000029104)</f>
+        <f>VALUE(-0.0008000000000265572)</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>VALUE(-0.00013999999987390765)</f>
+        <f>VALUE(0.0005799999998998828)</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>VALUE(-0.0007000000000516593)</f>
+        <f>VALUE(8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f>VALUE(0.014000000000010004)</f>
+        <f>VALUE(-273.1665)</f>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f>VALUE(-0.07999999996854967)</f>
+        <f>VALUE(-0.024999999993724487)</f>
         <v>0</v>
       </c>
     </row>
@@ -4333,67 +4189,67 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <f>VALUE(0.42988)</f>
+        <f>VALUE(0.22014)</f>
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <f>VALUE(1553.74342)</f>
+        <f>VALUE(1553.74398)</f>
         <v>0</v>
       </c>
       <c r="D41" s="7">
-        <f>VALUE(-10.498)</f>
+        <f>VALUE(-10.48)</f>
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <f>VALUE(1556.30538)</f>
+        <f>VALUE(1556.3053)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>VALUE(-9.4)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G41" s="9">
-        <f>VALUE(1551.8414599999999)</f>
+        <f>VALUE(1551.25866)</f>
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <f>VALUE(-15.34)</f>
+        <f>VALUE(-15.35)</f>
         <v>0</v>
       </c>
       <c r="I41" s="10">
-        <f>VALUE(1550.5983)</f>
+        <f>VALUE(1550.60148)</f>
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <f>VALUE(-19.305999999999997)</f>
+        <f>VALUE(-19.404)</f>
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <f>VALUE(248.85299999999998)</f>
+        <f>VALUE(248.7585)</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>VALUE(0.00022000000012667442)</f>
+        <f>VALUE(-0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(-0.0006399999999757711)</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>VALUE(2.000000017687853e-05)</f>
+        <f>VALUE(-0.0006200000000262662)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(-0.0003199999998741987)</f>
         <v>0</v>
       </c>
       <c r="P41" s="11">
-        <f>VALUE(0.009999999999990905)</f>
+        <f>VALUE(-273.16549999999995)</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f>VALUE(0.055000000088512024)</f>
+        <f>VALUE(-0.46499999996285624)</f>
         <v>0</v>
       </c>
     </row>
@@ -4402,67 +4258,67 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <f>VALUE(0.44723)</f>
+        <f>VALUE(0.22514)</f>
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <f>VALUE(1553.7432199999998)</f>
+        <f>VALUE(1553.7449800000002)</f>
         <v>0</v>
       </c>
       <c r="D42" s="7">
-        <f>VALUE(-10.504000000000001)</f>
+        <f>VALUE(-10.488)</f>
         <v>0</v>
       </c>
       <c r="E42" s="8">
-        <f>VALUE(1556.3047800000002)</f>
+        <f>VALUE(1556.306)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>VALUE(-9.334)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G42" s="9">
-        <f>VALUE(1551.8413)</f>
+        <f>VALUE(1551.25882)</f>
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <f>VALUE(-15.306)</f>
+        <f>VALUE(-15.36)</f>
         <v>0</v>
       </c>
       <c r="I42" s="10">
-        <f>VALUE(1550.59846)</f>
+        <f>VALUE(1550.6014599999999)</f>
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <f>VALUE(-19.41)</f>
+        <f>VALUE(-19.394000000000002)</f>
         <v>0</v>
       </c>
       <c r="K42" s="11">
-        <f>VALUE(248.8515)</f>
+        <f>VALUE(248.7575)</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>VALUE(2.000000017687853e-05)</f>
+        <f>VALUE(0.0007200000000011642)</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>VALUE(-0.00013999999987390765)</f>
+        <f>VALUE(-0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>VALUE(-0.00022000000012667442)</f>
+        <f>VALUE(-0.00033999999982370355)</f>
         <v>0</v>
       </c>
       <c r="P42" s="11">
-        <f>VALUE(0.008499999999997954)</f>
+        <f>VALUE(-273.1665)</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f>VALUE(-0.1449999999749707)</f>
+        <f>VALUE(-0.004999999930532795)</f>
         <v>0</v>
       </c>
     </row>
@@ -4471,67 +4327,67 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <f>VALUE(0.46473)</f>
+        <f>VALUE(0.23)</f>
         <v>0</v>
       </c>
       <c r="C43" s="7">
-        <f>VALUE(1553.7437400000001)</f>
+        <f>VALUE(1553.74474)</f>
         <v>0</v>
       </c>
       <c r="D43" s="7">
-        <f>VALUE(-10.502)</f>
+        <f>VALUE(-10.472000000000001)</f>
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <f>VALUE(1556.3049800000001)</f>
+        <f>VALUE(1556.3062400000001)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f>VALUE(-9.374)</f>
+        <f>VALUE(-9.386000000000001)</f>
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <f>VALUE(1551.8411800000001)</f>
+        <f>VALUE(1551.2600400000001)</f>
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <f>VALUE(-15.335999999999999)</f>
+        <f>VALUE(-15.32)</f>
         <v>0</v>
       </c>
       <c r="I43" s="10">
-        <f>VALUE(1550.5978)</f>
+        <f>VALUE(1550.60194)</f>
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <f>VALUE(-19.316)</f>
+        <f>VALUE(-19.374000000000002)</f>
         <v>0</v>
       </c>
       <c r="K43" s="11">
-        <f>VALUE(248.8455)</f>
+        <f>VALUE(248.7545)</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>VALUE(0.0005400000000008731)</f>
+        <f>VALUE(0.00048000000015235855)</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>VALUE(-4.0000000126383384e-05)</f>
+        <f>VALUE(0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(0.0007599999999001739)</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>VALUE(-0.0008800000000519503)</f>
+        <f>VALUE(0.00014000000010128133)</f>
         <v>0</v>
       </c>
       <c r="P43" s="11">
-        <f>VALUE(0.0024999999999977263)</f>
+        <f>VALUE(-273.16949999999997)</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>VALUE(-0.16000000005078618)</f>
+        <f>VALUE(0.4200000000196269)</f>
         <v>0</v>
       </c>
     </row>
@@ -4540,67 +4396,67 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <f>VALUE(0.4821)</f>
+        <f>VALUE(0.23486)</f>
         <v>0</v>
       </c>
       <c r="C44" s="7">
-        <f>VALUE(1553.7436)</f>
+        <f>VALUE(1553.7442800000001)</f>
         <v>0</v>
       </c>
       <c r="D44" s="7">
-        <f>VALUE(-10.49)</f>
+        <f>VALUE(-10.514000000000001)</f>
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <f>VALUE(1556.30506)</f>
+        <f>VALUE(1556.30556)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>VALUE(-9.368)</f>
+        <f>VALUE(-9.424)</f>
         <v>0</v>
       </c>
       <c r="G44" s="9">
-        <f>VALUE(1551.8418)</f>
+        <f>VALUE(1551.26002)</f>
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <f>VALUE(-15.342)</f>
+        <f>VALUE(-15.31)</f>
         <v>0</v>
       </c>
       <c r="I44" s="10">
-        <f>VALUE(1550.59842)</f>
+        <f>VALUE(1550.6022)</f>
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <f>VALUE(-19.348)</f>
+        <f>VALUE(-19.354)</f>
         <v>0</v>
       </c>
       <c r="K44" s="11">
-        <f>VALUE(248.845)</f>
+        <f>VALUE(248.75400000000002)</f>
         <v>0</v>
       </c>
       <c r="L44">
+        <f>VALUE(1.9999999949504854e-05)</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f>VALUE(-0.00037999999995008693)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>VALUE(0.000739999999950669)</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
         <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
-      <c r="M44">
-        <f>VALUE(3.999999989900971e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f>VALUE(0.0003600000000005821)</f>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f>VALUE(-0.00026000000002568413)</f>
-        <v>0</v>
-      </c>
       <c r="P44" s="11">
-        <f>VALUE(0.0020000000000095497)</f>
+        <f>VALUE(-273.16999999999996)</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f>VALUE(0.13500000000021828)</f>
+        <f>VALUE(0.1950000000192631)</f>
         <v>0</v>
       </c>
     </row>
@@ -4609,67 +4465,67 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <f>VALUE(0.4996)</f>
+        <f>VALUE(0.255)</f>
         <v>0</v>
       </c>
       <c r="C45" s="7">
-        <f>VALUE(1553.74376)</f>
+        <f>VALUE(1553.7442800000001)</f>
         <v>0</v>
       </c>
       <c r="D45" s="7">
-        <f>VALUE(-10.475999999999999)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <f>VALUE(1556.30538)</f>
+        <f>VALUE(1556.30608)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>VALUE(-9.372)</f>
+        <f>VALUE(-9.442)</f>
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f>VALUE(1551.84254)</f>
+        <f>VALUE(1551.2599599999999)</f>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f>VALUE(-15.328)</f>
+        <f>VALUE(-15.352)</f>
         <v>0</v>
       </c>
       <c r="I45" s="10">
-        <f>VALUE(1550.59954)</f>
+        <f>VALUE(1550.6032)</f>
         <v>0</v>
       </c>
       <c r="J45" s="10">
-        <f>VALUE(-19.378)</f>
+        <f>VALUE(-19.406)</f>
         <v>0</v>
       </c>
       <c r="K45" s="11">
-        <f>VALUE(248.84599999999998)</f>
+        <f>VALUE(248.7545)</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>VALUE(0.0005600000001777516)</f>
+        <f>VALUE(1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(0.00014000000010128133)</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>VALUE(0.0011000000001786248)</f>
+        <f>VALUE(0.0006800000001021544)</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>VALUE(0.0008599999998750718)</f>
+        <f>VALUE(0.0014000000001033186)</f>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f>VALUE(0.002999999999985903)</f>
+        <f>VALUE(-273.16949999999997)</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>VALUE(0.7200000000580076)</f>
+        <f>VALUE(0.5600000000640648)</f>
         <v>0</v>
       </c>
     </row>
@@ -4678,67 +4534,67 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <f>VALUE(0.5171)</f>
+        <f>VALUE(0.27264)</f>
         <v>0</v>
       </c>
       <c r="C46" s="7">
-        <f>VALUE(1553.74356)</f>
+        <f>VALUE(1553.7436599999999)</f>
         <v>0</v>
       </c>
       <c r="D46" s="7">
-        <f>VALUE(-10.484000000000002)</f>
+        <f>VALUE(-10.5)</f>
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f>VALUE(1556.30528)</f>
+        <f>VALUE(1556.30542)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>VALUE(-9.41)</f>
+        <f>VALUE(-9.437999999999999)</f>
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <f>VALUE(1551.8414)</f>
+        <f>VALUE(1551.25966)</f>
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <f>VALUE(-15.364)</f>
+        <f>VALUE(-15.414000000000001)</f>
         <v>0</v>
       </c>
       <c r="I46" s="10">
-        <f>VALUE(1550.59882)</f>
+        <f>VALUE(1550.6020800000001)</f>
         <v>0</v>
       </c>
       <c r="J46" s="10">
-        <f>VALUE(-19.28)</f>
+        <f>VALUE(-19.404)</f>
         <v>0</v>
       </c>
       <c r="K46" s="11">
-        <f>VALUE(248.8465)</f>
+        <f>VALUE(248.752)</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(-0.0005999999998493877)</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>VALUE(0.00026000000002568413)</f>
+        <f>VALUE(-0.0005200000000513683)</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>VALUE(0.00013999999987390765)</f>
+        <f>VALUE(0.000279999999975189)</f>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f>VALUE(0.003500000000002501)</f>
+        <f>VALUE(-273.17199999999997)</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>VALUE(0.18000000000029104)</f>
+        <f>VALUE(-0.11499999999387)</f>
         <v>0</v>
       </c>
     </row>
@@ -4747,67 +4603,67 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <f>VALUE(0.53474)</f>
+        <f>VALUE(0.29014)</f>
         <v>0</v>
       </c>
       <c r="C47" s="7">
-        <f>VALUE(1553.74388)</f>
+        <f>VALUE(1553.74438)</f>
         <v>0</v>
       </c>
       <c r="D47" s="7">
-        <f>VALUE(-10.472000000000001)</f>
+        <f>VALUE(-10.517999999999999)</f>
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f>VALUE(1556.30528)</f>
+        <f>VALUE(1556.30586)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>VALUE(-9.42)</f>
+        <f>VALUE(-9.472000000000001)</f>
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <f>VALUE(1551.84158)</f>
+        <f>VALUE(1551.2596800000001)</f>
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <f>VALUE(-15.38)</f>
+        <f>VALUE(-15.288)</f>
         <v>0</v>
       </c>
       <c r="I47" s="10">
-        <f>VALUE(1550.5983800000001)</f>
+        <f>VALUE(1550.60254)</f>
         <v>0</v>
       </c>
       <c r="J47" s="10">
-        <f>VALUE(-19.34)</f>
+        <f>VALUE(-19.344)</f>
         <v>0</v>
       </c>
       <c r="K47" s="11">
-        <f>VALUE(248.8495)</f>
+        <f>VALUE(248.75400000000002)</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>VALUE(0.0006800000001021544)</f>
+        <f>VALUE(0.00012000000015177648)</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>VALUE(0.00026000000002568413)</f>
+        <f>VALUE(-8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>VALUE(0.00014000000010128133)</f>
+        <f>VALUE(0.0003999999998995918)</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>VALUE(-0.0003000000001520675)</f>
+        <f>VALUE(0.0007400000001780427)</f>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f>VALUE(0.006500000000016826)</f>
+        <f>VALUE(-273.16999999999996)</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f>VALUE(0.1950000000192631)</f>
+        <f>VALUE(0.29500000005100446)</f>
         <v>0</v>
       </c>
     </row>
@@ -4816,67 +4672,67 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <f>VALUE(0.5521)</f>
+        <f>VALUE(0.30764)</f>
         <v>0</v>
       </c>
       <c r="C48" s="7">
-        <f>VALUE(1553.7429)</f>
+        <f>VALUE(1553.74438)</f>
         <v>0</v>
       </c>
       <c r="D48" s="7">
-        <f>VALUE(-10.517999999999999)</f>
+        <f>VALUE(-10.475999999999999)</f>
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f>VALUE(1556.30536)</f>
+        <f>VALUE(1556.30548)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>VALUE(-9.422)</f>
+        <f>VALUE(-9.388)</f>
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <f>VALUE(1551.84122)</f>
+        <f>VALUE(1551.25894)</f>
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <f>VALUE(-15.442)</f>
+        <f>VALUE(-15.356)</f>
         <v>0</v>
       </c>
       <c r="I48" s="10">
-        <f>VALUE(1550.5982)</f>
+        <f>VALUE(1550.60276)</f>
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <f>VALUE(-19.316)</f>
+        <f>VALUE(-19.382)</f>
         <v>0</v>
       </c>
       <c r="K48" s="11">
-        <f>VALUE(248.855)</f>
+        <f>VALUE(248.75799999999998)</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>VALUE(-0.00029999999992469384)</f>
+        <f>VALUE(0.00012000000015177648)</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>VALUE(0.0003400000000510772)</f>
+        <f>VALUE(-0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>VALUE(-0.00021999999989930075)</f>
+        <f>VALUE(-0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>VALUE(-0.00048000000015235855)</f>
+        <f>VALUE(0.0009600000000773434)</f>
         <v>0</v>
       </c>
       <c r="P48" s="11">
-        <f>VALUE(0.012000000000000455)</f>
+        <f>VALUE(-273.166)</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f>VALUE(-0.16499999998131898)</f>
+        <f>VALUE(0.07000000005064066)</f>
         <v>0</v>
       </c>
     </row>
@@ -4885,67 +4741,67 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <f>VALUE(0.5696)</f>
+        <f>VALUE(0.36181)</f>
         <v>0</v>
       </c>
       <c r="C49" s="7">
-        <f>VALUE(1553.74406)</f>
+        <f>VALUE(1553.74394)</f>
         <v>0</v>
       </c>
       <c r="D49" s="7">
-        <f>VALUE(-10.47)</f>
+        <f>VALUE(-10.532)</f>
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f>VALUE(1556.3047199999999)</f>
+        <f>VALUE(1556.30538)</f>
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f>VALUE(-9.404)</f>
+        <f>VALUE(-9.414)</f>
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <f>VALUE(1551.8415400000001)</f>
+        <f>VALUE(1551.2594800000002)</f>
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <f>VALUE(-15.39)</f>
+        <f>VALUE(-15.374)</f>
         <v>0</v>
       </c>
       <c r="I49" s="10">
-        <f>VALUE(1550.5993)</f>
+        <f>VALUE(1550.6025)</f>
         <v>0</v>
       </c>
       <c r="J49" s="10">
-        <f>VALUE(-19.355999999999998)</f>
+        <f>VALUE(-19.366)</f>
         <v>0</v>
       </c>
       <c r="K49" s="11">
-        <f>VALUE(248.8605)</f>
+        <f>VALUE(248.7605)</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>VALUE(0.0008600000001024455)</f>
+        <f>VALUE(-0.0003199999998741987)</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>VALUE(-0.00029999999992469384)</f>
+        <f>VALUE(-0.000559999999950378)</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>VALUE(0.0006200000000262662)</f>
+        <f>VALUE(0.0007000000000516593)</f>
         <v>0</v>
       </c>
       <c r="P49" s="11">
-        <f>VALUE(0.017500000000012506)</f>
+        <f>VALUE(-273.1635)</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f>VALUE(0.32000000004472895)</f>
+        <f>VALUE(0.005000000044219632)</f>
         <v>0</v>
       </c>
     </row>
@@ -4954,67 +4810,67 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <f>VALUE(0.5871)</f>
+        <f>VALUE(0.36681)</f>
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <f>VALUE(1553.7433800000001)</f>
+        <f>VALUE(1553.7440199999999)</f>
         <v>0</v>
       </c>
       <c r="D50" s="7">
-        <f>VALUE(-10.46)</f>
+        <f>VALUE(-10.512)</f>
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f>VALUE(1556.30552)</f>
+        <f>VALUE(1556.30628)</f>
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f>VALUE(-9.392000000000001)</f>
+        <f>VALUE(-9.427999999999999)</f>
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <f>VALUE(1551.84214)</f>
+        <f>VALUE(1551.25908)</f>
         <v>0</v>
       </c>
       <c r="H50" s="9">
-        <f>VALUE(-15.335999999999999)</f>
+        <f>VALUE(-15.36)</f>
         <v>0</v>
       </c>
       <c r="I50" s="10">
-        <f>VALUE(1550.59856)</f>
+        <f>VALUE(1550.60124)</f>
         <v>0</v>
       </c>
       <c r="J50" s="10">
-        <f>VALUE(-19.36)</f>
+        <f>VALUE(-19.31)</f>
         <v>0</v>
       </c>
       <c r="K50" s="11">
-        <f>VALUE(248.8635)</f>
+        <f>VALUE(248.761)</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>VALUE(0.00018000000000029104)</f>
+        <f>VALUE(-0.0002399999998488056)</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>VALUE(0.0004999999998744897)</f>
+        <f>VALUE(0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>VALUE(0.0007000000000516593)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>VALUE(-0.00012000000015177648)</f>
+        <f>VALUE(-0.000559999999950378)</f>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f>VALUE(0.02049999999999841)</f>
+        <f>VALUE(-273.163)</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f>VALUE(0.3149999999436659)</f>
+        <f>VALUE(-0.16499999992447556)</f>
         <v>0</v>
       </c>
     </row>
@@ -5023,67 +4879,67 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <f>VALUE(0.60446)</f>
+        <f>VALUE(0.37195)</f>
         <v>0</v>
       </c>
       <c r="C51" s="7">
-        <f>VALUE(1553.74416)</f>
+        <f>VALUE(1553.74406)</f>
         <v>0</v>
       </c>
       <c r="D51" s="7">
-        <f>VALUE(-10.466)</f>
+        <f>VALUE(-10.544)</f>
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f>VALUE(1556.30476)</f>
+        <f>VALUE(1556.30532)</f>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f>VALUE(-9.41)</f>
+        <f>VALUE(-9.42)</f>
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <f>VALUE(1551.84172)</f>
+        <f>VALUE(1551.2596)</f>
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <f>VALUE(-15.35)</f>
+        <f>VALUE(-15.352)</f>
         <v>0</v>
       </c>
       <c r="I51" s="10">
-        <f>VALUE(1550.5996400000001)</f>
+        <f>VALUE(1550.6010199999998)</f>
         <v>0</v>
       </c>
       <c r="J51" s="10">
-        <f>VALUE(-19.35)</f>
+        <f>VALUE(-19.354)</f>
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f>VALUE(248.87099999999998)</f>
+        <f>VALUE(248.7615)</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>VALUE(0.0009600000000773434)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(-0.0006200000000262662)</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>VALUE(0.000279999999975189)</f>
+        <f>VALUE(0.00032000000010157237)</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>VALUE(0.0009599999998499698)</f>
+        <f>VALUE(-0.0007799999998496787)</f>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f>VALUE(0.027999999999991587)</f>
+        <f>VALUE(-273.16249999999997)</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f>VALUE(0.4849999999692045)</f>
+        <f>VALUE(-0.3199999999310421)</f>
         <v>0</v>
       </c>
     </row>
@@ -5092,67 +4948,67 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <f>VALUE(0.62196)</f>
+        <f>VALUE(0.37695)</f>
         <v>0</v>
       </c>
       <c r="C52" s="7">
-        <f>VALUE(1553.7441)</f>
+        <f>VALUE(1553.74414)</f>
         <v>0</v>
       </c>
       <c r="D52" s="7">
-        <f>VALUE(-10.512)</f>
+        <f>VALUE(-10.522)</f>
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f>VALUE(1556.30514)</f>
+        <f>VALUE(1556.30576)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f>VALUE(-9.404)</f>
+        <f>VALUE(-9.38)</f>
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <f>VALUE(1551.8418199999999)</f>
+        <f>VALUE(1551.2593)</f>
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <f>VALUE(-15.374)</f>
+        <f>VALUE(-15.4)</f>
         <v>0</v>
       </c>
       <c r="I52" s="10">
-        <f>VALUE(1550.5996)</f>
+        <f>VALUE(1550.60122)</f>
         <v>0</v>
       </c>
       <c r="J52" s="10">
-        <f>VALUE(-19.396)</f>
+        <f>VALUE(-19.322)</f>
         <v>0</v>
       </c>
       <c r="K52" s="11">
-        <f>VALUE(248.87099999999998)</f>
+        <f>VALUE(248.7615)</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>VALUE(0.0009000000000014552)</f>
+        <f>VALUE(-0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>VALUE(0.0001199999999244028)</f>
+        <f>VALUE(-0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>VALUE(0.0003800000001774606)</f>
+        <f>VALUE(1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>VALUE(0.00091999999995096)</f>
+        <f>VALUE(-0.0005799999998998828)</f>
         <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f>VALUE(0.027999999999991587)</f>
+        <f>VALUE(-273.16249999999997)</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>VALUE(0.5800000000135697)</f>
+        <f>VALUE(-0.21499999996876795)</f>
         <v>0</v>
       </c>
     </row>
@@ -5161,67 +5017,67 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <f>VALUE(0.63932)</f>
+        <f>VALUE(0.38195)</f>
         <v>0</v>
       </c>
       <c r="C53" s="7">
-        <f>VALUE(1553.74356)</f>
+        <f>VALUE(1553.74448)</f>
         <v>0</v>
       </c>
       <c r="D53" s="7">
-        <f>VALUE(-10.495999999999999)</f>
+        <f>VALUE(-10.466)</f>
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f>VALUE(1556.30424)</f>
+        <f>VALUE(1556.30608)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f>VALUE(-9.392000000000001)</f>
+        <f>VALUE(-9.47)</f>
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <f>VALUE(1551.84156)</f>
+        <f>VALUE(1551.2577800000001)</f>
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <f>VALUE(-15.425999999999998)</f>
+        <f>VALUE(-15.314)</f>
         <v>0</v>
       </c>
       <c r="I53" s="10">
-        <f>VALUE(1550.59762)</f>
+        <f>VALUE(1550.6019800000001)</f>
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <f>VALUE(-19.414)</f>
+        <f>VALUE(-19.336)</f>
         <v>0</v>
       </c>
       <c r="K53" s="11">
-        <f>VALUE(248.8675)</f>
+        <f>VALUE(248.762)</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(0.00022000000012667442)</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>VALUE(-0.0007800000000770524)</f>
+        <f>VALUE(0.00014000000010128133)</f>
         <v>0</v>
       </c>
       <c r="N53">
-        <f>VALUE(0.00012000000015177648)</f>
+        <f>VALUE(-0.0015000000000782165)</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>VALUE(-0.0010600000000522414)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="P53" s="11">
-        <f>VALUE(0.024500000000017508)</f>
+        <f>VALUE(-273.162)</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f>VALUE(-0.3399999999942338)</f>
+        <f>VALUE(-0.23999999996249244)</f>
         <v>0</v>
       </c>
     </row>
@@ -5230,67 +5086,67 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <f>VALUE(0.65696)</f>
+        <f>VALUE(0.38695)</f>
         <v>0</v>
       </c>
       <c r="C54" s="7">
-        <f>VALUE(1553.74378)</f>
+        <f>VALUE(1553.7441800000001)</f>
         <v>0</v>
       </c>
       <c r="D54" s="7">
-        <f>VALUE(-10.492)</f>
+        <f>VALUE(-10.53)</f>
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <f>VALUE(1556.3038199999999)</f>
+        <f>VALUE(1556.30606)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f>VALUE(-9.392000000000001)</f>
+        <f>VALUE(-9.446)</f>
         <v>0</v>
       </c>
       <c r="G54" s="9">
-        <f>VALUE(1551.8415400000001)</f>
+        <f>VALUE(1551.2583)</f>
         <v>0</v>
       </c>
       <c r="H54" s="9">
-        <f>VALUE(-15.398)</f>
+        <f>VALUE(-15.382)</f>
         <v>0</v>
       </c>
       <c r="I54" s="10">
-        <f>VALUE(1550.59878)</f>
+        <f>VALUE(1550.60214)</f>
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <f>VALUE(-19.368)</f>
+        <f>VALUE(-19.292)</f>
         <v>0</v>
       </c>
       <c r="K54" s="11">
-        <f>VALUE(248.864)</f>
+        <f>VALUE(248.7625)</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>VALUE(0.0005800000001272565)</f>
+        <f>VALUE(-8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f>VALUE(-0.001199999999926149)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(-0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f>VALUE(0.021000000000015007)</f>
+        <f>VALUE(-273.1615)</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f>VALUE(-0.10499999996227416)</f>
+        <f>VALUE(-0.15000000001919034)</f>
         <v>0</v>
       </c>
     </row>
@@ -5299,67 +5155,67 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <f>VALUE(0.67432)</f>
+        <f>VALUE(0.39209)</f>
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <f>VALUE(1553.7434)</f>
+        <f>VALUE(1553.7445)</f>
         <v>0</v>
       </c>
       <c r="D55" s="7">
-        <f>VALUE(-10.52)</f>
+        <f>VALUE(-10.478)</f>
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <f>VALUE(1556.30486)</f>
+        <f>VALUE(1556.30632)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f>VALUE(-9.454)</f>
+        <f>VALUE(-9.468)</f>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <f>VALUE(1551.8405599999999)</f>
+        <f>VALUE(1551.25928)</f>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f>VALUE(-15.415999999999999)</f>
+        <f>VALUE(-15.382)</f>
         <v>0</v>
       </c>
       <c r="I55" s="10">
-        <f>VALUE(1550.59794)</f>
+        <f>VALUE(1550.6023)</f>
         <v>0</v>
       </c>
       <c r="J55" s="10">
-        <f>VALUE(-19.38)</f>
+        <f>VALUE(-19.3)</f>
         <v>0</v>
       </c>
       <c r="K55" s="11">
-        <f>VALUE(248.859)</f>
+        <f>VALUE(248.762)</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>VALUE(0.00020000000017716957)</f>
+        <f>VALUE(0.00024000000007617928)</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f>VALUE(-0.00016000000005078618)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="N55">
-        <f>VALUE(-0.0008799999998245767)</f>
+        <f>VALUE(0.0)</f>
         <v>0</v>
       </c>
       <c r="O55">
-        <f>VALUE(-0.000739999999950669)</f>
+        <f>VALUE(0.0005000000001018634)</f>
         <v>0</v>
       </c>
       <c r="P55" s="11">
-        <f>VALUE(0.016000000000019554)</f>
+        <f>VALUE(-273.162)</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f>VALUE(-0.39499999991221557)</f>
+        <f>VALUE(0.2800000000320324)</f>
         <v>0</v>
       </c>
     </row>
@@ -5368,67 +5224,67 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <f>VALUE(0.69182)</f>
+        <f>VALUE(0.39695)</f>
         <v>0</v>
       </c>
       <c r="C56" s="7">
-        <f>VALUE(1553.74358)</f>
+        <f>VALUE(1553.7440800000002)</f>
         <v>0</v>
       </c>
       <c r="D56" s="7">
-        <f>VALUE(-10.52)</f>
+        <f>VALUE(-10.508)</f>
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <f>VALUE(1556.30496)</f>
+        <f>VALUE(1556.3063)</f>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f>VALUE(-9.38)</f>
+        <f>VALUE(-9.406)</f>
         <v>0</v>
       </c>
       <c r="G56" s="9">
-        <f>VALUE(1551.8411199999998)</f>
+        <f>VALUE(1551.25976)</f>
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <f>VALUE(-15.427999999999999)</f>
+        <f>VALUE(-15.318)</f>
         <v>0</v>
       </c>
       <c r="I56" s="10">
-        <f>VALUE(1550.5984)</f>
+        <f>VALUE(1550.60268)</f>
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <f>VALUE(-19.358)</f>
+        <f>VALUE(-19.206)</f>
         <v>0</v>
       </c>
       <c r="K56" s="11">
-        <f>VALUE(248.8575)</f>
+        <f>VALUE(248.763)</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f>VALUE(0.0003800000001774606)</f>
+        <f>VALUE(-0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>VALUE(-6.000000007588824e-05)</f>
+        <f>VALUE(0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>VALUE(-0.0003199999998741987)</f>
+        <f>VALUE(0.0004799999999249849)</f>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>VALUE(-0.000279999999975189)</f>
+        <f>VALUE(0.0008800000000519503)</f>
         <v>0</v>
       </c>
       <c r="P56" s="11">
-        <f>VALUE(0.014499999999998181)</f>
+        <f>VALUE(-273.16099999999994)</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f>VALUE(-0.06999999993695383)</f>
+        <f>VALUE(0.38499999999430656)</f>
         <v>0</v>
       </c>
     </row>
@@ -5437,67 +5293,67 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <f>VALUE(0.70919)</f>
+        <f>VALUE(0.40181)</f>
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <f>VALUE(1553.74382)</f>
+        <f>VALUE(1553.74506)</f>
         <v>0</v>
       </c>
       <c r="D57" s="7">
-        <f>VALUE(-10.488)</f>
+        <f>VALUE(-10.484000000000002)</f>
         <v>0</v>
       </c>
       <c r="E57" s="8">
-        <f>VALUE(1556.30422)</f>
+        <f>VALUE(1556.30574)</f>
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <f>VALUE(-9.396)</f>
+        <f>VALUE(-9.376)</f>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f>VALUE(1551.84222)</f>
+        <f>VALUE(1551.25976)</f>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f>VALUE(-15.404000000000002)</f>
+        <f>VALUE(-15.356)</f>
         <v>0</v>
       </c>
       <c r="I57" s="10">
-        <f>VALUE(1550.5987)</f>
+        <f>VALUE(1550.60202)</f>
         <v>0</v>
       </c>
       <c r="J57" s="10">
-        <f>VALUE(-19.355999999999998)</f>
+        <f>VALUE(-19.285999999999998)</f>
         <v>0</v>
       </c>
       <c r="K57" s="11">
-        <f>VALUE(248.8585)</f>
+        <f>VALUE(248.7635)</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>VALUE(0.0006200000000262662)</f>
+        <f>VALUE(0.0008000000000265572)</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>VALUE(-0.0008000000000265572)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>VALUE(0.0007800000000770524)</f>
+        <f>VALUE(0.0004799999999249849)</f>
         <v>0</v>
       </c>
       <c r="O57">
-        <f>VALUE(1.9999999949504854e-05)</f>
+        <f>VALUE(0.00022000000012667442)</f>
         <v>0</v>
       </c>
       <c r="P57" s="11">
-        <f>VALUE(0.015500000000002956)</f>
+        <f>VALUE(-273.16049999999996)</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f>VALUE(0.15500000000656655)</f>
+        <f>VALUE(0.32500000003210516)</f>
         <v>0</v>
       </c>
     </row>
@@ -5506,67 +5362,67 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <f>VALUE(0.72655)</f>
+        <f>VALUE(0.40681)</f>
         <v>0</v>
       </c>
       <c r="C58" s="7">
-        <f>VALUE(1553.74372)</f>
+        <f>VALUE(1553.74524)</f>
         <v>0</v>
       </c>
       <c r="D58" s="7">
-        <f>VALUE(-10.492)</f>
+        <f>VALUE(-10.478)</f>
         <v>0</v>
       </c>
       <c r="E58" s="8">
-        <f>VALUE(1556.3048199999998)</f>
+        <f>VALUE(1556.30558)</f>
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <f>VALUE(-9.402000000000001)</f>
+        <f>VALUE(-9.394)</f>
         <v>0</v>
       </c>
       <c r="G58" s="9">
-        <f>VALUE(1551.84178)</f>
+        <f>VALUE(1551.25918)</f>
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <f>VALUE(-15.412)</f>
+        <f>VALUE(-15.354000000000001)</f>
         <v>0</v>
       </c>
       <c r="I58" s="10">
-        <f>VALUE(1550.59894)</f>
+        <f>VALUE(1550.60164)</f>
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <f>VALUE(-19.41)</f>
+        <f>VALUE(-19.305999999999997)</f>
         <v>0</v>
       </c>
       <c r="K58" s="11">
-        <f>VALUE(248.861)</f>
+        <f>VALUE(248.765)</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>VALUE(0.0005200000000513683)</f>
+        <f>VALUE(0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(-0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>VALUE(0.0003400000000510772)</f>
+        <f>VALUE(-9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="O58">
-        <f>VALUE(0.00026000000002568413)</f>
+        <f>VALUE(-0.0001599999998234125)</f>
         <v>0</v>
       </c>
       <c r="P58" s="11">
-        <f>VALUE(0.018000000000000682)</f>
+        <f>VALUE(-273.159)</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f>VALUE(0.23000000004458343)</f>
+        <f>VALUE(0.09000000005698894)</f>
         <v>0</v>
       </c>
     </row>
@@ -5575,19 +5431,19 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <f>VALUE(0.74391)</f>
+        <f>VALUE(0.41167)</f>
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <f>VALUE(1553.7436400000001)</f>
+        <f>VALUE(1553.7449199999999)</f>
         <v>0</v>
       </c>
       <c r="D59" s="7">
-        <f>VALUE(-10.464)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <f>VALUE(1556.30466)</f>
+        <f>VALUE(1556.30648)</f>
         <v>0</v>
       </c>
       <c r="F59" s="8">
@@ -5595,47 +5451,47 @@
         <v>0</v>
       </c>
       <c r="G59" s="9">
-        <f>VALUE(1551.8414)</f>
+        <f>VALUE(1551.25908)</f>
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <f>VALUE(-15.412)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I59" s="10">
-        <f>VALUE(1550.5990199999999)</f>
+        <f>VALUE(1550.60202)</f>
         <v>0</v>
       </c>
       <c r="J59" s="10">
-        <f>VALUE(-19.452)</f>
+        <f>VALUE(-19.262)</f>
         <v>0</v>
       </c>
       <c r="K59" s="11">
-        <f>VALUE(248.865)</f>
+        <f>VALUE(248.766)</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f>VALUE(0.00044000000002597517)</f>
+        <f>VALUE(0.0006600000001526496)</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.0005400000000008731)</f>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(-0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="O59">
-        <f>VALUE(0.0003400000000510772)</f>
+        <f>VALUE(0.00022000000012667442)</f>
         <v>0</v>
       </c>
       <c r="P59" s="11">
-        <f>VALUE(0.02200000000001978)</f>
+        <f>VALUE(-273.158)</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f>VALUE(0.09500000004436515)</f>
+        <f>VALUE(0.3050000000826003)</f>
         <v>0</v>
       </c>
     </row>
@@ -5644,67 +5500,67 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <f>VALUE(0.76141)</f>
+        <f>VALUE(0.41654)</f>
         <v>0</v>
       </c>
       <c r="C60" s="7">
-        <f>VALUE(1553.74344)</f>
+        <f>VALUE(1553.74472)</f>
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <f>VALUE(-10.468)</f>
+        <f>VALUE(-10.488)</f>
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <f>VALUE(1556.30412)</f>
+        <f>VALUE(1556.3056)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <f>VALUE(-9.378)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G60" s="9">
-        <f>VALUE(1551.8414400000001)</f>
+        <f>VALUE(1551.25966)</f>
         <v>0</v>
       </c>
       <c r="H60" s="9">
-        <f>VALUE(-15.386)</f>
+        <f>VALUE(-15.325999999999999)</f>
         <v>0</v>
       </c>
       <c r="I60" s="10">
-        <f>VALUE(1550.59904)</f>
+        <f>VALUE(1550.6019)</f>
         <v>0</v>
       </c>
       <c r="J60" s="10">
-        <f>VALUE(-19.434)</f>
+        <f>VALUE(-19.322)</f>
         <v>0</v>
       </c>
       <c r="K60" s="11">
-        <f>VALUE(248.865)</f>
+        <f>VALUE(248.767)</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>VALUE(0.00024000000007617928)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>VALUE(-0.0009000000000014552)</f>
+        <f>VALUE(-0.0003400000000510772)</f>
         <v>0</v>
       </c>
       <c r="N60">
-        <f>VALUE(0.0)</f>
+        <f>VALUE(0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="O60">
-        <f>VALUE(0.0003600000000005821)</f>
+        <f>VALUE(9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f>VALUE(0.02200000000001978)</f>
+        <f>VALUE(-273.157)</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>VALUE(-0.07499999998117346)</f>
+        <f>VALUE(0.14999999996234692)</f>
         <v>0</v>
       </c>
     </row>
@@ -5713,67 +5569,67 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <f>VALUE(0.77877)</f>
+        <f>VALUE(0.4214)</f>
         <v>0</v>
       </c>
       <c r="C61" s="7">
-        <f>VALUE(1553.74304)</f>
+        <f>VALUE(1553.7454599999999)</f>
         <v>0</v>
       </c>
       <c r="D61" s="7">
-        <f>VALUE(-10.464)</f>
+        <f>VALUE(-10.53)</f>
         <v>0</v>
       </c>
       <c r="E61" s="8">
-        <f>VALUE(1556.3043400000001)</f>
+        <f>VALUE(1556.3051)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <f>VALUE(-9.332)</f>
+        <f>VALUE(-9.404)</f>
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <f>VALUE(1551.84096)</f>
+        <f>VALUE(1551.2595)</f>
         <v>0</v>
       </c>
       <c r="H61" s="9">
-        <f>VALUE(-15.432)</f>
+        <f>VALUE(-15.354000000000001)</f>
         <v>0</v>
       </c>
       <c r="I61" s="10">
-        <f>VALUE(1550.5984)</f>
+        <f>VALUE(1550.60194)</f>
         <v>0</v>
       </c>
       <c r="J61" s="10">
-        <f>VALUE(-19.362000000000002)</f>
+        <f>VALUE(-19.284000000000002)</f>
         <v>0</v>
       </c>
       <c r="K61" s="11">
-        <f>VALUE(248.86)</f>
+        <f>VALUE(248.7675)</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f>VALUE(-0.0001599999998234125)</f>
+        <f>VALUE(0.0012000000001535227)</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>VALUE(-0.0006800000001021544)</f>
+        <f>VALUE(-0.000839999999925567)</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>VALUE(-0.0004799999999249849)</f>
+        <f>VALUE(0.00021999999989930075)</f>
         <v>0</v>
       </c>
       <c r="O61">
-        <f>VALUE(-0.000279999999975189)</f>
+        <f>VALUE(0.00014000000010128133)</f>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f>VALUE(0.01700000000002433)</f>
+        <f>VALUE(-273.15649999999994)</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f>VALUE(-0.3999999999564352)</f>
+        <f>VALUE(0.18000000005713446)</f>
         <v>0</v>
       </c>
     </row>
@@ -5782,67 +5638,67 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <f>VALUE(0.79614)</f>
+        <f>VALUE(0.42626)</f>
         <v>0</v>
       </c>
       <c r="C62" s="7">
-        <f>VALUE(1553.74278)</f>
+        <f>VALUE(1553.74532)</f>
         <v>0</v>
       </c>
       <c r="D62" s="7">
-        <f>VALUE(-10.456)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E62" s="8">
-        <f>VALUE(1556.30456)</f>
+        <f>VALUE(1556.30546)</f>
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <f>VALUE(-9.384)</f>
+        <f>VALUE(-9.458)</f>
         <v>0</v>
       </c>
       <c r="G62" s="9">
-        <f>VALUE(1551.84134)</f>
+        <f>VALUE(1551.2594)</f>
         <v>0</v>
       </c>
       <c r="H62" s="9">
-        <f>VALUE(-15.436)</f>
+        <f>VALUE(-15.398)</f>
         <v>0</v>
       </c>
       <c r="I62" s="10">
-        <f>VALUE(1550.59808)</f>
+        <f>VALUE(1550.60216)</f>
         <v>0</v>
       </c>
       <c r="J62" s="10">
-        <f>VALUE(-19.422)</f>
+        <f>VALUE(-19.294)</f>
         <v>0</v>
       </c>
       <c r="K62" s="11">
-        <f>VALUE(248.84799999999998)</f>
+        <f>VALUE(248.77)</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>VALUE(-0.00041999999984909664)</f>
+        <f>VALUE(0.0010600000000522414)</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(-0.0004799999999249849)</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(0.0001199999999244028)</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f>VALUE(-0.0006000000000767614)</f>
+        <f>VALUE(0.0003600000000005821)</f>
         <v>0</v>
       </c>
       <c r="P62" s="11">
-        <f>VALUE(0.0049999999999954525)</f>
+        <f>VALUE(-273.154)</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f>VALUE(-0.394999999969059)</f>
+        <f>VALUE(0.26500000001306034)</f>
         <v>0</v>
       </c>
     </row>
@@ -5851,67 +5707,67 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <f>VALUE(0.8135)</f>
+        <f>VALUE(0.43113)</f>
         <v>0</v>
       </c>
       <c r="C63" s="7">
-        <f>VALUE(1553.7428)</f>
+        <f>VALUE(1553.74494)</f>
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <f>VALUE(-10.495999999999999)</f>
+        <f>VALUE(-10.478)</f>
         <v>0</v>
       </c>
       <c r="E63" s="8">
-        <f>VALUE(1556.30438)</f>
+        <f>VALUE(1556.3052)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <f>VALUE(-9.396)</f>
+        <f>VALUE(-9.412)</f>
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <f>VALUE(1551.8410199999998)</f>
+        <f>VALUE(1551.25822)</f>
         <v>0</v>
       </c>
       <c r="H63" s="9">
-        <f>VALUE(-15.45)</f>
+        <f>VALUE(-15.37)</f>
         <v>0</v>
       </c>
       <c r="I63" s="10">
-        <f>VALUE(1550.5987400000001)</f>
+        <f>VALUE(1550.6018800000002)</f>
         <v>0</v>
       </c>
       <c r="J63" s="10">
-        <f>VALUE(-19.424)</f>
+        <f>VALUE(-19.27)</f>
         <v>0</v>
       </c>
       <c r="K63" s="11">
-        <f>VALUE(248.833)</f>
+        <f>VALUE(248.773)</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>VALUE(-0.0003999999998995918)</f>
+        <f>VALUE(0.0006800000001021544)</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f>VALUE(-0.0006399999999757711)</f>
+        <f>VALUE(-0.000739999999950669)</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>VALUE(-0.00041999999984909664)</f>
+        <f>VALUE(-0.0010600000000522414)</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f>VALUE(5.999999984851456e-05)</f>
+        <f>VALUE(8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="P63" s="11">
-        <f>VALUE(-0.009999999999990905)</f>
+        <f>VALUE(-273.15099999999995)</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f>VALUE(-0.34999999996898623)</f>
+        <f>VALUE(-0.2599999999688407)</f>
         <v>0</v>
       </c>
     </row>
@@ -5920,67 +5776,67 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <f>VALUE(0.83085)</f>
+        <f>VALUE(0.43612)</f>
         <v>0</v>
       </c>
       <c r="C64" s="7">
-        <f>VALUE(1553.74272)</f>
+        <f>VALUE(1553.74488)</f>
         <v>0</v>
       </c>
       <c r="D64" s="7">
-        <f>VALUE(-10.526)</f>
+        <f>VALUE(-10.464)</f>
         <v>0</v>
       </c>
       <c r="E64" s="8">
-        <f>VALUE(1556.30358)</f>
+        <f>VALUE(1556.30674)</f>
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <f>VALUE(-9.42)</f>
+        <f>VALUE(-9.414)</f>
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <f>VALUE(1551.84114)</f>
+        <f>VALUE(1551.25874)</f>
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <f>VALUE(-15.408)</f>
+        <f>VALUE(-15.414000000000001)</f>
         <v>0</v>
       </c>
       <c r="I64" s="10">
-        <f>VALUE(1550.5982199999999)</f>
+        <f>VALUE(1550.6027)</f>
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <f>VALUE(-19.442)</f>
+        <f>VALUE(-19.326)</f>
         <v>0</v>
       </c>
       <c r="K64" s="11">
-        <f>VALUE(248.8255)</f>
+        <f>VALUE(248.7725)</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>VALUE(-0.0004799999999249849)</f>
+        <f>VALUE(0.0006200000000262662)</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f>VALUE(-0.0014400000000023283)</f>
+        <f>VALUE(0.0008000000000265572)</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>VALUE(-0.00029999999992469384)</f>
+        <f>VALUE(-0.0005400000000008731)</f>
         <v>0</v>
       </c>
       <c r="O64">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(0.0009000000000014552)</f>
         <v>0</v>
       </c>
       <c r="P64" s="11">
-        <f>VALUE(-0.017499999999984084)</f>
+        <f>VALUE(-273.15149999999994)</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f>VALUE(-0.6699999999568718)</f>
+        <f>VALUE(0.4450000000133514)</f>
         <v>0</v>
       </c>
     </row>
@@ -5989,67 +5845,67 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <f>VALUE(0.84822)</f>
+        <f>VALUE(0.44098)</f>
         <v>0</v>
       </c>
       <c r="C65" s="7">
-        <f>VALUE(1553.74278)</f>
+        <f>VALUE(1553.74466)</f>
         <v>0</v>
       </c>
       <c r="D65" s="7">
-        <f>VALUE(-10.462)</f>
+        <f>VALUE(-10.452)</f>
         <v>0</v>
       </c>
       <c r="E65" s="8">
-        <f>VALUE(1556.30504)</f>
+        <f>VALUE(1556.30612)</f>
         <v>0</v>
       </c>
       <c r="F65" s="8">
-        <f>VALUE(-9.412)</f>
+        <f>VALUE(-9.388)</f>
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <f>VALUE(1551.84238)</f>
+        <f>VALUE(1551.2579)</f>
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <f>VALUE(-15.454)</f>
+        <f>VALUE(-15.334000000000001)</f>
         <v>0</v>
       </c>
       <c r="I65" s="10">
-        <f>VALUE(1550.59896)</f>
+        <f>VALUE(1550.60172)</f>
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <f>VALUE(-19.39)</f>
+        <f>VALUE(-19.276)</f>
         <v>0</v>
       </c>
       <c r="K65" s="11">
-        <f>VALUE(248.81900000000002)</f>
+        <f>VALUE(248.7745)</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>VALUE(-0.00041999999984909664)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>VALUE(1.9999999949504854e-05)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>VALUE(0.0009400000001278386)</f>
+        <f>VALUE(-0.00137999999992644)</f>
         <v>0</v>
       </c>
       <c r="O65">
-        <f>VALUE(0.000279999999975189)</f>
+        <f>VALUE(-8.000000002539309e-05)</f>
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <f>VALUE(-0.023999999999972488)</f>
+        <f>VALUE(-273.1495)</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f>VALUE(0.20500000005085894)</f>
+        <f>VALUE(-0.21999999995614417)</f>
         <v>0</v>
       </c>
     </row>
@@ -6058,67 +5914,67 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <f>VALUE(0.86551)</f>
+        <f>VALUE(0.44584)</f>
         <v>0</v>
       </c>
       <c r="C66" s="7">
-        <f>VALUE(1553.74296)</f>
+        <f>VALUE(1553.74472)</f>
         <v>0</v>
       </c>
       <c r="D66" s="7">
-        <f>VALUE(-10.505999999999998)</f>
+        <f>VALUE(-10.514000000000001)</f>
         <v>0</v>
       </c>
       <c r="E66" s="8">
-        <f>VALUE(1556.30416)</f>
+        <f>VALUE(1556.3065199999999)</f>
         <v>0</v>
       </c>
       <c r="F66" s="8">
-        <f>VALUE(-9.402000000000001)</f>
+        <f>VALUE(-9.416)</f>
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <f>VALUE(1551.84156)</f>
+        <f>VALUE(1551.25854)</f>
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <f>VALUE(-15.434000000000001)</f>
+        <f>VALUE(-15.354000000000001)</f>
         <v>0</v>
       </c>
       <c r="I66" s="10">
-        <f>VALUE(1550.59862)</f>
+        <f>VALUE(1550.60206)</f>
         <v>0</v>
       </c>
       <c r="J66" s="10">
-        <f>VALUE(-19.465999999999998)</f>
+        <f>VALUE(-19.264)</f>
         <v>0</v>
       </c>
       <c r="K66" s="11">
-        <f>VALUE(248.8145)</f>
+        <f>VALUE(248.7745)</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>VALUE(-0.0002399999998488056)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>VALUE(-0.0008600000001024455)</f>
+        <f>VALUE(0.0005800000001272565)</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>VALUE(0.00012000000015177648)</f>
+        <f>VALUE(-0.000739999999950669)</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f>VALUE(-6.000000007588824e-05)</f>
+        <f>VALUE(0.00026000000002568413)</f>
         <v>0</v>
       </c>
       <c r="P66" s="11">
-        <f>VALUE(-0.028499999999979764)</f>
+        <f>VALUE(-273.1495)</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f>VALUE(-0.2599999999688407)</f>
+        <f>VALUE(0.1400000000444379)</f>
         <v>0</v>
       </c>
     </row>
@@ -6127,67 +5983,67 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <f>VALUE(0.88294)</f>
+        <f>VALUE(0.4507)</f>
         <v>0</v>
       </c>
       <c r="C67" s="7">
-        <f>VALUE(1553.7428400000001)</f>
+        <f>VALUE(1553.74446)</f>
         <v>0</v>
       </c>
       <c r="D67" s="7">
-        <f>VALUE(-10.458)</f>
+        <f>VALUE(-10.474)</f>
         <v>0</v>
       </c>
       <c r="E67" s="8">
-        <f>VALUE(1556.30408)</f>
+        <f>VALUE(1556.30612)</f>
         <v>0</v>
       </c>
       <c r="F67" s="8">
-        <f>VALUE(-9.398)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G67" s="9">
-        <f>VALUE(1551.8415400000001)</f>
+        <f>VALUE(1551.25926)</f>
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <f>VALUE(-15.432)</f>
+        <f>VALUE(-15.402000000000001)</f>
         <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f>VALUE(1550.5988)</f>
+        <f>VALUE(1550.60128)</f>
         <v>0</v>
       </c>
       <c r="J67" s="10">
-        <f>VALUE(-19.438)</f>
+        <f>VALUE(-19.302)</f>
         <v>0</v>
       </c>
       <c r="K67" s="11">
-        <f>VALUE(248.817)</f>
+        <f>VALUE(248.775)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.0001999999999497959)</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f>VALUE(-0.0009399999999004649)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>VALUE(9.999999997489795e-05)</f>
+        <f>VALUE(-1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f>VALUE(0.0001199999999244028)</f>
+        <f>VALUE(-0.0005199999998239946)</f>
         <v>0</v>
       </c>
       <c r="P67" s="11">
-        <f>VALUE(-0.025999999999982037)</f>
+        <f>VALUE(-273.149)</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>VALUE(-0.27000000000043656)</f>
+        <f>VALUE(-0.03999999995585313)</f>
         <v>0</v>
       </c>
     </row>
@@ -6196,67 +6052,67 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <f>VALUE(0.9003)</f>
+        <f>VALUE(0.45556)</f>
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <f>VALUE(1553.7434)</f>
+        <f>VALUE(1553.74442)</f>
         <v>0</v>
       </c>
       <c r="D68" s="7">
-        <f>VALUE(-10.482000000000001)</f>
+        <f>VALUE(-10.456)</f>
         <v>0</v>
       </c>
       <c r="E68" s="8">
-        <f>VALUE(1556.30514)</f>
+        <f>VALUE(1556.30584)</f>
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <f>VALUE(-9.363999999999999)</f>
+        <f>VALUE(-9.424)</f>
         <v>0</v>
       </c>
       <c r="G68" s="9">
-        <f>VALUE(1551.84186)</f>
+        <f>VALUE(1551.25984)</f>
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <f>VALUE(-15.43)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f>VALUE(1550.59892)</f>
+        <f>VALUE(1550.60174)</f>
         <v>0</v>
       </c>
       <c r="J68" s="10">
-        <f>VALUE(-19.396)</f>
+        <f>VALUE(-19.284000000000002)</f>
         <v>0</v>
       </c>
       <c r="K68" s="11">
-        <f>VALUE(248.8245)</f>
+        <f>VALUE(248.7755)</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>VALUE(0.00020000000017716957)</f>
+        <f>VALUE(0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f>VALUE(0.0001199999999244028)</f>
+        <f>VALUE(-9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>VALUE(0.0004200000000764703)</f>
+        <f>VALUE(0.000559999999950378)</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f>VALUE(0.0002399999998488056)</f>
+        <f>VALUE(-5.999999984851456e-05)</f>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f>VALUE(-0.01849999999998886)</f>
+        <f>VALUE(-273.1485)</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f>VALUE(0.24500000000671207)</f>
+        <f>VALUE(0.1400000000444379)</f>
         <v>0</v>
       </c>
     </row>
@@ -6265,67 +6121,67 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <f>VALUE(0.91766)</f>
+        <f>VALUE(0.46043)</f>
         <v>0</v>
       </c>
       <c r="C69" s="7">
-        <f>VALUE(1553.74306)</f>
+        <f>VALUE(1553.74378)</f>
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <f>VALUE(-10.485999999999999)</f>
+        <f>VALUE(-10.515999999999998)</f>
         <v>0</v>
       </c>
       <c r="E69" s="8">
-        <f>VALUE(1556.30464)</f>
+        <f>VALUE(1556.30548)</f>
         <v>0</v>
       </c>
       <c r="F69" s="8">
-        <f>VALUE(-9.382)</f>
+        <f>VALUE(-9.42)</f>
         <v>0</v>
       </c>
       <c r="G69" s="9">
-        <f>VALUE(1551.84128)</f>
+        <f>VALUE(1551.2585800000002)</f>
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <f>VALUE(-15.475999999999999)</f>
+        <f>VALUE(-15.347999999999999)</f>
         <v>0</v>
       </c>
       <c r="I69" s="10">
-        <f>VALUE(1550.59844)</f>
+        <f>VALUE(1550.6015)</f>
         <v>0</v>
       </c>
       <c r="J69" s="10">
-        <f>VALUE(-19.38)</f>
+        <f>VALUE(-19.288)</f>
         <v>0</v>
       </c>
       <c r="K69" s="11">
-        <f>VALUE(248.829)</f>
+        <f>VALUE(248.7745)</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>VALUE(-0.00013999999987390765)</f>
+        <f>VALUE(-0.0004799999999249849)</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(-0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>VALUE(-0.0001599999998234125)</f>
+        <f>VALUE(-0.0007000000000516593)</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(-0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="P69" s="11">
-        <f>VALUE(-0.013999999999981583)</f>
+        <f>VALUE(-273.1495)</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f>VALUE(-0.2299999999308966)</f>
+        <f>VALUE(-0.4849999999692045)</f>
         <v>0</v>
       </c>
     </row>
@@ -6334,67 +6190,67 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <f>VALUE(0.93503)</f>
+        <f>VALUE(0.47779)</f>
         <v>0</v>
       </c>
       <c r="C70" s="7">
-        <f>VALUE(1553.74342)</f>
+        <f>VALUE(1553.7449800000002)</f>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f>VALUE(-10.46)</f>
+        <f>VALUE(-10.5)</f>
         <v>0</v>
       </c>
       <c r="E70" s="8">
-        <f>VALUE(1556.30496)</f>
+        <f>VALUE(1556.30612)</f>
         <v>0</v>
       </c>
       <c r="F70" s="8">
-        <f>VALUE(-9.42)</f>
+        <f>VALUE(-9.436)</f>
         <v>0</v>
       </c>
       <c r="G70" s="9">
-        <f>VALUE(1551.84096)</f>
+        <f>VALUE(1551.26024)</f>
         <v>0</v>
       </c>
       <c r="H70" s="9">
-        <f>VALUE(-15.464)</f>
+        <f>VALUE(-15.376)</f>
         <v>0</v>
       </c>
       <c r="I70" s="10">
-        <f>VALUE(1550.5983)</f>
+        <f>VALUE(1550.6029999999998)</f>
         <v>0</v>
       </c>
       <c r="J70" s="10">
-        <f>VALUE(-19.436)</f>
+        <f>VALUE(-19.298)</f>
         <v>0</v>
       </c>
       <c r="K70" s="11">
-        <f>VALUE(248.8285)</f>
+        <f>VALUE(248.7785)</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>VALUE(0.00022000000012667442)</f>
+        <f>VALUE(0.0007200000000011642)</f>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>VALUE(-6.000000007588824e-05)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>VALUE(-0.0004799999999249849)</f>
+        <f>VALUE(0.0009600000000773434)</f>
         <v>0</v>
       </c>
       <c r="O70">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(0.0012000000001535227)</f>
         <v>0</v>
       </c>
       <c r="P70" s="11">
-        <f>VALUE(-0.014499999999998181)</f>
+        <f>VALUE(-273.14549999999997)</f>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>VALUE(-0.1749999999560714)</f>
+        <f>VALUE(0.7650000000580803)</f>
         <v>0</v>
       </c>
     </row>
@@ -6403,67 +6259,67 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <f>VALUE(0.95239)</f>
+        <f>VALUE(0.49515)</f>
         <v>0</v>
       </c>
       <c r="C71" s="7">
-        <f>VALUE(1553.7428400000001)</f>
+        <f>VALUE(1553.74432)</f>
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <f>VALUE(-10.49)</f>
+        <f>VALUE(-10.534)</f>
         <v>0</v>
       </c>
       <c r="E71" s="8">
-        <f>VALUE(1556.30456)</f>
+        <f>VALUE(1556.30528)</f>
         <v>0</v>
       </c>
       <c r="F71" s="8">
-        <f>VALUE(-9.376)</f>
+        <f>VALUE(-9.404)</f>
         <v>0</v>
       </c>
       <c r="G71" s="9">
-        <f>VALUE(1551.84086)</f>
+        <f>VALUE(1551.26074)</f>
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <f>VALUE(-15.47)</f>
+        <f>VALUE(-15.332)</f>
         <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f>VALUE(1550.59758)</f>
+        <f>VALUE(1550.6021)</f>
         <v>0</v>
       </c>
       <c r="J71" s="10">
-        <f>VALUE(-19.47)</f>
+        <f>VALUE(-19.317999999999998)</f>
         <v>0</v>
       </c>
       <c r="K71" s="11">
-        <f>VALUE(248.8275)</f>
+        <f>VALUE(248.7845)</f>
         <v>0</v>
       </c>
       <c r="L71">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(6.000000007588824e-05)</f>
         <v>0</v>
       </c>
       <c r="M71">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(-0.0006599999999252759)</f>
         <v>0</v>
       </c>
       <c r="N71">
-        <f>VALUE(-0.0005799999998998828)</f>
+        <f>VALUE(0.0014599999999518332)</f>
         <v>0</v>
       </c>
       <c r="O71">
-        <f>VALUE(-0.001099999999951251)</f>
+        <f>VALUE(0.0003000000001520675)</f>
         <v>0</v>
       </c>
       <c r="P71" s="11">
-        <f>VALUE(-0.015500000000002956)</f>
+        <f>VALUE(-273.1395)</f>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f>VALUE(-0.624999999956799)</f>
+        <f>VALUE(0.29000000006362825)</f>
         <v>0</v>
       </c>
     </row>
@@ -6472,67 +6328,67 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <f>VALUE(0.96989)</f>
+        <f>VALUE(0.51265)</f>
         <v>0</v>
       </c>
       <c r="C72" s="7">
-        <f>VALUE(1553.7428)</f>
+        <f>VALUE(1553.7454)</f>
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f>VALUE(-10.454)</f>
+        <f>VALUE(-10.498)</f>
         <v>0</v>
       </c>
       <c r="E72" s="8">
-        <f>VALUE(1556.3043400000001)</f>
+        <f>VALUE(1556.3067800000001)</f>
         <v>0</v>
       </c>
       <c r="F72" s="8">
-        <f>VALUE(-9.404)</f>
+        <f>VALUE(-9.427999999999999)</f>
         <v>0</v>
       </c>
       <c r="G72" s="9">
-        <f>VALUE(1551.8403)</f>
+        <f>VALUE(1551.2599599999999)</f>
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <f>VALUE(-15.46)</f>
+        <f>VALUE(-15.415999999999999)</f>
         <v>0</v>
       </c>
       <c r="I72" s="10">
-        <f>VALUE(1550.59778)</f>
+        <f>VALUE(1550.6029800000001)</f>
         <v>0</v>
       </c>
       <c r="J72" s="10">
-        <f>VALUE(-19.444000000000003)</f>
+        <f>VALUE(-19.288)</f>
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <f>VALUE(248.825)</f>
+        <f>VALUE(248.794)</f>
         <v>0</v>
       </c>
       <c r="L72">
-        <f>VALUE(-0.0003999999998995918)</f>
+        <f>VALUE(0.0011400000000776345)</f>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>VALUE(-0.0006800000001021544)</f>
+        <f>VALUE(0.000839999999925567)</f>
         <v>0</v>
       </c>
       <c r="N72">
-        <f>VALUE(-0.0011399999998502608)</f>
+        <f>VALUE(0.0006800000001021544)</f>
         <v>0</v>
       </c>
       <c r="O72">
-        <f>VALUE(-0.0009000000000014552)</f>
+        <f>VALUE(0.0011799999999766442)</f>
         <v>0</v>
       </c>
       <c r="P72" s="11">
-        <f>VALUE(-0.018000000000000682)</f>
+        <f>VALUE(-273.13)</f>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f>VALUE(-0.7799999999633656)</f>
+        <f>VALUE(0.9600000000205)</f>
         <v>0</v>
       </c>
     </row>
@@ -6541,67 +6397,67 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <f>VALUE(0.98725)</f>
+        <f>VALUE(0.53001)</f>
         <v>0</v>
       </c>
       <c r="C73" s="7">
-        <f>VALUE(1553.7436)</f>
+        <f>VALUE(1553.7455)</f>
         <v>0</v>
       </c>
       <c r="D73" s="7">
-        <f>VALUE(-10.43)</f>
+        <f>VALUE(-10.462)</f>
         <v>0</v>
       </c>
       <c r="E73" s="8">
-        <f>VALUE(1556.3045)</f>
+        <f>VALUE(1556.3068)</f>
         <v>0</v>
       </c>
       <c r="F73" s="8">
-        <f>VALUE(-9.372)</f>
+        <f>VALUE(-9.402000000000001)</f>
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <f>VALUE(1551.8410800000001)</f>
+        <f>VALUE(1551.25946)</f>
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <f>VALUE(-15.437999999999999)</f>
+        <f>VALUE(-15.395999999999999)</f>
         <v>0</v>
       </c>
       <c r="I73" s="10">
-        <f>VALUE(1550.59884)</f>
+        <f>VALUE(1550.60274)</f>
         <v>0</v>
       </c>
       <c r="J73" s="10">
-        <f>VALUE(-19.494)</f>
+        <f>VALUE(-19.274)</f>
         <v>0</v>
       </c>
       <c r="K73" s="11">
-        <f>VALUE(248.822)</f>
+        <f>VALUE(248.805)</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f>VALUE(0.00040000000012696546)</f>
+        <f>VALUE(0.0012400000000525324)</f>
         <v>0</v>
       </c>
       <c r="M73">
-        <f>VALUE(-0.0005200000000513683)</f>
+        <f>VALUE(0.0008600000001024455)</f>
         <v>0</v>
       </c>
       <c r="N73">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="O73">
-        <f>VALUE(0.00016000000005078618)</f>
+        <f>VALUE(0.0009400000001278386)</f>
         <v>0</v>
       </c>
       <c r="P73" s="11">
-        <f>VALUE(-0.020999999999986585)</f>
+        <f>VALUE(-273.11899999999997)</f>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f>VALUE(-0.07999999996854967)</f>
+        <f>VALUE(0.8050000000707769)</f>
         <v>0</v>
       </c>
     </row>
@@ -6610,67 +6466,67 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <f>VALUE(1.00461)</f>
+        <f>VALUE(0.54737)</f>
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <f>VALUE(1553.74292)</f>
+        <f>VALUE(1553.7456)</f>
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f>VALUE(-10.534)</f>
+        <f>VALUE(-10.454)</f>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>VALUE(1556.30374)</f>
+        <f>VALUE(1556.3074)</f>
         <v>0</v>
       </c>
       <c r="F74" s="8">
-        <f>VALUE(-9.378)</f>
+        <f>VALUE(-9.452)</f>
         <v>0</v>
       </c>
       <c r="G74" s="9">
-        <f>VALUE(1551.84072)</f>
+        <f>VALUE(1551.26)</f>
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <f>VALUE(-15.446)</f>
+        <f>VALUE(-15.324000000000002)</f>
         <v>0</v>
       </c>
       <c r="I74" s="10">
-        <f>VALUE(1550.59806)</f>
+        <f>VALUE(1550.60336)</f>
         <v>0</v>
       </c>
       <c r="J74" s="10">
-        <f>VALUE(-19.452)</f>
+        <f>VALUE(-19.202)</f>
         <v>0</v>
       </c>
       <c r="K74" s="11">
-        <f>VALUE(248.8155)</f>
+        <f>VALUE(248.813)</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f>VALUE(-0.000279999999975189)</f>
+        <f>VALUE(0.0013400000000274304)</f>
         <v>0</v>
       </c>
       <c r="M74">
-        <f>VALUE(-0.0012799999999515421)</f>
+        <f>VALUE(0.0014599999999518332)</f>
         <v>0</v>
       </c>
       <c r="N74">
-        <f>VALUE(-0.0007200000000011642)</f>
+        <f>VALUE(0.0007200000000011642)</f>
         <v>0</v>
       </c>
       <c r="O74">
-        <f>VALUE(-0.0006200000000262662)</f>
+        <f>VALUE(0.0015600000001541048)</f>
         <v>0</v>
       </c>
       <c r="P74" s="11">
-        <f>VALUE(-0.02750000000000341)</f>
+        <f>VALUE(-273.111)</f>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f>VALUE(-0.7249999999885404)</f>
+        <f>VALUE(1.2700000000336331)</f>
         <v>0</v>
       </c>
     </row>
@@ -6679,67 +6535,67 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <f>VALUE(1.02225)</f>
+        <f>VALUE(0.56473)</f>
         <v>0</v>
       </c>
       <c r="C75" s="7">
-        <f>VALUE(1553.74308)</f>
+        <f>VALUE(1553.74562)</f>
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <f>VALUE(-10.437999999999999)</f>
+        <f>VALUE(-10.48)</f>
         <v>0</v>
       </c>
       <c r="E75" s="8">
-        <f>VALUE(1556.3041)</f>
+        <f>VALUE(1556.3076)</f>
         <v>0</v>
       </c>
       <c r="F75" s="8">
-        <f>VALUE(-9.384)</f>
+        <f>VALUE(-9.366)</f>
         <v>0</v>
       </c>
       <c r="G75" s="9">
-        <f>VALUE(1551.84156)</f>
+        <f>VALUE(1551.25896)</f>
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <f>VALUE(-15.434000000000001)</f>
+        <f>VALUE(-15.315999999999999)</f>
         <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f>VALUE(1550.59844)</f>
+        <f>VALUE(1550.60312)</f>
         <v>0</v>
       </c>
       <c r="J75" s="10">
-        <f>VALUE(-19.474)</f>
+        <f>VALUE(-19.274)</f>
         <v>0</v>
       </c>
       <c r="K75" s="11">
-        <f>VALUE(248.815)</f>
+        <f>VALUE(248.8165)</f>
         <v>0</v>
       </c>
       <c r="L75">
-        <f>VALUE(-0.0001199999999244028)</f>
+        <f>VALUE(0.0013599999999769352)</f>
         <v>0</v>
       </c>
       <c r="M75">
-        <f>VALUE(-0.00091999999995096)</f>
+        <f>VALUE(0.0016600000001290027)</f>
         <v>0</v>
       </c>
       <c r="N75">
-        <f>VALUE(0.00012000000015177648)</f>
+        <f>VALUE(-0.00032000000010157237)</f>
         <v>0</v>
       </c>
       <c r="O75">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(0.0013200000000779255)</f>
         <v>0</v>
       </c>
       <c r="P75" s="11">
-        <f>VALUE(-0.027999999999991587)</f>
+        <f>VALUE(-273.10749999999996)</f>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f>VALUE(-0.2899999999499414)</f>
+        <f>VALUE(1.0050000000205728)</f>
         <v>0</v>
       </c>
     </row>
@@ -6748,67 +6604,67 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <f>VALUE(1.03975)</f>
+        <f>VALUE(0.58238)</f>
         <v>0</v>
       </c>
       <c r="C76" s="7">
-        <f>VALUE(1553.74304)</f>
+        <f>VALUE(1553.74468)</f>
         <v>0</v>
       </c>
       <c r="D76" s="7">
-        <f>VALUE(-10.466)</f>
+        <f>VALUE(-10.492)</f>
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f>VALUE(1556.30428)</f>
+        <f>VALUE(1556.30592)</f>
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f>VALUE(-9.357999999999999)</f>
+        <f>VALUE(-9.362)</f>
         <v>0</v>
       </c>
       <c r="G76" s="9">
-        <f>VALUE(1551.84162)</f>
+        <f>VALUE(1551.26016)</f>
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <f>VALUE(-15.454)</f>
+        <f>VALUE(-15.402000000000001)</f>
         <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f>VALUE(1550.59844)</f>
+        <f>VALUE(1550.60228)</f>
         <v>0</v>
       </c>
       <c r="J76" s="10">
-        <f>VALUE(-19.476)</f>
+        <f>VALUE(-19.262)</f>
         <v>0</v>
       </c>
       <c r="K76" s="11">
-        <f>VALUE(248.81900000000002)</f>
+        <f>VALUE(248.81099999999998)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f>VALUE(-0.0001599999998234125)</f>
+        <f>VALUE(0.0004200000000764703)</f>
         <v>0</v>
       </c>
       <c r="M76">
-        <f>VALUE(-0.000739999999950669)</f>
+        <f>VALUE(-1.9999999949504854e-05)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f>VALUE(0.00018000000000029104)</f>
+        <f>VALUE(0.0008800000000519503)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f>VALUE(-0.00024000000007617928)</f>
+        <f>VALUE(0.00048000000015235855)</f>
         <v>0</v>
       </c>
       <c r="P76" s="11">
-        <f>VALUE(-0.023999999999972488)</f>
+        <f>VALUE(-273.113)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f>VALUE(-0.23999999996249244)</f>
+        <f>VALUE(0.4400000000828186)</f>
         <v>0</v>
       </c>
     </row>
@@ -6817,67 +6673,67 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <f>VALUE(1.05725)</f>
+        <f>VALUE(0.59987)</f>
         <v>0</v>
       </c>
       <c r="C77" s="7">
-        <f>VALUE(1553.74266)</f>
+        <f>VALUE(1553.74534)</f>
         <v>0</v>
       </c>
       <c r="D77" s="7">
-        <f>VALUE(-10.466)</f>
+        <f>VALUE(-10.514000000000001)</f>
         <v>0</v>
       </c>
       <c r="E77" s="8">
-        <f>VALUE(1556.30414)</f>
+        <f>VALUE(1556.3072)</f>
         <v>0</v>
       </c>
       <c r="F77" s="8">
-        <f>VALUE(-9.386000000000001)</f>
+        <f>VALUE(-9.442)</f>
         <v>0</v>
       </c>
       <c r="G77" s="9">
-        <f>VALUE(1551.84032)</f>
+        <f>VALUE(1551.26064)</f>
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <f>VALUE(-15.504000000000001)</f>
+        <f>VALUE(-15.378)</f>
         <v>0</v>
       </c>
       <c r="I77" s="10">
-        <f>VALUE(1550.5982199999999)</f>
+        <f>VALUE(1550.6028800000001)</f>
         <v>0</v>
       </c>
       <c r="J77" s="10">
-        <f>VALUE(-19.512)</f>
+        <f>VALUE(-19.23)</f>
         <v>0</v>
       </c>
       <c r="K77" s="11">
-        <f>VALUE(248.817)</f>
+        <f>VALUE(248.80900000000003)</f>
         <v>0</v>
       </c>
       <c r="L77">
-        <f>VALUE(-0.0005400000000008731)</f>
+        <f>VALUE(0.0010800000000017462)</f>
         <v>0</v>
       </c>
       <c r="M77">
-        <f>VALUE(-0.0008800000000519503)</f>
+        <f>VALUE(0.0012600000000020373)</f>
         <v>0</v>
       </c>
       <c r="N77">
-        <f>VALUE(-0.001119999999900756)</f>
+        <f>VALUE(0.0013599999999769352)</f>
         <v>0</v>
       </c>
       <c r="O77">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(0.0010800000000017462)</f>
         <v>0</v>
       </c>
       <c r="P77" s="11">
-        <f>VALUE(-0.025999999999982037)</f>
+        <f>VALUE(-273.11499999999995)</f>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f>VALUE(-0.7499999999822649)</f>
+        <f>VALUE(1.1949999999956162)</f>
         <v>0</v>
       </c>
     </row>
@@ -6886,67 +6742,67 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <f>VALUE(1.07475)</f>
+        <f>VALUE(0.61737)</f>
         <v>0</v>
       </c>
       <c r="C78" s="7">
-        <f>VALUE(1553.74324)</f>
+        <f>VALUE(1553.74474)</f>
         <v>0</v>
       </c>
       <c r="D78" s="7">
-        <f>VALUE(-10.495999999999999)</f>
+        <f>VALUE(-10.544)</f>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f>VALUE(1556.30502)</f>
+        <f>VALUE(1556.3062400000001)</f>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>VALUE(-9.402000000000001)</f>
+        <f>VALUE(-9.382)</f>
         <v>0</v>
       </c>
       <c r="G78" s="9">
-        <f>VALUE(1551.84174)</f>
+        <f>VALUE(1551.26074)</f>
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <f>VALUE(-15.502)</f>
+        <f>VALUE(-15.388)</f>
         <v>0</v>
       </c>
       <c r="I78" s="10">
-        <f>VALUE(1550.5974199999998)</f>
+        <f>VALUE(1550.6027800000002)</f>
         <v>0</v>
       </c>
       <c r="J78" s="10">
-        <f>VALUE(-19.476)</f>
+        <f>VALUE(-19.208)</f>
         <v>0</v>
       </c>
       <c r="K78" s="11">
-        <f>VALUE(248.8175)</f>
+        <f>VALUE(248.801)</f>
         <v>0</v>
       </c>
       <c r="L78">
-        <f>VALUE(4.0000000126383384e-05)</f>
+        <f>VALUE(0.00048000000015235855)</f>
         <v>0</v>
       </c>
       <c r="M78">
-        <f>VALUE(0.0)</f>
+        <f>VALUE(0.00029999999992469384)</f>
         <v>0</v>
       </c>
       <c r="N78">
-        <f>VALUE(0.0003000000001520675)</f>
+        <f>VALUE(0.0014599999999518332)</f>
         <v>0</v>
       </c>
       <c r="O78">
-        <f>VALUE(-0.0012600000000020373)</f>
+        <f>VALUE(0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="P78" s="11">
-        <f>VALUE(-0.02549999999999386)</f>
+        <f>VALUE(-273.123)</f>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f>VALUE(-0.2299999999308966)</f>
+        <f>VALUE(0.8050000000139335)</f>
         <v>0</v>
       </c>
     </row>
@@ -6955,67 +6811,67 @@
         <v>94</v>
       </c>
       <c r="B79">
-        <f>VALUE(1.09212)</f>
+        <f>VALUE(0.63487)</f>
         <v>0</v>
       </c>
       <c r="C79" s="7">
-        <f>VALUE(1553.743)</f>
+        <f>VALUE(1553.74466)</f>
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <f>VALUE(-10.462)</f>
+        <f>VALUE(-10.53)</f>
         <v>0</v>
       </c>
       <c r="E79" s="8">
-        <f>VALUE(1556.3048)</f>
+        <f>VALUE(1556.30646)</f>
         <v>0</v>
       </c>
       <c r="F79" s="8">
-        <f>VALUE(-9.388)</f>
+        <f>VALUE(-9.41)</f>
         <v>0</v>
       </c>
       <c r="G79" s="9">
-        <f>VALUE(1551.84148)</f>
+        <f>VALUE(1551.25946)</f>
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <f>VALUE(-15.472000000000001)</f>
+        <f>VALUE(-15.338)</f>
         <v>0</v>
       </c>
       <c r="I79" s="10">
-        <f>VALUE(1550.5987)</f>
+        <f>VALUE(1550.60256)</f>
         <v>0</v>
       </c>
       <c r="J79" s="10">
-        <f>VALUE(-19.53)</f>
+        <f>VALUE(-19.282)</f>
         <v>0</v>
       </c>
       <c r="K79" s="11">
-        <f>VALUE(248.821)</f>
+        <f>VALUE(248.7935)</f>
         <v>0</v>
       </c>
       <c r="L79">
-        <f>VALUE(-0.0001999999999497959)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f>VALUE(-0.00022000000012667442)</f>
+        <f>VALUE(0.0005200000000513683)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f>VALUE(4.0000000126383384e-05)</f>
+        <f>VALUE(0.00018000000000029104)</f>
         <v>0</v>
       </c>
       <c r="O79">
-        <f>VALUE(1.9999999949504854e-05)</f>
+        <f>VALUE(0.0007600000001275475)</f>
         <v>0</v>
       </c>
       <c r="P79" s="11">
-        <f>VALUE(-0.02199999999999136)</f>
+        <f>VALUE(-273.1305)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f>VALUE(-0.09000000000014552)</f>
+        <f>VALUE(0.4650000000765431)</f>
         <v>0</v>
       </c>
     </row>
@@ -7024,67 +6880,67 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <f>VALUE(1.10975)</f>
+        <f>VALUE(0.65251)</f>
         <v>0</v>
       </c>
       <c r="C80" s="7">
-        <f>VALUE(1553.7433)</f>
+        <f>VALUE(1553.74472)</f>
         <v>0</v>
       </c>
       <c r="D80" s="7">
-        <f>VALUE(-10.475999999999999)</f>
+        <f>VALUE(-10.48)</f>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f>VALUE(1556.30504)</f>
+        <f>VALUE(1556.30646)</f>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f>VALUE(-9.406)</f>
+        <f>VALUE(-9.442)</f>
         <v>0</v>
       </c>
       <c r="G80" s="9">
-        <f>VALUE(1551.84218)</f>
+        <f>VALUE(1551.25944)</f>
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <f>VALUE(-15.49)</f>
+        <f>VALUE(-15.35)</f>
         <v>0</v>
       </c>
       <c r="I80" s="10">
-        <f>VALUE(1550.5984)</f>
+        <f>VALUE(1550.6029999999998)</f>
         <v>0</v>
       </c>
       <c r="J80" s="10">
-        <f>VALUE(-19.462)</f>
+        <f>VALUE(-19.232)</f>
         <v>0</v>
       </c>
       <c r="K80" s="11">
-        <f>VALUE(248.8195)</f>
+        <f>VALUE(248.78900000000002)</f>
         <v>0</v>
       </c>
       <c r="L80">
-        <f>VALUE(0.00010000000020227162)</f>
+        <f>VALUE(0.00045999999997548)</f>
         <v>0</v>
       </c>
       <c r="M80">
-        <f>VALUE(1.9999999949504854e-05)</f>
+        <f>VALUE(0.0005200000000513683)</f>
         <v>0</v>
       </c>
       <c r="N80">
-        <f>VALUE(0.0007400000001780427)</f>
+        <f>VALUE(0.00016000000005078618)</f>
         <v>0</v>
       </c>
       <c r="O80">
-        <f>VALUE(-0.000279999999975189)</f>
+        <f>VALUE(0.0012000000001535227)</f>
         <v>0</v>
       </c>
       <c r="P80" s="11">
-        <f>VALUE(-0.02349999999998431)</f>
+        <f>VALUE(-273.135)</f>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f>VALUE(0.14500000008865754)</f>
+        <f>VALUE(0.5850000000577893)</f>
         <v>0</v>
       </c>
     </row>
@@ -7093,67 +6949,67 @@
         <v>96</v>
       </c>
       <c r="B81">
-        <f>VALUE(1.12712)</f>
+        <f>VALUE(0.66988)</f>
         <v>0</v>
       </c>
       <c r="C81" s="7">
-        <f>VALUE(1553.74314)</f>
+        <f>VALUE(1553.74526)</f>
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <f>VALUE(-10.488)</f>
+        <f>VALUE(-10.478)</f>
         <v>0</v>
       </c>
       <c r="E81" s="8">
-        <f>VALUE(1556.3039199999998)</f>
+        <f>VALUE(1556.30722)</f>
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <f>VALUE(-9.354)</f>
+        <f>VALUE(-9.408)</f>
         <v>0</v>
       </c>
       <c r="G81" s="9">
-        <f>VALUE(1551.84072)</f>
+        <f>VALUE(1551.26056)</f>
         <v>0</v>
       </c>
       <c r="H81" s="9">
-        <f>VALUE(-15.436)</f>
+        <f>VALUE(-15.38)</f>
         <v>0</v>
       </c>
       <c r="I81" s="10">
-        <f>VALUE(1550.59858)</f>
+        <f>VALUE(1550.60148)</f>
         <v>0</v>
       </c>
       <c r="J81" s="10">
-        <f>VALUE(-19.496)</f>
+        <f>VALUE(-19.232)</f>
         <v>0</v>
       </c>
       <c r="K81" s="11">
-        <f>VALUE(248.8195)</f>
+        <f>VALUE(248.7895)</f>
         <v>0</v>
       </c>
       <c r="L81">
-        <f>VALUE(-5.999999984851456e-05)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="M81">
-        <f>VALUE(-0.001099999999951251)</f>
+        <f>VALUE(0.0012799999999515421)</f>
         <v>0</v>
       </c>
       <c r="N81">
-        <f>VALUE(-0.0007200000000011642)</f>
+        <f>VALUE(0.0012799999999515421)</f>
         <v>0</v>
       </c>
       <c r="O81">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(-0.0003199999998741987)</f>
         <v>0</v>
       </c>
       <c r="P81" s="11">
-        <f>VALUE(-0.02349999999998431)</f>
+        <f>VALUE(-273.1345)</f>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f>VALUE(-0.49499999994395694)</f>
+        <f>VALUE(0.8100000000013097)</f>
         <v>0</v>
       </c>
     </row>
@@ -7162,67 +7018,67 @@
         <v>97</v>
       </c>
       <c r="B82">
-        <f>VALUE(1.14448)</f>
+        <f>VALUE(0.68723)</f>
         <v>0</v>
       </c>
       <c r="C82" s="7">
-        <f>VALUE(1553.7427400000001)</f>
+        <f>VALUE(1553.74566)</f>
         <v>0</v>
       </c>
       <c r="D82" s="7">
-        <f>VALUE(-10.48)</f>
+        <f>VALUE(-10.527999999999999)</f>
         <v>0</v>
       </c>
       <c r="E82" s="8">
-        <f>VALUE(1556.30384)</f>
+        <f>VALUE(1556.30556)</f>
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <f>VALUE(-9.354)</f>
+        <f>VALUE(-9.416)</f>
         <v>0</v>
       </c>
       <c r="G82" s="9">
-        <f>VALUE(1551.84168)</f>
+        <f>VALUE(1551.2602)</f>
         <v>0</v>
       </c>
       <c r="H82" s="9">
-        <f>VALUE(-15.524000000000001)</f>
+        <f>VALUE(-15.334000000000001)</f>
         <v>0</v>
       </c>
       <c r="I82" s="10">
-        <f>VALUE(1550.5982800000002)</f>
+        <f>VALUE(1550.6027800000002)</f>
         <v>0</v>
       </c>
       <c r="J82" s="10">
-        <f>VALUE(-19.532)</f>
+        <f>VALUE(-19.234)</f>
         <v>0</v>
       </c>
       <c r="K82" s="11">
-        <f>VALUE(248.81900000000002)</f>
+        <f>VALUE(248.7905)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(0.0014000000001033186)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f>VALUE(-0.0011799999999766442)</f>
+        <f>VALUE(-0.00037999999995008693)</f>
         <v>0</v>
       </c>
       <c r="N82">
-        <f>VALUE(0.00024000000007617928)</f>
+        <f>VALUE(0.00091999999995096)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f>VALUE(-0.00040000000012696546)</f>
+        <f>VALUE(0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="P82" s="11">
-        <f>VALUE(-0.023999999999972488)</f>
+        <f>VALUE(-273.13349999999997)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f>VALUE(-0.4500000000007276)</f>
+        <f>VALUE(0.73000000003276)</f>
         <v>0</v>
       </c>
     </row>
@@ -7231,67 +7087,67 @@
         <v>98</v>
       </c>
       <c r="B83">
-        <f>VALUE(1.16198)</f>
+        <f>VALUE(0.7046)</f>
         <v>0</v>
       </c>
       <c r="C83" s="7">
-        <f>VALUE(1553.7428)</f>
+        <f>VALUE(1553.74524)</f>
         <v>0</v>
       </c>
       <c r="D83" s="7">
-        <f>VALUE(-10.48)</f>
+        <f>VALUE(-10.51)</f>
         <v>0</v>
       </c>
       <c r="E83" s="8">
-        <f>VALUE(1556.30414)</f>
+        <f>VALUE(1556.30634)</f>
         <v>0</v>
       </c>
       <c r="F83" s="8">
-        <f>VALUE(-9.356)</f>
+        <f>VALUE(-9.35)</f>
         <v>0</v>
       </c>
       <c r="G83" s="9">
-        <f>VALUE(1551.8413)</f>
+        <f>VALUE(1551.2598)</f>
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <f>VALUE(-15.452)</f>
+        <f>VALUE(-15.4)</f>
         <v>0</v>
       </c>
       <c r="I83" s="10">
-        <f>VALUE(1550.5978599999999)</f>
+        <f>VALUE(1550.6024400000001)</f>
         <v>0</v>
       </c>
       <c r="J83" s="10">
-        <f>VALUE(-19.496)</f>
+        <f>VALUE(-19.294)</f>
         <v>0</v>
       </c>
       <c r="K83" s="11">
-        <f>VALUE(248.82)</f>
+        <f>VALUE(248.794)</f>
         <v>0</v>
       </c>
       <c r="L83">
-        <f>VALUE(-0.0003999999998995918)</f>
+        <f>VALUE(0.0009800000000268483)</f>
         <v>0</v>
       </c>
       <c r="M83">
-        <f>VALUE(-0.0008800000000519503)</f>
+        <f>VALUE(0.00040000000012696546)</f>
         <v>0</v>
       </c>
       <c r="N83">
-        <f>VALUE(-0.00013999999987390765)</f>
+        <f>VALUE(0.0005200000000513683)</f>
         <v>0</v>
       </c>
       <c r="O83">
-        <f>VALUE(-0.0008199999999760621)</f>
+        <f>VALUE(0.0006399999999757711)</f>
         <v>0</v>
       </c>
       <c r="P83" s="11">
-        <f>VALUE(-0.022999999999996135)</f>
+        <f>VALUE(-273.13)</f>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f>VALUE(-0.559999999950378)</f>
+        <f>VALUE(0.6350000000452383)</f>
         <v>0</v>
       </c>
     </row>
@@ -7300,67 +7156,67 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <f>VALUE(1.17948)</f>
+        <f>VALUE(0.7221)</f>
         <v>0</v>
       </c>
       <c r="C84" s="7">
-        <f>VALUE(1553.7423)</f>
+        <f>VALUE(1553.74542)</f>
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <f>VALUE(-10.505999999999998)</f>
+        <f>VALUE(-10.54)</f>
         <v>0</v>
       </c>
       <c r="E84" s="8">
-        <f>VALUE(1556.30446)</f>
+        <f>VALUE(1556.3065)</f>
         <v>0</v>
       </c>
       <c r="F84" s="8">
-        <f>VALUE(-9.334)</f>
+        <f>VALUE(-9.42)</f>
         <v>0</v>
       </c>
       <c r="G84" s="9">
-        <f>VALUE(1551.84148)</f>
+        <f>VALUE(1551.25918)</f>
         <v>0</v>
       </c>
       <c r="H84" s="9">
-        <f>VALUE(-15.534)</f>
+        <f>VALUE(-15.382)</f>
         <v>0</v>
       </c>
       <c r="I84" s="10">
-        <f>VALUE(1550.598)</f>
+        <f>VALUE(1550.60296)</f>
         <v>0</v>
       </c>
       <c r="J84" s="10">
-        <f>VALUE(-19.432000000000002)</f>
+        <f>VALUE(-19.192)</f>
         <v>0</v>
       </c>
       <c r="K84" s="11">
-        <f>VALUE(248.8185)</f>
+        <f>VALUE(248.792)</f>
         <v>0</v>
       </c>
       <c r="L84">
-        <f>VALUE(-0.0009000000000014552)</f>
+        <f>VALUE(0.0011600000000271393)</f>
         <v>0</v>
       </c>
       <c r="M84">
-        <f>VALUE(-0.000559999999950378)</f>
+        <f>VALUE(0.000559999999950378)</f>
         <v>0</v>
       </c>
       <c r="N84">
-        <f>VALUE(4.0000000126383384e-05)</f>
+        <f>VALUE(-9.999999997489795e-05)</f>
         <v>0</v>
       </c>
       <c r="O84">
-        <f>VALUE(-0.0006800000001021544)</f>
+        <f>VALUE(0.0011600000000271393)</f>
         <v>0</v>
       </c>
       <c r="P84" s="11">
-        <f>VALUE(-0.024499999999989086)</f>
+        <f>VALUE(-273.13199999999995)</f>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f>VALUE(-0.524999999981901)</f>
+        <f>VALUE(0.6950000000074397)</f>
         <v>0</v>
       </c>
     </row>
@@ -7369,67 +7225,67 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <f>VALUE(1.19684)</f>
+        <f>VALUE(0.7396)</f>
         <v>0</v>
       </c>
       <c r="C85" s="7">
-        <f>VALUE(1553.74278)</f>
+        <f>VALUE(1553.7451)</f>
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>VALUE(-10.49)</f>
+        <f>VALUE(-10.485999999999999)</f>
         <v>0</v>
       </c>
       <c r="E85" s="8">
-        <f>VALUE(1556.3043)</f>
+        <f>VALUE(1556.3059)</f>
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <f>VALUE(-9.37)</f>
+        <f>VALUE(-9.414)</f>
         <v>0</v>
       </c>
       <c r="G85" s="9">
-        <f>VALUE(1551.8410800000001)</f>
+        <f>VALUE(1551.2601)</f>
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <f>VALUE(-15.552)</f>
+        <f>VALUE(-15.372)</f>
         <v>0</v>
       </c>
       <c r="I85" s="10">
-        <f>VALUE(1550.59798)</f>
+        <f>VALUE(1550.6033)</f>
         <v>0</v>
       </c>
       <c r="J85" s="10">
-        <f>VALUE(-19.482)</f>
+        <f>VALUE(-19.23)</f>
         <v>0</v>
       </c>
       <c r="K85" s="11">
-        <f>VALUE(248.817)</f>
+        <f>VALUE(248.7945)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f>VALUE(-0.00041999999984909664)</f>
+        <f>VALUE(0.0008400000001529406)</f>
         <v>0</v>
       </c>
       <c r="M85">
-        <f>VALUE(-0.0007200000000011642)</f>
+        <f>VALUE(-3.999999989900971e-05)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.0008199999999760621)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f>VALUE(-0.0007000000000516593)</f>
+        <f>VALUE(0.0015000000000782165)</f>
         <v>0</v>
       </c>
       <c r="P85" s="11">
-        <f>VALUE(-0.025999999999982037)</f>
+        <f>VALUE(-273.1295)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f>VALUE(-0.5499999999756255)</f>
+        <f>VALUE(0.7800000000770524)</f>
         <v>0</v>
       </c>
     </row>
@@ -7438,67 +7294,67 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <f>VALUE(1.2142)</f>
+        <f>VALUE(0.7571)</f>
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <f>VALUE(1553.7424)</f>
+        <f>VALUE(1553.74536)</f>
         <v>0</v>
       </c>
       <c r="D86" s="7">
-        <f>VALUE(-10.45)</f>
+        <f>VALUE(-10.452)</f>
         <v>0</v>
       </c>
       <c r="E86" s="8">
-        <f>VALUE(1556.30312)</f>
+        <f>VALUE(1556.30644)</f>
         <v>0</v>
       </c>
       <c r="F86" s="8">
-        <f>VALUE(-9.416)</f>
+        <f>VALUE(-9.476)</f>
         <v>0</v>
       </c>
       <c r="G86" s="9">
-        <f>VALUE(1551.8403)</f>
+        <f>VALUE(1551.2603800000002)</f>
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <f>VALUE(-15.515999999999998)</f>
+        <f>VALUE(-15.318)</f>
         <v>0</v>
       </c>
       <c r="I86" s="10">
-        <f>VALUE(1550.59766)</f>
+        <f>VALUE(1550.6035)</f>
         <v>0</v>
       </c>
       <c r="J86" s="10">
-        <f>VALUE(-19.492)</f>
+        <f>VALUE(-19.244)</f>
         <v>0</v>
       </c>
       <c r="K86" s="11">
-        <f>VALUE(248.813)</f>
+        <f>VALUE(248.7985)</f>
         <v>0</v>
       </c>
       <c r="L86">
-        <f>VALUE(-0.0007999999997991836)</f>
+        <f>VALUE(0.001099999999951251)</f>
         <v>0</v>
       </c>
       <c r="M86">
-        <f>VALUE(-0.0018999999999778083)</f>
+        <f>VALUE(0.0005000000001018634)</f>
         <v>0</v>
       </c>
       <c r="N86">
-        <f>VALUE(-0.0011399999998502608)</f>
+        <f>VALUE(0.001099999999951251)</f>
         <v>0</v>
       </c>
       <c r="O86">
-        <f>VALUE(-0.0010200000001532317)</f>
+        <f>VALUE(0.0017000000000280124)</f>
         <v>0</v>
       </c>
       <c r="P86" s="11">
-        <f>VALUE(-0.030000000000001137)</f>
+        <f>VALUE(-273.1255)</f>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f>VALUE(-1.214999999945121)</f>
+        <f>VALUE(1.1000000000080945)</f>
         <v>0</v>
       </c>
     </row>
@@ -7507,67 +7363,67 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <f>VALUE(1.23156)</f>
+        <f>VALUE(0.77474)</f>
         <v>0</v>
       </c>
       <c r="C87" s="7">
-        <f>VALUE(1553.7424)</f>
+        <f>VALUE(1553.7454)</f>
         <v>0</v>
       </c>
       <c r="D87" s="7">
-        <f>VALUE(-10.5)</f>
+        <f>VALUE(-10.485999999999999)</f>
         <v>0</v>
       </c>
       <c r="E87" s="8">
-        <f>VALUE(1556.3039800000001)</f>
+        <f>VALUE(1556.30654)</f>
         <v>0</v>
       </c>
       <c r="F87" s="8">
-        <f>VALUE(-9.382)</f>
+        <f>VALUE(-9.442)</f>
         <v>0</v>
       </c>
       <c r="G87" s="9">
-        <f>VALUE(1551.84106)</f>
+        <f>VALUE(1551.2611)</f>
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <f>VALUE(-15.564)</f>
+        <f>VALUE(-15.334000000000001)</f>
         <v>0</v>
       </c>
       <c r="I87" s="10">
-        <f>VALUE(1550.5973800000002)</f>
+        <f>VALUE(1550.6038199999998)</f>
         <v>0</v>
       </c>
       <c r="J87" s="10">
-        <f>VALUE(-19.554000000000002)</f>
+        <f>VALUE(-19.156)</f>
         <v>0</v>
       </c>
       <c r="K87" s="11">
-        <f>VALUE(248.8065)</f>
+        <f>VALUE(248.808)</f>
         <v>0</v>
       </c>
       <c r="L87">
-        <f>VALUE(-0.0007999999997991836)</f>
+        <f>VALUE(0.0011400000000776345)</f>
         <v>0</v>
       </c>
       <c r="M87">
-        <f>VALUE(-0.0010400000001027365)</f>
+        <f>VALUE(0.0006000000000767614)</f>
         <v>0</v>
       </c>
       <c r="N87">
-        <f>VALUE(-0.00037999999995008693)</f>
+        <f>VALUE(0.0018199999999524152)</f>
         <v>0</v>
       </c>
       <c r="O87">
-        <f>VALUE(-0.0013000000001284207)</f>
+        <f>VALUE(0.002020000000129585)</f>
         <v>0</v>
       </c>
       <c r="P87" s="11">
-        <f>VALUE(-0.03649999999998954)</f>
+        <f>VALUE(-273.116)</f>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f>VALUE(-0.8799999999951069)</f>
+        <f>VALUE(1.395000000059099)</f>
         <v>0</v>
       </c>
     </row>
@@ -7576,67 +7432,67 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <f>VALUE(1.24893)</f>
+        <f>VALUE(0.79224)</f>
         <v>0</v>
       </c>
       <c r="C88" s="7">
-        <f>VALUE(1553.74358)</f>
+        <f>VALUE(1553.7463599999999)</f>
         <v>0</v>
       </c>
       <c r="D88" s="7">
-        <f>VALUE(-10.41)</f>
+        <f>VALUE(-10.446)</f>
         <v>0</v>
       </c>
       <c r="E88" s="8">
-        <f>VALUE(1556.3039)</f>
+        <f>VALUE(1556.30664)</f>
         <v>0</v>
       </c>
       <c r="F88" s="8">
-        <f>VALUE(-9.42)</f>
+        <f>VALUE(-9.422)</f>
         <v>0</v>
       </c>
       <c r="G88" s="9">
-        <f>VALUE(1551.8411800000001)</f>
+        <f>VALUE(1551.26072)</f>
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <f>VALUE(-15.51)</f>
+        <f>VALUE(-15.32)</f>
         <v>0</v>
       </c>
       <c r="I88" s="10">
-        <f>VALUE(1550.59816)</f>
+        <f>VALUE(1550.60348)</f>
         <v>0</v>
       </c>
       <c r="J88" s="10">
-        <f>VALUE(-19.496)</f>
+        <f>VALUE(-19.182000000000002)</f>
         <v>0</v>
       </c>
       <c r="K88" s="11">
-        <f>VALUE(248.804)</f>
+        <f>VALUE(248.8195)</f>
         <v>0</v>
       </c>
       <c r="L88">
-        <f>VALUE(0.0003800000001774606)</f>
+        <f>VALUE(0.002100000000154978)</f>
         <v>0</v>
       </c>
       <c r="M88">
-        <f>VALUE(-0.001119999999900756)</f>
+        <f>VALUE(0.0007000000000516593)</f>
         <v>0</v>
       </c>
       <c r="N88">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(0.0014400000000023283)</f>
         <v>0</v>
       </c>
       <c r="O88">
-        <f>VALUE(-0.0005200000000513683)</f>
+        <f>VALUE(0.0016800000000785076)</f>
         <v>0</v>
       </c>
       <c r="P88" s="11">
-        <f>VALUE(-0.03899999999998727)</f>
+        <f>VALUE(-273.1045)</f>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f>VALUE(-0.37999999995008693)</f>
+        <f>VALUE(1.4800000000718683)</f>
         <v>0</v>
       </c>
     </row>
@@ -7645,67 +7501,67 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <f>VALUE(1.2663)</f>
+        <f>VALUE(0.8096)</f>
         <v>0</v>
       </c>
       <c r="C89" s="7">
-        <f>VALUE(1553.74298)</f>
+        <f>VALUE(1553.74548)</f>
         <v>0</v>
       </c>
       <c r="D89" s="7">
-        <f>VALUE(-10.484000000000002)</f>
+        <f>VALUE(-10.508)</f>
         <v>0</v>
       </c>
       <c r="E89" s="8">
-        <f>VALUE(1556.30476)</f>
+        <f>VALUE(1556.3067800000001)</f>
         <v>0</v>
       </c>
       <c r="F89" s="8">
-        <f>VALUE(-9.402000000000001)</f>
+        <f>VALUE(-9.426)</f>
         <v>0</v>
       </c>
       <c r="G89" s="9">
-        <f>VALUE(1551.8414)</f>
+        <f>VALUE(1551.26024)</f>
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <f>VALUE(-15.522)</f>
+        <f>VALUE(-15.414000000000001)</f>
         <v>0</v>
       </c>
       <c r="I89" s="10">
-        <f>VALUE(1550.59816)</f>
+        <f>VALUE(1550.6032599999999)</f>
         <v>0</v>
       </c>
       <c r="J89" s="10">
-        <f>VALUE(-19.526)</f>
+        <f>VALUE(-19.227999999999998)</f>
         <v>0</v>
       </c>
       <c r="K89" s="11">
-        <f>VALUE(248.808)</f>
+        <f>VALUE(248.831)</f>
         <v>0</v>
       </c>
       <c r="L89">
-        <f>VALUE(-0.00021999999989930075)</f>
+        <f>VALUE(0.0012200000001030276)</f>
         <v>0</v>
       </c>
       <c r="M89">
-        <f>VALUE(-0.00026000000002568413)</f>
+        <f>VALUE(0.000839999999925567)</f>
         <v>0</v>
       </c>
       <c r="N89">
-        <f>VALUE(-3.999999989900971e-05)</f>
+        <f>VALUE(0.0009600000000773434)</f>
         <v>0</v>
       </c>
       <c r="O89">
-        <f>VALUE(-0.0005200000000513683)</f>
+        <f>VALUE(0.0014600000001792068)</f>
         <v>0</v>
       </c>
       <c r="P89" s="11">
-        <f>VALUE(-0.03499999999999659)</f>
+        <f>VALUE(-273.09299999999996)</f>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f>VALUE(-0.2599999999688407)</f>
+        <f>VALUE(1.1200000000712862)</f>
         <v>0</v>
       </c>
     </row>
@@ -7714,67 +7570,67 @@
         <v>105</v>
       </c>
       <c r="B90">
-        <f>VALUE(1.28379)</f>
+        <f>VALUE(0.82697)</f>
         <v>0</v>
       </c>
       <c r="C90" s="7">
-        <f>VALUE(1553.74266)</f>
+        <f>VALUE(1553.74622)</f>
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <f>VALUE(-10.504000000000001)</f>
+        <f>VALUE(-10.5)</f>
         <v>0</v>
       </c>
       <c r="E90" s="8">
-        <f>VALUE(1556.30456)</f>
+        <f>VALUE(1556.30746)</f>
         <v>0</v>
       </c>
       <c r="F90" s="8">
-        <f>VALUE(-9.354)</f>
+        <f>VALUE(-9.408)</f>
         <v>0</v>
       </c>
       <c r="G90" s="9">
-        <f>VALUE(1551.84114)</f>
+        <f>VALUE(1551.26028)</f>
         <v>0</v>
       </c>
       <c r="H90" s="9">
-        <f>VALUE(-15.517999999999999)</f>
+        <f>VALUE(-15.415999999999999)</f>
         <v>0</v>
       </c>
       <c r="I90" s="10">
-        <f>VALUE(1550.5983199999998)</f>
+        <f>VALUE(1550.6032599999999)</f>
         <v>0</v>
       </c>
       <c r="J90" s="10">
-        <f>VALUE(-19.458)</f>
+        <f>VALUE(-19.208)</f>
         <v>0</v>
       </c>
       <c r="K90" s="11">
-        <f>VALUE(248.808)</f>
+        <f>VALUE(248.8405)</f>
         <v>0</v>
       </c>
       <c r="L90">
-        <f>VALUE(-0.0005400000000008731)</f>
+        <f>VALUE(0.0019600000000536966)</f>
         <v>0</v>
       </c>
       <c r="M90">
-        <f>VALUE(-0.00045999999997548)</f>
+        <f>VALUE(0.0015200000000277214)</f>
         <v>0</v>
       </c>
       <c r="N90">
-        <f>VALUE(-0.00029999999992469384)</f>
+        <f>VALUE(0.0009999999999763531)</f>
         <v>0</v>
       </c>
       <c r="O90">
-        <f>VALUE(-0.0003600000000005821)</f>
+        <f>VALUE(0.0014600000001792068)</f>
         <v>0</v>
       </c>
       <c r="P90" s="11">
-        <f>VALUE(-0.03499999999999659)</f>
+        <f>VALUE(-273.08349999999996)</f>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f>VALUE(-0.41499999997540726)</f>
+        <f>VALUE(1.4850000000592445)</f>
         <v>0</v>
       </c>
     </row>
@@ -7783,1171 +7639,67 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <f>VALUE(1.30115)</f>
+        <f>VALUE(0.84446)</f>
         <v>0</v>
       </c>
       <c r="C91" s="7">
-        <f>VALUE(1553.74268)</f>
+        <f>VALUE(1553.7459)</f>
         <v>0</v>
       </c>
       <c r="D91" s="7">
-        <f>VALUE(-10.504000000000001)</f>
+        <f>VALUE(-10.448)</f>
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f>VALUE(1556.30432)</f>
+        <f>VALUE(1556.3055)</f>
         <v>0</v>
       </c>
       <c r="F91" s="8">
-        <f>VALUE(-9.442)</f>
+        <f>VALUE(-9.422)</f>
         <v>0</v>
       </c>
       <c r="G91" s="9">
-        <f>VALUE(1551.84134)</f>
+        <f>VALUE(1551.26006)</f>
         <v>0</v>
       </c>
       <c r="H91" s="9">
-        <f>VALUE(-15.554)</f>
+        <f>VALUE(-15.415999999999999)</f>
         <v>0</v>
       </c>
       <c r="I91" s="10">
-        <f>VALUE(1550.5982)</f>
+        <f>VALUE(1550.60358)</f>
         <v>0</v>
       </c>
       <c r="J91" s="10">
-        <f>VALUE(-19.506)</f>
+        <f>VALUE(-19.202)</f>
         <v>0</v>
       </c>
       <c r="K91" s="11">
-        <f>VALUE(248.8135)</f>
+        <f>VALUE(248.8395)</f>
         <v>0</v>
       </c>
       <c r="L91">
-        <f>VALUE(-0.0005199999998239946)</f>
+        <f>VALUE(0.0016399999999521242)</f>
         <v>0</v>
       </c>
       <c r="M91">
-        <f>VALUE(-0.0007000000000516593)</f>
+        <f>VALUE(-0.00044000000002597517)</f>
         <v>0</v>
       </c>
       <c r="N91">
-        <f>VALUE(-9.999999997489795e-05)</f>
+        <f>VALUE(0.0007800000000770524)</f>
         <v>0</v>
       </c>
       <c r="O91">
-        <f>VALUE(-0.00048000000015235855)</f>
+        <f>VALUE(0.0017800000000534055)</f>
         <v>0</v>
       </c>
       <c r="P91" s="11">
-        <f>VALUE(-0.02949999999998454)</f>
+        <f>VALUE(-273.0845)</f>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f>VALUE(-0.4500000000007276)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92">
-        <f>VALUE(1.31851)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="7">
-        <f>VALUE(1553.74326)</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="7">
-        <f>VALUE(-10.495999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="8">
-        <f>VALUE(1556.3043)</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
-        <f>VALUE(-9.48)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
-        <f>VALUE(1551.84218)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="9">
-        <f>VALUE(-15.544)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="10">
-        <f>VALUE(1550.59804)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="10">
-        <f>VALUE(-19.488)</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="11">
-        <f>VALUE(248.8235)</f>
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f>VALUE(6.000000007588824e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <f>VALUE(-0.0007200000000011642)</f>
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <f>VALUE(0.0007400000001780427)</f>
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <f>VALUE(-0.0006399999999757711)</f>
-        <v>0</v>
-      </c>
-      <c r="P92" s="11">
-        <f>VALUE(-0.019499999999993634)</f>
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <f>VALUE(-0.13999999993075107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93">
-        <f>VALUE(1.33587)</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="7">
-        <f>VALUE(1553.74336)</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="7">
-        <f>VALUE(-10.494000000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="8">
-        <f>VALUE(1556.30492)</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
-        <f>VALUE(-9.378)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
-        <f>VALUE(1551.84212)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="9">
-        <f>VALUE(-15.546)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="10">
-        <f>VALUE(1550.5994)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="10">
-        <f>VALUE(-19.58)</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="11">
-        <f>VALUE(248.831)</f>
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <f>VALUE(0.00016000000005078618)</f>
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <f>VALUE(-9.999999997489795e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <f>VALUE(0.0006800000001021544)</f>
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <f>VALUE(0.0007200000000011642)</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="11">
-        <f>VALUE(-0.012000000000000455)</f>
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <f>VALUE(0.3650000000448017)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94">
-        <f>VALUE(1.35352)</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="7">
-        <f>VALUE(1553.7433)</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="7">
-        <f>VALUE(-10.464)</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="8">
-        <f>VALUE(1556.30416)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
-        <f>VALUE(-9.414)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="9">
-        <f>VALUE(1551.84168)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="9">
-        <f>VALUE(-15.597999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="10">
-        <f>VALUE(1550.5983199999998)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="10">
-        <f>VALUE(-19.512)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="11">
-        <f>VALUE(248.8365)</f>
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f>VALUE(0.00010000000020227162)</f>
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <f>VALUE(-0.0008600000001024455)</f>
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <f>VALUE(0.00024000000007617928)</f>
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <f>VALUE(-0.0003600000000005821)</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="11">
-        <f>VALUE(-0.006499999999988404)</f>
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <f>VALUE(-0.21999999995614417)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95">
-        <f>VALUE(1.37101)</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="7">
-        <f>VALUE(1553.74314)</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="7">
-        <f>VALUE(-10.522)</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="8">
-        <f>VALUE(1556.3043599999999)</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
-        <f>VALUE(-9.394)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
-        <f>VALUE(1551.84184)</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="9">
-        <f>VALUE(-15.546)</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="10">
-        <f>VALUE(1550.59994)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="10">
-        <f>VALUE(-19.544)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="11">
-        <f>VALUE(248.845)</f>
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f>VALUE(-5.999999984851456e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <f>VALUE(-0.0006599999999252759)</f>
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <f>VALUE(0.00040000000012696546)</f>
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <f>VALUE(0.0012600000000020373)</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="11">
-        <f>VALUE(0.0020000000000095497)</f>
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <f>VALUE(0.23500000008880306)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96">
-        <f>VALUE(1.38851)</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="7">
-        <f>VALUE(1553.74348)</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="7">
-        <f>VALUE(-10.495999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="8">
-        <f>VALUE(1556.3046199999999)</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="8">
-        <f>VALUE(-9.402000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="9">
-        <f>VALUE(1551.8413)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="9">
-        <f>VALUE(-15.585999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="10">
-        <f>VALUE(1550.5982199999999)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="10">
-        <f>VALUE(-19.524)</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="11">
-        <f>VALUE(248.8515)</f>
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <f>VALUE(0.00028000000020256266)</f>
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <f>VALUE(-0.0003999999998995918)</f>
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <f>VALUE(-0.00013999999987390765)</f>
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <f>VALUE(-0.00045999999997548)</f>
-        <v>0</v>
-      </c>
-      <c r="P96" s="11">
-        <f>VALUE(0.008499999999997954)</f>
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <f>VALUE(-0.1799999998866042)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97">
-        <f>VALUE(1.40588)</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="7">
-        <f>VALUE(1553.74356)</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="7">
-        <f>VALUE(-10.51)</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="8">
-        <f>VALUE(1556.3057199999998)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <f>VALUE(-9.374)</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="9">
-        <f>VALUE(1551.8415400000001)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="9">
-        <f>VALUE(-15.548)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="10">
-        <f>VALUE(1550.59978)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="10">
-        <f>VALUE(-19.49)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="11">
-        <f>VALUE(248.85950000000003)</f>
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <f>VALUE(0.0003600000000005821)</f>
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <f>VALUE(0.0007000000000516593)</f>
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <f>VALUE(9.999999997489795e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <f>VALUE(0.001099999999951251)</f>
-        <v>0</v>
-      </c>
-      <c r="P97" s="11">
-        <f>VALUE(0.016500000000036152)</f>
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <f>VALUE(0.5649999999945976)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98">
-        <f>VALUE(1.42323)</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <f>VALUE(1553.7443)</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="7">
-        <f>VALUE(-10.472000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="8">
-        <f>VALUE(1556.3057)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="8">
-        <f>VALUE(-9.357999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="9">
-        <f>VALUE(1551.84134)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="9">
-        <f>VALUE(-15.552)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="10">
-        <f>VALUE(1550.5992800000001)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="10">
-        <f>VALUE(-19.546)</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="11">
-        <f>VALUE(248.86700000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <f>VALUE(0.0011000000001786248)</f>
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <f>VALUE(0.0006799999998747808)</f>
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <f>VALUE(-9.999999997489795e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <f>VALUE(0.0005999999998493877)</f>
-        <v>0</v>
-      </c>
-      <c r="P98" s="11">
-        <f>VALUE(0.02400000000002933)</f>
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <f>VALUE(0.5699999999819738)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99">
-        <f>VALUE(1.44073)</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <f>VALUE(1553.74394)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
-        <f>VALUE(-10.458)</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
-        <f>VALUE(1556.3043)</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <f>VALUE(-9.402000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
-        <f>VALUE(1551.8409800000002)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="9">
-        <f>VALUE(-15.602)</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="10">
-        <f>VALUE(1550.5992199999998)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="10">
-        <f>VALUE(-19.51)</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="11">
-        <f>VALUE(248.8735)</f>
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f>VALUE(0.0007400000001780427)</f>
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <f>VALUE(-0.0007200000000011642)</f>
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <f>VALUE(-0.00045999999997548)</f>
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <f>VALUE(0.0005400000000008731)</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="11">
-        <f>VALUE(0.030500000000017735)</f>
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <f>VALUE(0.025000000050567905)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100">
-        <f>VALUE(1.4581)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <f>VALUE(1553.74354)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <f>VALUE(-10.505999999999998)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="8">
-        <f>VALUE(1556.30438)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="8">
-        <f>VALUE(-9.34)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="9">
-        <f>VALUE(1551.8400199999999)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="9">
-        <f>VALUE(-15.575999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="10">
-        <f>VALUE(1550.59868)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="10">
-        <f>VALUE(-19.586)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="11">
-        <f>VALUE(248.8795)</f>
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <f>VALUE(0.0003400000000510772)</f>
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <f>VALUE(-0.0006399999999757711)</f>
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <f>VALUE(-0.0014199999998254498)</f>
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <f>VALUE(0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="P100" s="11">
-        <f>VALUE(0.03650000000001796)</f>
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <f>VALUE(-0.4299999999375359)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101">
-        <f>VALUE(1.47574)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="7">
-        <f>VALUE(1553.74424)</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <f>VALUE(-10.495999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="8">
-        <f>VALUE(1556.3057)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="8">
-        <f>VALUE(-9.427999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="9">
-        <f>VALUE(1551.84138)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="9">
-        <f>VALUE(-15.562000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="10">
-        <f>VALUE(1550.59882)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="10">
-        <f>VALUE(-19.554000000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="11">
-        <f>VALUE(248.8805)</f>
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <f>VALUE(0.0010400000001027365)</f>
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <f>VALUE(0.0006799999998747808)</f>
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <f>VALUE(-5.999999984851456e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <f>VALUE(0.00013999999987390765)</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="11">
-        <f>VALUE(0.03750000000002274)</f>
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <f>VALUE(0.4500000000007276)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102">
-        <f>VALUE(1.4931)</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="7">
-        <f>VALUE(1553.74392)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <f>VALUE(-10.442)</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="8">
-        <f>VALUE(1556.30516)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="8">
-        <f>VALUE(-9.352)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="9">
-        <f>VALUE(1551.8423)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="9">
-        <f>VALUE(-15.565999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="10">
-        <f>VALUE(1550.5999199999999)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="10">
-        <f>VALUE(-19.526)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="11">
-        <f>VALUE(248.8765)</f>
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <f>VALUE(0.0007200000000011642)</f>
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <f>VALUE(0.00013999999987390765)</f>
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <f>VALUE(0.0008600000001024455)</f>
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <f>VALUE(0.0012400000000525324)</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="11">
-        <f>VALUE(0.03350000000000364)</f>
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <f>VALUE(0.7400000000075124)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103">
-        <f>VALUE(1.51046)</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="7">
-        <f>VALUE(1553.74372)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <f>VALUE(-10.494000000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <f>VALUE(1556.3056199999999)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
-        <f>VALUE(-9.42)</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="9">
-        <f>VALUE(1551.8419800000001)</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="9">
-        <f>VALUE(-15.597999999999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="10">
-        <f>VALUE(1550.59888)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="10">
-        <f>VALUE(-19.544)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="11">
-        <f>VALUE(248.8755)</f>
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <f>VALUE(0.0005200000000513683)</f>
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <f>VALUE(0.0006000000000767614)</f>
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <f>VALUE(0.0005400000000008731)</f>
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <f>VALUE(0.0001999999999497959)</f>
-        <v>0</v>
-      </c>
-      <c r="P103" s="11">
-        <f>VALUE(0.03249999999999886)</f>
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <f>VALUE(0.46500000001969966)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="A104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104">
-        <f>VALUE(1.52782)</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="7">
-        <f>VALUE(1553.74404)</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <f>VALUE(-10.524000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="8">
-        <f>VALUE(1556.30564)</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="8">
-        <f>VALUE(-9.38)</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="9">
-        <f>VALUE(1551.8420199999998)</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <f>VALUE(-15.524000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="10">
-        <f>VALUE(1550.59864)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="10">
-        <f>VALUE(-19.574)</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="11">
-        <f>VALUE(248.87599999999998)</f>
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <f>VALUE(0.0008400000001529406)</f>
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <f>VALUE(0.0006200000000262662)</f>
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <f>VALUE(0.0005800000001272565)</f>
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <f>VALUE(-4.0000000126383384e-05)</f>
-        <v>0</v>
-      </c>
-      <c r="P104" s="11">
-        <f>VALUE(0.03299999999998704)</f>
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <f>VALUE(0.50000000004502)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105">
-        <f>VALUE(1.54518)</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="7">
-        <f>VALUE(1553.74346)</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="7">
-        <f>VALUE(-10.498)</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="8">
-        <f>VALUE(1556.30484)</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <f>VALUE(-9.394)</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <f>VALUE(1551.8418800000002)</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
-        <f>VALUE(-15.574000000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="I105" s="10">
-        <f>VALUE(1550.5992)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="10">
-        <f>VALUE(-19.57)</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="11">
-        <f>VALUE(248.87)</f>
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <f>VALUE(0.00026000000002568413)</f>
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <f>VALUE(-0.00018000000000029104)</f>
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <f>VALUE(0.00044000000002597517)</f>
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <f>VALUE(0.0005200000000513683)</f>
-        <v>0</v>
-      </c>
-      <c r="P105" s="11">
-        <f>VALUE(0.027000000000015234)</f>
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <f>VALUE(0.26000000002568413)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" t="s">
-        <v>121</v>
-      </c>
-      <c r="B106">
-        <f>VALUE(1.56269)</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="7">
-        <f>VALUE(1553.74372)</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="7">
-        <f>VALUE(-10.482000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="8">
-        <f>VALUE(1556.30454)</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
-        <f>VALUE(-9.376)</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
-        <f>VALUE(1551.84122)</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="9">
-        <f>VALUE(-15.546)</f>
-        <v>0</v>
-      </c>
-      <c r="I106" s="10">
-        <f>VALUE(1550.59888)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="10">
-        <f>VALUE(-19.58)</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="11">
-        <f>VALUE(248.857)</f>
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <f>VALUE(0.0005200000000513683)</f>
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <f>VALUE(-0.0004799999999249849)</f>
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <f>VALUE(-0.00021999999989930075)</f>
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <f>VALUE(0.0001999999999497959)</f>
-        <v>0</v>
-      </c>
-      <c r="P106" s="11">
-        <f>VALUE(0.014000000000010004)</f>
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <f>VALUE(0.005000000044219632)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="A107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B107">
-        <f>VALUE(1.58019)</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="7">
-        <f>VALUE(1553.74268)</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="7">
-        <f>VALUE(-20.0)</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="8">
-        <f>VALUE(1556.30408)</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="8">
-        <f>VALUE(-9.312000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <f>VALUE(1551.84076)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <f>VALUE(-15.514000000000001)</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="10">
-        <f>VALUE(1550.5994)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="10">
-        <f>VALUE(-19.554000000000002)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="11">
-        <f>VALUE(248.8485)</f>
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <f>VALUE(-0.0005199999998239946)</f>
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <f>VALUE(-0.0009399999999004649)</f>
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <f>VALUE(-0.0006799999998747808)</f>
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <f>VALUE(0.0007200000000011642)</f>
-        <v>0</v>
-      </c>
-      <c r="P107" s="11">
-        <f>VALUE(0.005500000000012051)</f>
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <f>VALUE(-0.354999999899519)</f>
+        <f>VALUE(0.9400000000141517)</f>
         <v>0</v>
       </c>
     </row>
